--- a/data/options-recap/realtime/excel/Options Recap - Realtime.xlsx
+++ b/data/options-recap/realtime/excel/Options Recap - Realtime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Programming\Cue\data\options-recap\realtime\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D4A5D6-4A9F-4AC4-BD8E-26082E8ECB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C160A0B-5E67-4FE1-9E12-705F5809D5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{46699434-473C-4966-BCFA-04206E4C53EA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14370" uniqueCount="8915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15219" uniqueCount="9394">
   <si>
     <t>Ticker</t>
   </si>
@@ -26779,6 +26779,1443 @@
   </si>
   <si>
     <t>BAD|0.0014</t>
+  </si>
+  <si>
+    <t>OKAY|$435</t>
+  </si>
+  <si>
+    <t>OKAY|$457.58</t>
+  </si>
+  <si>
+    <t>BAD|-4.93%</t>
+  </si>
+  <si>
+    <t>GOOD|258</t>
+  </si>
+  <si>
+    <t>BAD|363.38</t>
+  </si>
+  <si>
+    <t>GOOD|24.02%</t>
+  </si>
+  <si>
+    <t>OKAY|-0.2174</t>
+  </si>
+  <si>
+    <t>BAD|0.3843</t>
+  </si>
+  <si>
+    <t>BAD|-0.1561</t>
+  </si>
+  <si>
+    <t>BAD|-0.0775</t>
+  </si>
+  <si>
+    <t>BAD|$399</t>
+  </si>
+  <si>
+    <t>BKKT</t>
+  </si>
+  <si>
+    <t>NEW|08:10</t>
+  </si>
+  <si>
+    <t>NEW|$11.5</t>
+  </si>
+  <si>
+    <t>NEW|$9.39</t>
+  </si>
+  <si>
+    <t>NEW|22.47%</t>
+  </si>
+  <si>
+    <t>NEW|8289</t>
+  </si>
+  <si>
+    <t>NEW|119</t>
+  </si>
+  <si>
+    <t>NEW|6965.55</t>
+  </si>
+  <si>
+    <t>NEW|284.36%</t>
+  </si>
+  <si>
+    <t>NEW|0.1719</t>
+  </si>
+  <si>
+    <t>NEW|0.137</t>
+  </si>
+  <si>
+    <t>NEW|0.0019</t>
+  </si>
+  <si>
+    <t>NEW|-0.0987</t>
+  </si>
+  <si>
+    <t>NEW|0.0001</t>
+  </si>
+  <si>
+    <t>OKAY|205</t>
+  </si>
+  <si>
+    <t>BEST|$22.24</t>
+  </si>
+  <si>
+    <t>BAD|1305</t>
+  </si>
+  <si>
+    <t>BAD|96</t>
+  </si>
+  <si>
+    <t>BAD|1359.38</t>
+  </si>
+  <si>
+    <t>OKAY|54.06%</t>
+  </si>
+  <si>
+    <t>BAD|0.5127</t>
+  </si>
+  <si>
+    <t>OKAY|0.0444</t>
+  </si>
+  <si>
+    <t>OKAY|0.0666</t>
+  </si>
+  <si>
+    <t>BAD|-0.0087</t>
+  </si>
+  <si>
+    <t>BAD|$299</t>
+  </si>
+  <si>
+    <t>GOOD|08:25</t>
+  </si>
+  <si>
+    <t>OKAY|$99</t>
+  </si>
+  <si>
+    <t>BAD|$93.85</t>
+  </si>
+  <si>
+    <t>BAD|5.49%</t>
+  </si>
+  <si>
+    <t>BAD|543.48</t>
+  </si>
+  <si>
+    <t>BAD|45.62%</t>
+  </si>
+  <si>
+    <t>GOOD|0.3672</t>
+  </si>
+  <si>
+    <t>BAD|0.1034</t>
+  </si>
+  <si>
+    <t>BAD|-0.0763</t>
+  </si>
+  <si>
+    <t>BAD|0.0246</t>
+  </si>
+  <si>
+    <t>OKAY|$310</t>
+  </si>
+  <si>
+    <t>BEST|08:26</t>
+  </si>
+  <si>
+    <t>BAD|$17.18</t>
+  </si>
+  <si>
+    <t>BAD|7.68%</t>
+  </si>
+  <si>
+    <t>BAD|842</t>
+  </si>
+  <si>
+    <t>BEST|53.51%</t>
+  </si>
+  <si>
+    <t>BAD|0.2678</t>
+  </si>
+  <si>
+    <t>BAD|0.1723</t>
+  </si>
+  <si>
+    <t>BEST|0.0121</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0191</t>
+  </si>
+  <si>
+    <t>OKAY|08:35</t>
+  </si>
+  <si>
+    <t>OKAY|$131.94</t>
+  </si>
+  <si>
+    <t>BAD|-5.26%</t>
+  </si>
+  <si>
+    <t>BEST|15000</t>
+  </si>
+  <si>
+    <t>GOOD|671</t>
+  </si>
+  <si>
+    <t>BAD|2235.47</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0816</t>
+  </si>
+  <si>
+    <t>BAD|0.0292</t>
+  </si>
+  <si>
+    <t>BEST|0.0617</t>
+  </si>
+  <si>
+    <t>BEST|-0.0122</t>
+  </si>
+  <si>
+    <t>GOOD|$57.37</t>
+  </si>
+  <si>
+    <t>BAD|-7.62%</t>
+  </si>
+  <si>
+    <t>OKAY|329</t>
+  </si>
+  <si>
+    <t>OKAY|4700</t>
+  </si>
+  <si>
+    <t>BAD|38.88%</t>
+  </si>
+  <si>
+    <t>OKAY|-0.2256</t>
+  </si>
+  <si>
+    <t>OKAY|0.0457</t>
+  </si>
+  <si>
+    <t>GOOD|0.0506</t>
+  </si>
+  <si>
+    <t>BEST|-0.0315</t>
+  </si>
+  <si>
+    <t>OKAY|-0.011</t>
+  </si>
+  <si>
+    <t>GOOD|09:06</t>
+  </si>
+  <si>
+    <t>BEST|$36.26</t>
+  </si>
+  <si>
+    <t>OKAY|13.07%</t>
+  </si>
+  <si>
+    <t>BAD|3535</t>
+  </si>
+  <si>
+    <t>BAD|44187.5</t>
+  </si>
+  <si>
+    <t>OKAY|27.25%</t>
+  </si>
+  <si>
+    <t>BAD|0.0954</t>
+  </si>
+  <si>
+    <t>BAD|0.0203</t>
+  </si>
+  <si>
+    <t>BEST|09:13</t>
+  </si>
+  <si>
+    <t>BAD|$82.37</t>
+  </si>
+  <si>
+    <t>BAD|5.62%</t>
+  </si>
+  <si>
+    <t>OKAY|600</t>
+  </si>
+  <si>
+    <t>BAD|29.51%</t>
+  </si>
+  <si>
+    <t>GOOD|0.217</t>
+  </si>
+  <si>
+    <t>BEST|0.0548</t>
+  </si>
+  <si>
+    <t>BEST|0.053</t>
+  </si>
+  <si>
+    <t>BEST|-0.0455</t>
+  </si>
+  <si>
+    <t>OKAY|0.0081</t>
+  </si>
+  <si>
+    <t>CMCSA</t>
+  </si>
+  <si>
+    <t>BAD|09:31</t>
+  </si>
+  <si>
+    <t>OKAY|86</t>
+  </si>
+  <si>
+    <t>BAD|$48.92</t>
+  </si>
+  <si>
+    <t>OKAY|-8.01%</t>
+  </si>
+  <si>
+    <t>BAD|4388</t>
+  </si>
+  <si>
+    <t>OKAY|3428.12</t>
+  </si>
+  <si>
+    <t>GOOD|31.26%</t>
+  </si>
+  <si>
+    <t>OKAY|0.7242</t>
+  </si>
+  <si>
+    <t>BAD|0.0449</t>
+  </si>
+  <si>
+    <t>OKAY|0.0798</t>
+  </si>
+  <si>
+    <t>BAD|-0.0144</t>
+  </si>
+  <si>
+    <t>GOOD|0.0712</t>
+  </si>
+  <si>
+    <t>BAD|$520</t>
+  </si>
+  <si>
+    <t>OKAY|$89.74</t>
+  </si>
+  <si>
+    <t>BEST|-5.28%</t>
+  </si>
+  <si>
+    <t>BAD|10104</t>
+  </si>
+  <si>
+    <t>BAD|2959</t>
+  </si>
+  <si>
+    <t>BAD|341.47</t>
+  </si>
+  <si>
+    <t>BAD|60.89%</t>
+  </si>
+  <si>
+    <t>BAD|-0.1238</t>
+  </si>
+  <si>
+    <t>OKAY|0.0481</t>
+  </si>
+  <si>
+    <t>BAD|-0.1801</t>
+  </si>
+  <si>
+    <t>BAD|-0.0007</t>
+  </si>
+  <si>
+    <t>BAD|09:47</t>
+  </si>
+  <si>
+    <t>GOOD|$11.5</t>
+  </si>
+  <si>
+    <t>OKAY|$10.77</t>
+  </si>
+  <si>
+    <t>BAD|6.78%</t>
+  </si>
+  <si>
+    <t>BAD|3126</t>
+  </si>
+  <si>
+    <t>OKAY|104200</t>
+  </si>
+  <si>
+    <t>OKAY|44.03%</t>
+  </si>
+  <si>
+    <t>GOOD|0.326</t>
+  </si>
+  <si>
+    <t>GOOD|0.2593</t>
+  </si>
+  <si>
+    <t>GOOD|-0.008</t>
+  </si>
+  <si>
+    <t>OKAY|0.0026</t>
+  </si>
+  <si>
+    <t>OKAY|09:59</t>
+  </si>
+  <si>
+    <t>OKAY|$115</t>
+  </si>
+  <si>
+    <t>OKAY|$101.37</t>
+  </si>
+  <si>
+    <t>OKAY|13.45%</t>
+  </si>
+  <si>
+    <t>OKAY|94</t>
+  </si>
+  <si>
+    <t>OKAY|408.51</t>
+  </si>
+  <si>
+    <t>OKAY|85.06%</t>
+  </si>
+  <si>
+    <t>OKAY|0.2843</t>
+  </si>
+  <si>
+    <t>OKAY|0.0178</t>
+  </si>
+  <si>
+    <t>OKAY|0.0746</t>
+  </si>
+  <si>
+    <t>OKAY|-0.1878</t>
+  </si>
+  <si>
+    <t>OKAY|0.0122</t>
+  </si>
+  <si>
+    <t>OKAY|$175</t>
+  </si>
+  <si>
+    <t>OKAY|$195.46</t>
+  </si>
+  <si>
+    <t>OKAY|-10.47%</t>
+  </si>
+  <si>
+    <t>OKAY|633.33</t>
+  </si>
+  <si>
+    <t>BEST|59.97%</t>
+  </si>
+  <si>
+    <t>BEST|-0.3068</t>
+  </si>
+  <si>
+    <t>OKAY|0.0053</t>
+  </si>
+  <si>
+    <t>OKAY|0.3846</t>
+  </si>
+  <si>
+    <t>OKAY|-0.1012</t>
+  </si>
+  <si>
+    <t>BAD|-0.2136</t>
+  </si>
+  <si>
+    <t>OKAY|$1570</t>
+  </si>
+  <si>
+    <t>BILI</t>
+  </si>
+  <si>
+    <t>OKAY|10:17</t>
+  </si>
+  <si>
+    <t>OKAY|$49.41</t>
+  </si>
+  <si>
+    <t>OKAY|2536.84</t>
+  </si>
+  <si>
+    <t>OKAY|94.68%</t>
+  </si>
+  <si>
+    <t>OKAY|-0.2382</t>
+  </si>
+  <si>
+    <t>BAD|-0.2729</t>
+  </si>
+  <si>
+    <t>SQM</t>
+  </si>
+  <si>
+    <t>NEW|10:17</t>
+  </si>
+  <si>
+    <t>NEW|$47</t>
+  </si>
+  <si>
+    <t>NEW|$49.49</t>
+  </si>
+  <si>
+    <t>NEW|-5.03%</t>
+  </si>
+  <si>
+    <t>NEW|1527.59</t>
+  </si>
+  <si>
+    <t>NEW|57.64%</t>
+  </si>
+  <si>
+    <t>NEW|-0.3531</t>
+  </si>
+  <si>
+    <t>NEW|0.0432</t>
+  </si>
+  <si>
+    <t>NEW|0.0537</t>
+  </si>
+  <si>
+    <t>NEW|-0.0511</t>
+  </si>
+  <si>
+    <t>NEW|-0.0168</t>
+  </si>
+  <si>
+    <t>NEW|$235</t>
+  </si>
+  <si>
+    <t>OKAY|10:35</t>
+  </si>
+  <si>
+    <t>BEST|$64.5</t>
+  </si>
+  <si>
+    <t>OKAY|$58.63</t>
+  </si>
+  <si>
+    <t>GOOD|10.01%</t>
+  </si>
+  <si>
+    <t>BAD|2884</t>
+  </si>
+  <si>
+    <t>BEST|648</t>
+  </si>
+  <si>
+    <t>OKAY|445.06</t>
+  </si>
+  <si>
+    <t>GOOD|86.15%</t>
+  </si>
+  <si>
+    <t>BEST|0.0792</t>
+  </si>
+  <si>
+    <t>BAD|0.0382</t>
+  </si>
+  <si>
+    <t>GOOD|-0.1044</t>
+  </si>
+  <si>
+    <t>OKAY|$139</t>
+  </si>
+  <si>
+    <t>GOOD|$151.29</t>
+  </si>
+  <si>
+    <t>BEST|-8.12%</t>
+  </si>
+  <si>
+    <t>GOOD|1016</t>
+  </si>
+  <si>
+    <t>OKAY|11288.89</t>
+  </si>
+  <si>
+    <t>OKAY|-0.0998</t>
+  </si>
+  <si>
+    <t>OKAY|-0.0515</t>
+  </si>
+  <si>
+    <t>OKAY|$36.43</t>
+  </si>
+  <si>
+    <t>GOOD|-20.4%</t>
+  </si>
+  <si>
+    <t>BAD|2000</t>
+  </si>
+  <si>
+    <t>BAD|47</t>
+  </si>
+  <si>
+    <t>BEST|4255.32</t>
+  </si>
+  <si>
+    <t>OKAY|32.66%</t>
+  </si>
+  <si>
+    <t>BEST|-0.1379</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0051</t>
+  </si>
+  <si>
+    <t>OKAY|$67</t>
+  </si>
+  <si>
+    <t>KMX</t>
+  </si>
+  <si>
+    <t>NEW|10:55</t>
+  </si>
+  <si>
+    <t>NEW|$170</t>
+  </si>
+  <si>
+    <t>NEW|$135</t>
+  </si>
+  <si>
+    <t>NEW|25.93%</t>
+  </si>
+  <si>
+    <t>NEW|1101</t>
+  </si>
+  <si>
+    <t>NEW|159</t>
+  </si>
+  <si>
+    <t>NEW|692.45</t>
+  </si>
+  <si>
+    <t>NEW|171.17%</t>
+  </si>
+  <si>
+    <t>NEW|0.0477</t>
+  </si>
+  <si>
+    <t>NEW|0.0056</t>
+  </si>
+  <si>
+    <t>NEW|0.0102</t>
+  </si>
+  <si>
+    <t>NEW|-0.2841</t>
+  </si>
+  <si>
+    <t>NEW|0.0004</t>
+  </si>
+  <si>
+    <t>GOOD|58</t>
+  </si>
+  <si>
+    <t>BEST|$21.05</t>
+  </si>
+  <si>
+    <t>BAD|9.26%</t>
+  </si>
+  <si>
+    <t>OKAY|25534</t>
+  </si>
+  <si>
+    <t>BAD|1193</t>
+  </si>
+  <si>
+    <t>GOOD|2140.32</t>
+  </si>
+  <si>
+    <t>OKAY|40.43%</t>
+  </si>
+  <si>
+    <t>BAD|0.3268</t>
+  </si>
+  <si>
+    <t>BAD|0.1051</t>
+  </si>
+  <si>
+    <t>OKAY|-0.0104</t>
+  </si>
+  <si>
+    <t>GOOD|0.01</t>
+  </si>
+  <si>
+    <t>BEST|$30.74</t>
+  </si>
+  <si>
+    <t>BAD|8.98%</t>
+  </si>
+  <si>
+    <t>BAD|1145</t>
+  </si>
+  <si>
+    <t>BAD|7156.25</t>
+  </si>
+  <si>
+    <t>OKAY|32.98%</t>
+  </si>
+  <si>
+    <t>BAD|0.2043</t>
+  </si>
+  <si>
+    <t>GOOD|0.0256</t>
+  </si>
+  <si>
+    <t>BAD|-0.0134</t>
+  </si>
+  <si>
+    <t>BEST|0.0051</t>
+  </si>
+  <si>
+    <t>BAD|11:12</t>
+  </si>
+  <si>
+    <t>BEST|$20.45</t>
+  </si>
+  <si>
+    <t>BEST|17.36%</t>
+  </si>
+  <si>
+    <t>GOOD|1534</t>
+  </si>
+  <si>
+    <t>BAD|188</t>
+  </si>
+  <si>
+    <t>BAD|815.96</t>
+  </si>
+  <si>
+    <t>OKAY|60.56%</t>
+  </si>
+  <si>
+    <t>BAD|0.21</t>
+  </si>
+  <si>
+    <t>BAD|-0.0166</t>
+  </si>
+  <si>
+    <t>GOOD|0.0033</t>
+  </si>
+  <si>
+    <t>BAD|$47.5</t>
+  </si>
+  <si>
+    <t>BAD|$44.45</t>
+  </si>
+  <si>
+    <t>BAD|6.86%</t>
+  </si>
+  <si>
+    <t>BAD|394</t>
+  </si>
+  <si>
+    <t>OKAY|3940</t>
+  </si>
+  <si>
+    <t>GOOD|27%</t>
+  </si>
+  <si>
+    <t>BAD|0.2169</t>
+  </si>
+  <si>
+    <t>BAD|0.0828</t>
+  </si>
+  <si>
+    <t>BEST|0.0384</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0166</t>
+  </si>
+  <si>
+    <t>BHC</t>
+  </si>
+  <si>
+    <t>OKAY|11:19</t>
+  </si>
+  <si>
+    <t>OKAY|$26.66</t>
+  </si>
+  <si>
+    <t>GOOD|4360</t>
+  </si>
+  <si>
+    <t>BAD|72</t>
+  </si>
+  <si>
+    <t>OKAY|6055.56</t>
+  </si>
+  <si>
+    <t>BAD|56.38%</t>
+  </si>
+  <si>
+    <t>OKAY|0.1689</t>
+  </si>
+  <si>
+    <t>GOOD|0.1891</t>
+  </si>
+  <si>
+    <t>BAD|-0.0752</t>
+  </si>
+  <si>
+    <t>BAD|11:48</t>
+  </si>
+  <si>
+    <t>BEST|$32</t>
+  </si>
+  <si>
+    <t>BEST|$30.46</t>
+  </si>
+  <si>
+    <t>BAD|5.06%</t>
+  </si>
+  <si>
+    <t>OKAY|1451</t>
+  </si>
+  <si>
+    <t>BEST|333</t>
+  </si>
+  <si>
+    <t>BAD|435.74</t>
+  </si>
+  <si>
+    <t>BAD|136.26%</t>
+  </si>
+  <si>
+    <t>BEST|0.5126</t>
+  </si>
+  <si>
+    <t>BAD|0.0312</t>
+  </si>
+  <si>
+    <t>BAD|-0.0885</t>
+  </si>
+  <si>
+    <t>BAD|0.0073</t>
+  </si>
+  <si>
+    <t>BAD|$380</t>
+  </si>
+  <si>
+    <t>BEST|$286.86</t>
+  </si>
+  <si>
+    <t>BAD|-5.01%</t>
+  </si>
+  <si>
+    <t>OKAY|4405</t>
+  </si>
+  <si>
+    <t>BAD|1085</t>
+  </si>
+  <si>
+    <t>BEST|405.99</t>
+  </si>
+  <si>
+    <t>OKAY|62.99%</t>
+  </si>
+  <si>
+    <t>OKAY|-0.1379</t>
+  </si>
+  <si>
+    <t>GOOD|0.0159</t>
+  </si>
+  <si>
+    <t>OKAY|0.0483</t>
+  </si>
+  <si>
+    <t>BAD|-0.6728</t>
+  </si>
+  <si>
+    <t>BEST|-0.0023</t>
+  </si>
+  <si>
+    <t>KGC</t>
+  </si>
+  <si>
+    <t>BAD|11:54</t>
+  </si>
+  <si>
+    <t>BAD|$5.59</t>
+  </si>
+  <si>
+    <t>BAD|-10.55%</t>
+  </si>
+  <si>
+    <t>OKAY|31043</t>
+  </si>
+  <si>
+    <t>OKAY|6638</t>
+  </si>
+  <si>
+    <t>BAD|467.66</t>
+  </si>
+  <si>
+    <t>BAD|42.98%</t>
+  </si>
+  <si>
+    <t>BAD|-0.3002</t>
+  </si>
+  <si>
+    <t>OKAY|0.2264</t>
+  </si>
+  <si>
+    <t>OKAY|-0.0018</t>
+  </si>
+  <si>
+    <t>BEST|-0.0076</t>
+  </si>
+  <si>
+    <t>OKAY|12:06</t>
+  </si>
+  <si>
+    <t>BAD|$36.5</t>
+  </si>
+  <si>
+    <t>GOOD|$38.51</t>
+  </si>
+  <si>
+    <t>OKAY|173</t>
+  </si>
+  <si>
+    <t>GOOD|578.03</t>
+  </si>
+  <si>
+    <t>BAD|27.55%</t>
+  </si>
+  <si>
+    <t>BAD|-0.2137</t>
+  </si>
+  <si>
+    <t>BEST|0.1064</t>
+  </si>
+  <si>
+    <t>OKAY|-0.0053</t>
+  </si>
+  <si>
+    <t>BEST|12:13</t>
+  </si>
+  <si>
+    <t>BEST|$40.96</t>
+  </si>
+  <si>
+    <t>GOOD|7.42%</t>
+  </si>
+  <si>
+    <t>BAD|4351.85</t>
+  </si>
+  <si>
+    <t>OKAY|0.2777</t>
+  </si>
+  <si>
+    <t>BAD|0.0754</t>
+  </si>
+  <si>
+    <t>OKAY|$73</t>
+  </si>
+  <si>
+    <t>GOOD|$22.03</t>
+  </si>
+  <si>
+    <t>GOOD|-13.75%</t>
+  </si>
+  <si>
+    <t>GOOD|700</t>
+  </si>
+  <si>
+    <t>OKAY|1555.56</t>
+  </si>
+  <si>
+    <t>BAD|62.32%</t>
+  </si>
+  <si>
+    <t>BEST|0.7961</t>
+  </si>
+  <si>
+    <t>OKAY|0.0626</t>
+  </si>
+  <si>
+    <t>GOOD|0.0202</t>
+  </si>
+  <si>
+    <t>BAD|-0.0168</t>
+  </si>
+  <si>
+    <t>OKAY|$6.52</t>
+  </si>
+  <si>
+    <t>OKAY|15.03%</t>
+  </si>
+  <si>
+    <t>OKAY|2406</t>
+  </si>
+  <si>
+    <t>BEST|2074.14</t>
+  </si>
+  <si>
+    <t>BAD|50.71%</t>
+  </si>
+  <si>
+    <t>BAD|0.195</t>
+  </si>
+  <si>
+    <t>BEST|0.2826</t>
+  </si>
+  <si>
+    <t>OKAY|268</t>
+  </si>
+  <si>
+    <t>BAD|$18.92</t>
+  </si>
+  <si>
+    <t>BAD|0.42%</t>
+  </si>
+  <si>
+    <t>OKAY|1001</t>
+  </si>
+  <si>
+    <t>OKAY|7700</t>
+  </si>
+  <si>
+    <t>OKAY|54.03%</t>
+  </si>
+  <si>
+    <t>BEST|-0.4061</t>
+  </si>
+  <si>
+    <t>OKAY|0.044</t>
+  </si>
+  <si>
+    <t>OKAY|0.0631</t>
+  </si>
+  <si>
+    <t>BAD|-0.0064</t>
+  </si>
+  <si>
+    <t>GOOD|$350</t>
+  </si>
+  <si>
+    <t>GOOD|12:46</t>
+  </si>
+  <si>
+    <t>GOOD|$43.8</t>
+  </si>
+  <si>
+    <t>BAD|-6.39%</t>
+  </si>
+  <si>
+    <t>BAD|4051</t>
+  </si>
+  <si>
+    <t>BAD|122</t>
+  </si>
+  <si>
+    <t>BAD|3320.49</t>
+  </si>
+  <si>
+    <t>BAD|32.18%</t>
+  </si>
+  <si>
+    <t>BAD|-0.1022</t>
+  </si>
+  <si>
+    <t>GOOD|0.0759</t>
+  </si>
+  <si>
+    <t>OKAY|0.0132</t>
+  </si>
+  <si>
+    <t>BAD|12:49</t>
+  </si>
+  <si>
+    <t>OKAY|$42.5</t>
+  </si>
+  <si>
+    <t>OKAY|$47.78</t>
+  </si>
+  <si>
+    <t>BAD|-11.05%</t>
+  </si>
+  <si>
+    <t>BAD|11440</t>
+  </si>
+  <si>
+    <t>BAD|1136</t>
+  </si>
+  <si>
+    <t>BAD|1007.04</t>
+  </si>
+  <si>
+    <t>OKAY|45.54%</t>
+  </si>
+  <si>
+    <t>BAD|-0.7098</t>
+  </si>
+  <si>
+    <t>APA</t>
+  </si>
+  <si>
+    <t>GOOD|13:01</t>
+  </si>
+  <si>
+    <t>BAD|$32.5</t>
+  </si>
+  <si>
+    <t>BAD|$25.18</t>
+  </si>
+  <si>
+    <t>BAD|29.07%</t>
+  </si>
+  <si>
+    <t>BAD|411</t>
+  </si>
+  <si>
+    <t>BEST|10275</t>
+  </si>
+  <si>
+    <t>OKAY|56.7%</t>
+  </si>
+  <si>
+    <t>BAD|0.1575</t>
+  </si>
+  <si>
+    <t>BAD|0.0417</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0116</t>
+  </si>
+  <si>
+    <t>OKAY|$23.61</t>
+  </si>
+  <si>
+    <t>OKAY|22.83%</t>
+  </si>
+  <si>
+    <t>BAD|8266.67</t>
+  </si>
+  <si>
+    <t>BAD|86.17%</t>
+  </si>
+  <si>
+    <t>OKAY|0.2449</t>
+  </si>
+  <si>
+    <t>BAD|0.0529</t>
+  </si>
+  <si>
+    <t>BAD|0.0216</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0298</t>
+  </si>
+  <si>
+    <t>BAD|13:18</t>
+  </si>
+  <si>
+    <t>OKAY|$182.5</t>
+  </si>
+  <si>
+    <t>OKAY|$172.86</t>
+  </si>
+  <si>
+    <t>BAD|5.58%</t>
+  </si>
+  <si>
+    <t>BAD|2398</t>
+  </si>
+  <si>
+    <t>GOOD|775</t>
+  </si>
+  <si>
+    <t>OKAY|309.42</t>
+  </si>
+  <si>
+    <t>BAD|28.29%</t>
+  </si>
+  <si>
+    <t>BAD|0.2753</t>
+  </si>
+  <si>
+    <t>BEST|0.0232</t>
+  </si>
+  <si>
+    <t>OKAY|0.1692</t>
+  </si>
+  <si>
+    <t>BEST|-0.077</t>
+  </si>
+  <si>
+    <t>GOOD|0.0384</t>
+  </si>
+  <si>
+    <t>BAD|$231</t>
+  </si>
+  <si>
+    <t>GOOD|13:19</t>
+  </si>
+  <si>
+    <t>OKAY|$162.5</t>
+  </si>
+  <si>
+    <t>GOOD|-5.99%</t>
+  </si>
+  <si>
+    <t>GOOD|1829</t>
+  </si>
+  <si>
+    <t>OKAY|314.8</t>
+  </si>
+  <si>
+    <t>BEST|-0.2325</t>
+  </si>
+  <si>
+    <t>BAD|0.1549</t>
+  </si>
+  <si>
+    <t>OKAY|-0.0776</t>
+  </si>
+  <si>
+    <t>BAD|-0.0334</t>
+  </si>
+  <si>
+    <t>BEST|$223</t>
+  </si>
+  <si>
+    <t>OKAY|13:22</t>
+  </si>
+  <si>
+    <t>OKAY|$181</t>
+  </si>
+  <si>
+    <t>OKAY|$169.72</t>
+  </si>
+  <si>
+    <t>OKAY|6.65%</t>
+  </si>
+  <si>
+    <t>BAD|1385</t>
+  </si>
+  <si>
+    <t>GOOD|42</t>
+  </si>
+  <si>
+    <t>BAD|3297.62</t>
+  </si>
+  <si>
+    <t>GOOD|21.41%</t>
+  </si>
+  <si>
+    <t>GOOD|0.0945</t>
+  </si>
+  <si>
+    <t>OKAY|0.0208</t>
+  </si>
+  <si>
+    <t>BEST|0.0636</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0388</t>
+  </si>
+  <si>
+    <t>VIPS</t>
+  </si>
+  <si>
+    <t>BEST|13:25</t>
+  </si>
+  <si>
+    <t>BAD|$8.42</t>
+  </si>
+  <si>
+    <t>BEST|-4.99%</t>
+  </si>
+  <si>
+    <t>BAD|7011</t>
+  </si>
+  <si>
+    <t>BAD|1382.84</t>
+  </si>
+  <si>
+    <t>BAD|70.12%</t>
+  </si>
+  <si>
+    <t>BAD|-0.3598</t>
+  </si>
+  <si>
+    <t>OKAY|0.2139</t>
+  </si>
+  <si>
+    <t>BAD|-0.0105</t>
+  </si>
+  <si>
+    <t>BEST|-0.003</t>
+  </si>
+  <si>
+    <t>OKAY|13:37</t>
+  </si>
+  <si>
+    <t>GOOD|394</t>
+  </si>
+  <si>
+    <t>BEST|$95.48</t>
+  </si>
+  <si>
+    <t>OKAY|-8.88%</t>
+  </si>
+  <si>
+    <t>BAD|600</t>
+  </si>
+  <si>
+    <t>OKAY|582.52</t>
+  </si>
+  <si>
+    <t>OKAY|41.5%</t>
+  </si>
+  <si>
+    <t>OKAY|-0.3413</t>
+  </si>
+  <si>
+    <t>GOOD|0.0089</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0187</t>
+  </si>
+  <si>
+    <t>BEST|-0.4602</t>
+  </si>
+  <si>
+    <t>OKAY|$1230</t>
+  </si>
+  <si>
+    <t>GOOD|13:44</t>
+  </si>
+  <si>
+    <t>OKAY|$129</t>
+  </si>
+  <si>
+    <t>BEST|$115.84</t>
+  </si>
+  <si>
+    <t>BAD|11.36%</t>
+  </si>
+  <si>
+    <t>OKAY|7028</t>
+  </si>
+  <si>
+    <t>BAD|702800</t>
+  </si>
+  <si>
+    <t>BAD|34.86%</t>
+  </si>
+  <si>
+    <t>BAD|0.2447</t>
+  </si>
+  <si>
+    <t>BAD|-0.0426</t>
+  </si>
+  <si>
+    <t>BAD|$229</t>
+  </si>
+  <si>
+    <t>GOOD|13:55</t>
+  </si>
+  <si>
+    <t>BAD|$38.41</t>
+  </si>
+  <si>
+    <t>BAD|-6.27%</t>
+  </si>
+  <si>
+    <t>OKAY|1188</t>
+  </si>
+  <si>
+    <t>OKAY|39600</t>
+  </si>
+  <si>
+    <t>OKAY|48.81%</t>
+  </si>
+  <si>
+    <t>OKAY|0.9776</t>
+  </si>
+  <si>
+    <t>BAD|0.0429</t>
+  </si>
+  <si>
+    <t>OKAY|0.0012</t>
+  </si>
+  <si>
+    <t>OKAY|$247</t>
+  </si>
+  <si>
+    <t>BEST|13:55</t>
+  </si>
+  <si>
+    <t>OKAY|$462.07</t>
+  </si>
+  <si>
+    <t>BAD|-19.93%</t>
+  </si>
+  <si>
+    <t>OKAY|42100</t>
+  </si>
+  <si>
+    <t>BEST|40.1%</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0221</t>
+  </si>
+  <si>
+    <t>BAD|0.001</t>
+  </si>
+  <si>
+    <t>OKAY|0.0704</t>
+  </si>
+  <si>
+    <t>BAD|-0.0455</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0081</t>
+  </si>
+  <si>
+    <t>BEST|$130</t>
+  </si>
+  <si>
+    <t>BEST|$136.88</t>
+  </si>
+  <si>
+    <t>OKAY|-5.03%</t>
+  </si>
+  <si>
+    <t>BAD|10145</t>
+  </si>
+  <si>
+    <t>BAD|69</t>
+  </si>
+  <si>
+    <t>BAD|14702.9</t>
+  </si>
+  <si>
+    <t>OKAY|23.53%</t>
+  </si>
+  <si>
+    <t>BEST|-0.0914</t>
+  </si>
+  <si>
+    <t>GOOD|0.0303</t>
+  </si>
+  <si>
+    <t>BAD|-0.0429</t>
   </si>
 </sst>
 </file>
@@ -26944,7 +28381,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -27500,10 +28972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01A41AF-5C41-43F4-ABA6-E54911303FD1}">
-  <dimension ref="A1:U804"/>
+  <dimension ref="A1:U852"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A751" workbookViewId="0">
-      <selection activeCell="B761" sqref="B761"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A826" sqref="A826"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -79514,8 +80986,3089 @@
         <v>0.51559999999999995</v>
       </c>
     </row>
+    <row r="805" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A805" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C805" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D805" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E805" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F805" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G805" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H805" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I805" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J805" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K805" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L805" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M805" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N805" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O805" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P805" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q805" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R805" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S805" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T805" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U805" s="1" t="s">
+        <v>6862</v>
+      </c>
+    </row>
+    <row r="806" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A806" s="23">
+        <v>44551</v>
+      </c>
+      <c r="B806" s="23"/>
+      <c r="C806" s="23"/>
+      <c r="D806" s="23"/>
+      <c r="E806" s="23"/>
+      <c r="F806" s="23"/>
+      <c r="G806" s="23"/>
+      <c r="H806" s="23"/>
+      <c r="I806" s="23"/>
+      <c r="J806" s="23"/>
+      <c r="K806" s="23"/>
+      <c r="L806" s="23"/>
+      <c r="M806" s="23"/>
+      <c r="N806" s="23"/>
+      <c r="O806" s="23"/>
+      <c r="P806" s="23"/>
+      <c r="Q806" s="23"/>
+      <c r="R806" s="23"/>
+      <c r="S806" s="23"/>
+      <c r="T806" s="23"/>
+      <c r="U806" s="23"/>
+    </row>
+    <row r="807" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A807" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B807" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C807" s="11">
+        <v>44551.338194444441</v>
+      </c>
+      <c r="D807" s="10" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E807" s="10" t="s">
+        <v>4098</v>
+      </c>
+      <c r="F807" s="12">
+        <v>44580</v>
+      </c>
+      <c r="G807" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="H807" s="10" t="s">
+        <v>8915</v>
+      </c>
+      <c r="I807" s="10" t="s">
+        <v>8916</v>
+      </c>
+      <c r="J807" s="10" t="s">
+        <v>8917</v>
+      </c>
+      <c r="K807" s="10" t="s">
+        <v>8918</v>
+      </c>
+      <c r="L807" s="10" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M807" s="10" t="s">
+        <v>8919</v>
+      </c>
+      <c r="N807" s="10" t="s">
+        <v>8920</v>
+      </c>
+      <c r="O807" s="10" t="s">
+        <v>8921</v>
+      </c>
+      <c r="P807" s="10" t="s">
+        <v>2459</v>
+      </c>
+      <c r="Q807" s="10" t="s">
+        <v>8922</v>
+      </c>
+      <c r="R807" s="10" t="s">
+        <v>8923</v>
+      </c>
+      <c r="S807" s="10" t="s">
+        <v>8924</v>
+      </c>
+      <c r="T807" s="10" t="s">
+        <v>8925</v>
+      </c>
+      <c r="U807" s="8">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="808" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A808" s="4" t="s">
+        <v>8926</v>
+      </c>
+      <c r="B808" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C808" s="11">
+        <v>44551.340277777781</v>
+      </c>
+      <c r="D808" s="10" t="s">
+        <v>3831</v>
+      </c>
+      <c r="E808" s="10" t="s">
+        <v>8927</v>
+      </c>
+      <c r="F808" s="12">
+        <v>44553</v>
+      </c>
+      <c r="G808" s="10" t="s">
+        <v>7266</v>
+      </c>
+      <c r="H808" s="10" t="s">
+        <v>8928</v>
+      </c>
+      <c r="I808" s="10" t="s">
+        <v>8929</v>
+      </c>
+      <c r="J808" s="10" t="s">
+        <v>8930</v>
+      </c>
+      <c r="K808" s="10" t="s">
+        <v>8931</v>
+      </c>
+      <c r="L808" s="10" t="s">
+        <v>8932</v>
+      </c>
+      <c r="M808" s="10" t="s">
+        <v>8933</v>
+      </c>
+      <c r="N808" s="10" t="s">
+        <v>8934</v>
+      </c>
+      <c r="O808" s="10" t="s">
+        <v>8935</v>
+      </c>
+      <c r="P808" s="10" t="s">
+        <v>8936</v>
+      </c>
+      <c r="Q808" s="10" t="s">
+        <v>8937</v>
+      </c>
+      <c r="R808" s="10" t="s">
+        <v>8938</v>
+      </c>
+      <c r="S808" s="10" t="s">
+        <v>8939</v>
+      </c>
+      <c r="T808" s="10" t="s">
+        <v>5796</v>
+      </c>
+      <c r="U808" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A809" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B809" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C809" s="11">
+        <v>44551.344444444447</v>
+      </c>
+      <c r="D809" s="10" t="s">
+        <v>3830</v>
+      </c>
+      <c r="E809" s="10" t="s">
+        <v>4215</v>
+      </c>
+      <c r="F809" s="12">
+        <v>44757</v>
+      </c>
+      <c r="G809" s="10" t="s">
+        <v>8940</v>
+      </c>
+      <c r="H809" s="10" t="s">
+        <v>5392</v>
+      </c>
+      <c r="I809" s="10" t="s">
+        <v>8941</v>
+      </c>
+      <c r="J809" s="10" t="s">
+        <v>5875</v>
+      </c>
+      <c r="K809" s="10" t="s">
+        <v>8942</v>
+      </c>
+      <c r="L809" s="10" t="s">
+        <v>8943</v>
+      </c>
+      <c r="M809" s="10" t="s">
+        <v>8944</v>
+      </c>
+      <c r="N809" s="10" t="s">
+        <v>8945</v>
+      </c>
+      <c r="O809" s="10" t="s">
+        <v>8946</v>
+      </c>
+      <c r="P809" s="10" t="s">
+        <v>8947</v>
+      </c>
+      <c r="Q809" s="10" t="s">
+        <v>8948</v>
+      </c>
+      <c r="R809" s="10" t="s">
+        <v>8949</v>
+      </c>
+      <c r="S809" s="10" t="s">
+        <v>8637</v>
+      </c>
+      <c r="T809" s="10" t="s">
+        <v>8950</v>
+      </c>
+      <c r="U809" s="8">
+        <v>0.4219</v>
+      </c>
+    </row>
+    <row r="810" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A810" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B810" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C810" s="11">
+        <v>44551.350694444445</v>
+      </c>
+      <c r="D810" s="10" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E810" s="10" t="s">
+        <v>8951</v>
+      </c>
+      <c r="F810" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G810" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="H810" s="10" t="s">
+        <v>8952</v>
+      </c>
+      <c r="I810" s="10" t="s">
+        <v>8953</v>
+      </c>
+      <c r="J810" s="10" t="s">
+        <v>8954</v>
+      </c>
+      <c r="K810" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="L810" s="10" t="s">
+        <v>3067</v>
+      </c>
+      <c r="M810" s="10" t="s">
+        <v>8955</v>
+      </c>
+      <c r="N810" s="10" t="s">
+        <v>8956</v>
+      </c>
+      <c r="O810" s="10" t="s">
+        <v>8957</v>
+      </c>
+      <c r="P810" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="Q810" s="10" t="s">
+        <v>8958</v>
+      </c>
+      <c r="R810" s="10" t="s">
+        <v>8959</v>
+      </c>
+      <c r="S810" s="10" t="s">
+        <v>8960</v>
+      </c>
+      <c r="T810" s="10" t="s">
+        <v>8961</v>
+      </c>
+      <c r="U810" s="8">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="811" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A811" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B811" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C811" s="11">
+        <v>44551.351388888892</v>
+      </c>
+      <c r="D811" s="10" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E811" s="10" t="s">
+        <v>8962</v>
+      </c>
+      <c r="F811" s="12">
+        <v>44568</v>
+      </c>
+      <c r="G811" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H811" s="10" t="s">
+        <v>7612</v>
+      </c>
+      <c r="I811" s="10" t="s">
+        <v>8963</v>
+      </c>
+      <c r="J811" s="10" t="s">
+        <v>8964</v>
+      </c>
+      <c r="K811" s="10" t="s">
+        <v>8965</v>
+      </c>
+      <c r="L811" s="10" t="s">
+        <v>1470</v>
+      </c>
+      <c r="M811" s="10" t="s">
+        <v>8965</v>
+      </c>
+      <c r="N811" s="10" t="s">
+        <v>8966</v>
+      </c>
+      <c r="O811" s="10" t="s">
+        <v>8967</v>
+      </c>
+      <c r="P811" s="10" t="s">
+        <v>8968</v>
+      </c>
+      <c r="Q811" s="10" t="s">
+        <v>8969</v>
+      </c>
+      <c r="R811" s="10" t="s">
+        <v>8970</v>
+      </c>
+      <c r="S811" s="10" t="s">
+        <v>8482</v>
+      </c>
+      <c r="T811" s="10" t="s">
+        <v>4381</v>
+      </c>
+      <c r="U811" s="8">
+        <v>0.54690000000000005</v>
+      </c>
+    </row>
+    <row r="812" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A812" s="4" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B812" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C812" s="11">
+        <v>44551.357638888891</v>
+      </c>
+      <c r="D812" s="10" t="s">
+        <v>3830</v>
+      </c>
+      <c r="E812" s="10" t="s">
+        <v>8971</v>
+      </c>
+      <c r="F812" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G812" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H812" s="10" t="s">
+        <v>4860</v>
+      </c>
+      <c r="I812" s="10" t="s">
+        <v>8972</v>
+      </c>
+      <c r="J812" s="10" t="s">
+        <v>8973</v>
+      </c>
+      <c r="K812" s="10" t="s">
+        <v>8974</v>
+      </c>
+      <c r="L812" s="10" t="s">
+        <v>8975</v>
+      </c>
+      <c r="M812" s="10" t="s">
+        <v>8976</v>
+      </c>
+      <c r="N812" s="10" t="s">
+        <v>8240</v>
+      </c>
+      <c r="O812" s="10" t="s">
+        <v>8977</v>
+      </c>
+      <c r="P812" s="10" t="s">
+        <v>8978</v>
+      </c>
+      <c r="Q812" s="10" t="s">
+        <v>8979</v>
+      </c>
+      <c r="R812" s="10" t="s">
+        <v>8980</v>
+      </c>
+      <c r="S812" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="T812" s="10" t="s">
+        <v>4859</v>
+      </c>
+      <c r="U812" s="8">
+        <v>0.57809999999999995</v>
+      </c>
+    </row>
+    <row r="813" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A813" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="B813" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C813" s="11">
+        <v>44551.363888888889</v>
+      </c>
+      <c r="D813" s="10" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E813" s="10" t="s">
+        <v>7651</v>
+      </c>
+      <c r="F813" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G813" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H813" s="10" t="s">
+        <v>5102</v>
+      </c>
+      <c r="I813" s="10" t="s">
+        <v>8981</v>
+      </c>
+      <c r="J813" s="10" t="s">
+        <v>8982</v>
+      </c>
+      <c r="K813" s="10" t="s">
+        <v>8983</v>
+      </c>
+      <c r="L813" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="M813" s="10" t="s">
+        <v>8984</v>
+      </c>
+      <c r="N813" s="10" t="s">
+        <v>8985</v>
+      </c>
+      <c r="O813" s="10" t="s">
+        <v>8986</v>
+      </c>
+      <c r="P813" s="10" t="s">
+        <v>8987</v>
+      </c>
+      <c r="Q813" s="10" t="s">
+        <v>8988</v>
+      </c>
+      <c r="R813" s="10" t="s">
+        <v>8989</v>
+      </c>
+      <c r="S813" s="10" t="s">
+        <v>8990</v>
+      </c>
+      <c r="T813" s="10" t="s">
+        <v>4568</v>
+      </c>
+      <c r="U813" s="8">
+        <v>0.53120000000000001</v>
+      </c>
+    </row>
+    <row r="814" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A814" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B814" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C814" s="11">
+        <v>44551.379166666666</v>
+      </c>
+      <c r="D814" s="10" t="s">
+        <v>3829</v>
+      </c>
+      <c r="E814" s="10" t="s">
+        <v>8991</v>
+      </c>
+      <c r="F814" s="12">
+        <v>44589</v>
+      </c>
+      <c r="G814" s="10" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H814" s="10" t="s">
+        <v>4339</v>
+      </c>
+      <c r="I814" s="10" t="s">
+        <v>8992</v>
+      </c>
+      <c r="J814" s="10" t="s">
+        <v>8993</v>
+      </c>
+      <c r="K814" s="10" t="s">
+        <v>8994</v>
+      </c>
+      <c r="L814" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="M814" s="10" t="s">
+        <v>8995</v>
+      </c>
+      <c r="N814" s="10" t="s">
+        <v>8996</v>
+      </c>
+      <c r="O814" s="10" t="s">
+        <v>8997</v>
+      </c>
+      <c r="P814" s="10" t="s">
+        <v>1195</v>
+      </c>
+      <c r="Q814" s="10" t="s">
+        <v>8998</v>
+      </c>
+      <c r="R814" s="10" t="s">
+        <v>3731</v>
+      </c>
+      <c r="S814" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="T814" s="10" t="s">
+        <v>5097</v>
+      </c>
+      <c r="U814" s="8">
+        <v>0.53120000000000001</v>
+      </c>
+    </row>
+    <row r="815" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A815" s="4" t="s">
+        <v>8089</v>
+      </c>
+      <c r="B815" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C815" s="11">
+        <v>44551.384027777778</v>
+      </c>
+      <c r="D815" s="10" t="s">
+        <v>3827</v>
+      </c>
+      <c r="E815" s="10" t="s">
+        <v>8999</v>
+      </c>
+      <c r="F815" s="12">
+        <v>44568</v>
+      </c>
+      <c r="G815" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H815" s="10" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I815" s="10" t="s">
+        <v>9000</v>
+      </c>
+      <c r="J815" s="10" t="s">
+        <v>9001</v>
+      </c>
+      <c r="K815" s="10" t="s">
+        <v>9002</v>
+      </c>
+      <c r="L815" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="M815" s="10" t="s">
+        <v>7580</v>
+      </c>
+      <c r="N815" s="10" t="s">
+        <v>9003</v>
+      </c>
+      <c r="O815" s="10" t="s">
+        <v>9004</v>
+      </c>
+      <c r="P815" s="10" t="s">
+        <v>9005</v>
+      </c>
+      <c r="Q815" s="10" t="s">
+        <v>9006</v>
+      </c>
+      <c r="R815" s="10" t="s">
+        <v>9007</v>
+      </c>
+      <c r="S815" s="10" t="s">
+        <v>9008</v>
+      </c>
+      <c r="T815" s="10" t="s">
+        <v>5615</v>
+      </c>
+      <c r="U815" s="8">
+        <v>0.53120000000000001</v>
+      </c>
+    </row>
+    <row r="816" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A816" s="4" t="s">
+        <v>9009</v>
+      </c>
+      <c r="B816" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C816" s="11">
+        <v>44551.396527777775</v>
+      </c>
+      <c r="D816" s="10" t="s">
+        <v>3830</v>
+      </c>
+      <c r="E816" s="10" t="s">
+        <v>9010</v>
+      </c>
+      <c r="F816" s="12">
+        <v>44638</v>
+      </c>
+      <c r="G816" s="10" t="s">
+        <v>9011</v>
+      </c>
+      <c r="H816" s="10" t="s">
+        <v>4515</v>
+      </c>
+      <c r="I816" s="10" t="s">
+        <v>9012</v>
+      </c>
+      <c r="J816" s="10" t="s">
+        <v>9013</v>
+      </c>
+      <c r="K816" s="10" t="s">
+        <v>9014</v>
+      </c>
+      <c r="L816" s="10" t="s">
+        <v>2156</v>
+      </c>
+      <c r="M816" s="10" t="s">
+        <v>9015</v>
+      </c>
+      <c r="N816" s="10" t="s">
+        <v>9016</v>
+      </c>
+      <c r="O816" s="10" t="s">
+        <v>9017</v>
+      </c>
+      <c r="P816" s="10" t="s">
+        <v>9018</v>
+      </c>
+      <c r="Q816" s="10" t="s">
+        <v>9019</v>
+      </c>
+      <c r="R816" s="10" t="s">
+        <v>9020</v>
+      </c>
+      <c r="S816" s="10" t="s">
+        <v>9021</v>
+      </c>
+      <c r="T816" s="10" t="s">
+        <v>9022</v>
+      </c>
+      <c r="U816" s="8">
+        <v>0.4219</v>
+      </c>
+    </row>
+    <row r="817" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A817" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B817" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C817" s="11">
+        <v>44551.402777777781</v>
+      </c>
+      <c r="D817" s="10" t="s">
+        <v>3827</v>
+      </c>
+      <c r="E817" s="10" t="s">
+        <v>4129</v>
+      </c>
+      <c r="F817" s="12">
+        <v>44553</v>
+      </c>
+      <c r="G817" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="H817" s="10" t="s">
+        <v>4391</v>
+      </c>
+      <c r="I817" s="10" t="s">
+        <v>9023</v>
+      </c>
+      <c r="J817" s="10" t="s">
+        <v>9024</v>
+      </c>
+      <c r="K817" s="10" t="s">
+        <v>9025</v>
+      </c>
+      <c r="L817" s="10" t="s">
+        <v>9026</v>
+      </c>
+      <c r="M817" s="10" t="s">
+        <v>9027</v>
+      </c>
+      <c r="N817" s="10" t="s">
+        <v>9028</v>
+      </c>
+      <c r="O817" s="10" t="s">
+        <v>9029</v>
+      </c>
+      <c r="P817" s="10" t="s">
+        <v>9030</v>
+      </c>
+      <c r="Q817" s="10" t="s">
+        <v>1762</v>
+      </c>
+      <c r="R817" s="10" t="s">
+        <v>9031</v>
+      </c>
+      <c r="S817" s="10" t="s">
+        <v>9032</v>
+      </c>
+      <c r="T817" s="10" t="s">
+        <v>5201</v>
+      </c>
+      <c r="U817" s="8">
+        <v>0.3594</v>
+      </c>
+    </row>
+    <row r="818" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A818" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B818" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C818" s="11">
+        <v>44551.407638888886</v>
+      </c>
+      <c r="D818" s="10" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E818" s="10" t="s">
+        <v>9033</v>
+      </c>
+      <c r="F818" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G818" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H818" s="10" t="s">
+        <v>9034</v>
+      </c>
+      <c r="I818" s="10" t="s">
+        <v>9035</v>
+      </c>
+      <c r="J818" s="10" t="s">
+        <v>9036</v>
+      </c>
+      <c r="K818" s="10" t="s">
+        <v>9037</v>
+      </c>
+      <c r="L818" s="10" t="s">
+        <v>1661</v>
+      </c>
+      <c r="M818" s="10" t="s">
+        <v>9038</v>
+      </c>
+      <c r="N818" s="10" t="s">
+        <v>9039</v>
+      </c>
+      <c r="O818" s="10" t="s">
+        <v>9040</v>
+      </c>
+      <c r="P818" s="10" t="s">
+        <v>9041</v>
+      </c>
+      <c r="Q818" s="10" t="s">
+        <v>8689</v>
+      </c>
+      <c r="R818" s="10" t="s">
+        <v>9042</v>
+      </c>
+      <c r="S818" s="10" t="s">
+        <v>9043</v>
+      </c>
+      <c r="T818" s="10" t="s">
+        <v>4397</v>
+      </c>
+      <c r="U818" s="8">
+        <v>0.4844</v>
+      </c>
+    </row>
+    <row r="819" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A819" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="B819" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C819" s="11">
+        <v>44551.415972222225</v>
+      </c>
+      <c r="D819" s="10" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E819" s="10" t="s">
+        <v>9044</v>
+      </c>
+      <c r="F819" s="12">
+        <v>44568</v>
+      </c>
+      <c r="G819" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H819" s="10" t="s">
+        <v>9045</v>
+      </c>
+      <c r="I819" s="10" t="s">
+        <v>9046</v>
+      </c>
+      <c r="J819" s="10" t="s">
+        <v>9047</v>
+      </c>
+      <c r="K819" s="10" t="s">
+        <v>7777</v>
+      </c>
+      <c r="L819" s="10" t="s">
+        <v>9048</v>
+      </c>
+      <c r="M819" s="10" t="s">
+        <v>9049</v>
+      </c>
+      <c r="N819" s="10" t="s">
+        <v>9050</v>
+      </c>
+      <c r="O819" s="10" t="s">
+        <v>9051</v>
+      </c>
+      <c r="P819" s="10" t="s">
+        <v>9052</v>
+      </c>
+      <c r="Q819" s="10" t="s">
+        <v>9053</v>
+      </c>
+      <c r="R819" s="10" t="s">
+        <v>9054</v>
+      </c>
+      <c r="S819" s="10" t="s">
+        <v>9055</v>
+      </c>
+      <c r="T819" s="10" t="s">
+        <v>8961</v>
+      </c>
+      <c r="U819" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="820" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A820" s="4" t="s">
+        <v>8472</v>
+      </c>
+      <c r="B820" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C820" s="11">
+        <v>44551.415972222225</v>
+      </c>
+      <c r="D820" s="10" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E820" s="10" t="s">
+        <v>9044</v>
+      </c>
+      <c r="F820" s="12">
+        <v>44665</v>
+      </c>
+      <c r="G820" s="10" t="s">
+        <v>2107</v>
+      </c>
+      <c r="H820" s="10" t="s">
+        <v>9056</v>
+      </c>
+      <c r="I820" s="10" t="s">
+        <v>9057</v>
+      </c>
+      <c r="J820" s="10" t="s">
+        <v>9058</v>
+      </c>
+      <c r="K820" s="10" t="s">
+        <v>1338</v>
+      </c>
+      <c r="L820" s="10" t="s">
+        <v>3208</v>
+      </c>
+      <c r="M820" s="10" t="s">
+        <v>9059</v>
+      </c>
+      <c r="N820" s="10" t="s">
+        <v>9060</v>
+      </c>
+      <c r="O820" s="10" t="s">
+        <v>9061</v>
+      </c>
+      <c r="P820" s="10" t="s">
+        <v>9062</v>
+      </c>
+      <c r="Q820" s="10" t="s">
+        <v>9063</v>
+      </c>
+      <c r="R820" s="10" t="s">
+        <v>9064</v>
+      </c>
+      <c r="S820" s="10" t="s">
+        <v>9065</v>
+      </c>
+      <c r="T820" s="10" t="s">
+        <v>9066</v>
+      </c>
+      <c r="U820" s="8">
+        <v>0.51559999999999995</v>
+      </c>
+    </row>
+    <row r="821" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A821" s="4" t="s">
+        <v>9067</v>
+      </c>
+      <c r="B821" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C821" s="11">
+        <v>44551.428472222222</v>
+      </c>
+      <c r="D821" s="10" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E821" s="10" t="s">
+        <v>9068</v>
+      </c>
+      <c r="F821" s="12">
+        <v>44553</v>
+      </c>
+      <c r="G821" s="10" t="s">
+        <v>3722</v>
+      </c>
+      <c r="H821" s="10" t="s">
+        <v>5489</v>
+      </c>
+      <c r="I821" s="10" t="s">
+        <v>9069</v>
+      </c>
+      <c r="J821" s="10" t="s">
+        <v>5352</v>
+      </c>
+      <c r="K821" s="10" t="s">
+        <v>1372</v>
+      </c>
+      <c r="L821" s="10" t="s">
+        <v>1892</v>
+      </c>
+      <c r="M821" s="10" t="s">
+        <v>9070</v>
+      </c>
+      <c r="N821" s="10" t="s">
+        <v>9071</v>
+      </c>
+      <c r="O821" s="10" t="s">
+        <v>9072</v>
+      </c>
+      <c r="P821" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q821" s="10" t="s">
+        <v>8913</v>
+      </c>
+      <c r="R821" s="10" t="s">
+        <v>9073</v>
+      </c>
+      <c r="S821" s="10" t="s">
+        <v>9032</v>
+      </c>
+      <c r="T821" s="10" t="s">
+        <v>4700</v>
+      </c>
+      <c r="U821" s="8">
+        <v>0.46879999999999999</v>
+      </c>
+    </row>
+    <row r="822" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A822" s="4" t="s">
+        <v>9074</v>
+      </c>
+      <c r="B822" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C822" s="11">
+        <v>44551.428472222222</v>
+      </c>
+      <c r="D822" s="10" t="s">
+        <v>3831</v>
+      </c>
+      <c r="E822" s="10" t="s">
+        <v>9075</v>
+      </c>
+      <c r="F822" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G822" s="10" t="s">
+        <v>2189</v>
+      </c>
+      <c r="H822" s="10" t="s">
+        <v>9076</v>
+      </c>
+      <c r="I822" s="10" t="s">
+        <v>9077</v>
+      </c>
+      <c r="J822" s="10" t="s">
+        <v>9078</v>
+      </c>
+      <c r="K822" s="10" t="s">
+        <v>6951</v>
+      </c>
+      <c r="L822" s="10" t="s">
+        <v>2280</v>
+      </c>
+      <c r="M822" s="10" t="s">
+        <v>9079</v>
+      </c>
+      <c r="N822" s="10" t="s">
+        <v>9080</v>
+      </c>
+      <c r="O822" s="10" t="s">
+        <v>9081</v>
+      </c>
+      <c r="P822" s="10" t="s">
+        <v>9082</v>
+      </c>
+      <c r="Q822" s="10" t="s">
+        <v>9083</v>
+      </c>
+      <c r="R822" s="10" t="s">
+        <v>9084</v>
+      </c>
+      <c r="S822" s="10" t="s">
+        <v>9085</v>
+      </c>
+      <c r="T822" s="10" t="s">
+        <v>9086</v>
+      </c>
+      <c r="U822" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A823" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="B823" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C823" s="11">
+        <v>44551.440972222219</v>
+      </c>
+      <c r="D823" s="10" t="s">
+        <v>3827</v>
+      </c>
+      <c r="E823" s="10" t="s">
+        <v>9087</v>
+      </c>
+      <c r="F823" s="12">
+        <v>44553</v>
+      </c>
+      <c r="G823" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H823" s="10" t="s">
+        <v>9088</v>
+      </c>
+      <c r="I823" s="10" t="s">
+        <v>9089</v>
+      </c>
+      <c r="J823" s="10" t="s">
+        <v>9090</v>
+      </c>
+      <c r="K823" s="10" t="s">
+        <v>9091</v>
+      </c>
+      <c r="L823" s="10" t="s">
+        <v>9092</v>
+      </c>
+      <c r="M823" s="10" t="s">
+        <v>9093</v>
+      </c>
+      <c r="N823" s="10" t="s">
+        <v>9094</v>
+      </c>
+      <c r="O823" s="10" t="s">
+        <v>9095</v>
+      </c>
+      <c r="P823" s="10" t="s">
+        <v>9096</v>
+      </c>
+      <c r="Q823" s="10" t="s">
+        <v>2110</v>
+      </c>
+      <c r="R823" s="10" t="s">
+        <v>9097</v>
+      </c>
+      <c r="S823" s="10" t="s">
+        <v>3592</v>
+      </c>
+      <c r="T823" s="10" t="s">
+        <v>4844</v>
+      </c>
+      <c r="U823" s="8">
+        <v>0.57809999999999995</v>
+      </c>
+    </row>
+    <row r="824" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A824" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B824" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C824" s="11">
+        <v>44551.443749999999</v>
+      </c>
+      <c r="D824" s="10" t="s">
+        <v>3829</v>
+      </c>
+      <c r="E824" s="10" t="s">
+        <v>4247</v>
+      </c>
+      <c r="F824" s="12">
+        <v>44568</v>
+      </c>
+      <c r="G824" s="10" t="s">
+        <v>1640</v>
+      </c>
+      <c r="H824" s="10" t="s">
+        <v>9098</v>
+      </c>
+      <c r="I824" s="10" t="s">
+        <v>9099</v>
+      </c>
+      <c r="J824" s="10" t="s">
+        <v>9100</v>
+      </c>
+      <c r="K824" s="10" t="s">
+        <v>9101</v>
+      </c>
+      <c r="L824" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M824" s="10" t="s">
+        <v>9102</v>
+      </c>
+      <c r="N824" s="10" t="s">
+        <v>5936</v>
+      </c>
+      <c r="O824" s="10" t="s">
+        <v>9103</v>
+      </c>
+      <c r="P824" s="10" t="s">
+        <v>7319</v>
+      </c>
+      <c r="Q824" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="R824" s="10" t="s">
+        <v>9104</v>
+      </c>
+      <c r="S824" s="10" t="s">
+        <v>2066</v>
+      </c>
+      <c r="T824" s="10" t="s">
+        <v>4519</v>
+      </c>
+      <c r="U824" s="8">
+        <v>0.51559999999999995</v>
+      </c>
+    </row>
+    <row r="825" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A825" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B825" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C825" s="11">
+        <v>44551.445833333331</v>
+      </c>
+      <c r="D825" s="10" t="s">
+        <v>3827</v>
+      </c>
+      <c r="E825" s="10" t="s">
+        <v>4248</v>
+      </c>
+      <c r="F825" s="12">
+        <v>44729</v>
+      </c>
+      <c r="G825" s="10" t="s">
+        <v>7955</v>
+      </c>
+      <c r="H825" s="10" t="s">
+        <v>5214</v>
+      </c>
+      <c r="I825" s="10" t="s">
+        <v>9105</v>
+      </c>
+      <c r="J825" s="10" t="s">
+        <v>9106</v>
+      </c>
+      <c r="K825" s="10" t="s">
+        <v>9107</v>
+      </c>
+      <c r="L825" s="10" t="s">
+        <v>9108</v>
+      </c>
+      <c r="M825" s="10" t="s">
+        <v>9109</v>
+      </c>
+      <c r="N825" s="10" t="s">
+        <v>9110</v>
+      </c>
+      <c r="O825" s="10" t="s">
+        <v>9111</v>
+      </c>
+      <c r="P825" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="Q825" s="10" t="s">
+        <v>2359</v>
+      </c>
+      <c r="R825" s="10" t="s">
+        <v>9112</v>
+      </c>
+      <c r="S825" s="10" t="s">
+        <v>1723</v>
+      </c>
+      <c r="T825" s="10" t="s">
+        <v>9113</v>
+      </c>
+      <c r="U825" s="8">
+        <v>0.51559999999999995</v>
+      </c>
+    </row>
+    <row r="826" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A826" s="4" t="s">
+        <v>9114</v>
+      </c>
+      <c r="B826" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C826" s="11">
+        <v>44551.454861111109</v>
+      </c>
+      <c r="D826" s="10" t="s">
+        <v>3831</v>
+      </c>
+      <c r="E826" s="10" t="s">
+        <v>9115</v>
+      </c>
+      <c r="F826" s="12">
+        <v>44553</v>
+      </c>
+      <c r="G826" s="10" t="s">
+        <v>7266</v>
+      </c>
+      <c r="H826" s="10" t="s">
+        <v>9116</v>
+      </c>
+      <c r="I826" s="10" t="s">
+        <v>9117</v>
+      </c>
+      <c r="J826" s="10" t="s">
+        <v>9118</v>
+      </c>
+      <c r="K826" s="10" t="s">
+        <v>9119</v>
+      </c>
+      <c r="L826" s="10" t="s">
+        <v>9120</v>
+      </c>
+      <c r="M826" s="10" t="s">
+        <v>9121</v>
+      </c>
+      <c r="N826" s="10" t="s">
+        <v>9122</v>
+      </c>
+      <c r="O826" s="10" t="s">
+        <v>9123</v>
+      </c>
+      <c r="P826" s="10" t="s">
+        <v>9124</v>
+      </c>
+      <c r="Q826" s="10" t="s">
+        <v>9125</v>
+      </c>
+      <c r="R826" s="10" t="s">
+        <v>9126</v>
+      </c>
+      <c r="S826" s="10" t="s">
+        <v>9127</v>
+      </c>
+      <c r="T826" s="10" t="s">
+        <v>6035</v>
+      </c>
+      <c r="U826" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A827" s="4" t="s">
+        <v>7312</v>
+      </c>
+      <c r="B827" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C827" s="11">
+        <v>44551.457638888889</v>
+      </c>
+      <c r="D827" s="10" t="s">
+        <v>3830</v>
+      </c>
+      <c r="E827" s="10" t="s">
+        <v>3927</v>
+      </c>
+      <c r="F827" s="12">
+        <v>44610</v>
+      </c>
+      <c r="G827" s="10" t="s">
+        <v>9128</v>
+      </c>
+      <c r="H827" s="10" t="s">
+        <v>4419</v>
+      </c>
+      <c r="I827" s="10" t="s">
+        <v>9129</v>
+      </c>
+      <c r="J827" s="10" t="s">
+        <v>9130</v>
+      </c>
+      <c r="K827" s="10" t="s">
+        <v>9131</v>
+      </c>
+      <c r="L827" s="10" t="s">
+        <v>9132</v>
+      </c>
+      <c r="M827" s="10" t="s">
+        <v>9133</v>
+      </c>
+      <c r="N827" s="10" t="s">
+        <v>9134</v>
+      </c>
+      <c r="O827" s="10" t="s">
+        <v>9135</v>
+      </c>
+      <c r="P827" s="10" t="s">
+        <v>9136</v>
+      </c>
+      <c r="Q827" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="R827" s="10" t="s">
+        <v>9137</v>
+      </c>
+      <c r="S827" s="10" t="s">
+        <v>9138</v>
+      </c>
+      <c r="T827" s="10" t="s">
+        <v>5758</v>
+      </c>
+      <c r="U827" s="8">
+        <v>0.51559999999999995</v>
+      </c>
+    </row>
+    <row r="828" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A828" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B828" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C828" s="11">
+        <v>44551.459722222222</v>
+      </c>
+      <c r="D828" s="10" t="s">
+        <v>3827</v>
+      </c>
+      <c r="E828" s="10" t="s">
+        <v>6913</v>
+      </c>
+      <c r="F828" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G828" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H828" s="10" t="s">
+        <v>4547</v>
+      </c>
+      <c r="I828" s="10" t="s">
+        <v>9139</v>
+      </c>
+      <c r="J828" s="10" t="s">
+        <v>9140</v>
+      </c>
+      <c r="K828" s="10" t="s">
+        <v>9141</v>
+      </c>
+      <c r="L828" s="10" t="s">
+        <v>1640</v>
+      </c>
+      <c r="M828" s="10" t="s">
+        <v>9142</v>
+      </c>
+      <c r="N828" s="10" t="s">
+        <v>9143</v>
+      </c>
+      <c r="O828" s="10" t="s">
+        <v>9144</v>
+      </c>
+      <c r="P828" s="10" t="s">
+        <v>2499</v>
+      </c>
+      <c r="Q828" s="10" t="s">
+        <v>9145</v>
+      </c>
+      <c r="R828" s="10" t="s">
+        <v>9146</v>
+      </c>
+      <c r="S828" s="10" t="s">
+        <v>9147</v>
+      </c>
+      <c r="T828" s="10" t="s">
+        <v>5063</v>
+      </c>
+      <c r="U828" s="8">
+        <v>0.46879999999999999</v>
+      </c>
+    </row>
+    <row r="829" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A829" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B829" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C829" s="11">
+        <v>44551.466666666667</v>
+      </c>
+      <c r="D829" s="10" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E829" s="10" t="s">
+        <v>9148</v>
+      </c>
+      <c r="F829" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G829" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H829" s="10" t="s">
+        <v>5392</v>
+      </c>
+      <c r="I829" s="10" t="s">
+        <v>9149</v>
+      </c>
+      <c r="J829" s="10" t="s">
+        <v>9150</v>
+      </c>
+      <c r="K829" s="10" t="s">
+        <v>9151</v>
+      </c>
+      <c r="L829" s="10" t="s">
+        <v>9152</v>
+      </c>
+      <c r="M829" s="10" t="s">
+        <v>9153</v>
+      </c>
+      <c r="N829" s="10" t="s">
+        <v>9154</v>
+      </c>
+      <c r="O829" s="10" t="s">
+        <v>9155</v>
+      </c>
+      <c r="P829" s="10" t="s">
+        <v>9019</v>
+      </c>
+      <c r="Q829" s="10" t="s">
+        <v>1329</v>
+      </c>
+      <c r="R829" s="10" t="s">
+        <v>9156</v>
+      </c>
+      <c r="S829" s="10" t="s">
+        <v>9157</v>
+      </c>
+      <c r="T829" s="10" t="s">
+        <v>4637</v>
+      </c>
+      <c r="U829" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="830" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A830" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B830" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C830" s="11">
+        <v>44551.466666666667</v>
+      </c>
+      <c r="D830" s="10" t="s">
+        <v>3830</v>
+      </c>
+      <c r="E830" s="10" t="s">
+        <v>9148</v>
+      </c>
+      <c r="F830" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G830" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="H830" s="10" t="s">
+        <v>9158</v>
+      </c>
+      <c r="I830" s="10" t="s">
+        <v>9159</v>
+      </c>
+      <c r="J830" s="10" t="s">
+        <v>9160</v>
+      </c>
+      <c r="K830" s="10" t="s">
+        <v>9161</v>
+      </c>
+      <c r="L830" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="M830" s="10" t="s">
+        <v>9162</v>
+      </c>
+      <c r="N830" s="10" t="s">
+        <v>9163</v>
+      </c>
+      <c r="O830" s="10" t="s">
+        <v>9164</v>
+      </c>
+      <c r="P830" s="10" t="s">
+        <v>9165</v>
+      </c>
+      <c r="Q830" s="10" t="s">
+        <v>9166</v>
+      </c>
+      <c r="R830" s="10" t="s">
+        <v>9167</v>
+      </c>
+      <c r="S830" s="10" t="s">
+        <v>1275</v>
+      </c>
+      <c r="T830" s="10" t="s">
+        <v>4823</v>
+      </c>
+      <c r="U830" s="8">
+        <v>0.46879999999999999</v>
+      </c>
+    </row>
+    <row r="831" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A831" s="4" t="s">
+        <v>9168</v>
+      </c>
+      <c r="B831" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C831" s="11">
+        <v>44551.47152777778</v>
+      </c>
+      <c r="D831" s="10" t="s">
+        <v>3827</v>
+      </c>
+      <c r="E831" s="10" t="s">
+        <v>9169</v>
+      </c>
+      <c r="F831" s="12">
+        <v>44553</v>
+      </c>
+      <c r="G831" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="H831" s="10" t="s">
+        <v>5230</v>
+      </c>
+      <c r="I831" s="10" t="s">
+        <v>9170</v>
+      </c>
+      <c r="J831" s="10" t="s">
+        <v>5376</v>
+      </c>
+      <c r="K831" s="10" t="s">
+        <v>9171</v>
+      </c>
+      <c r="L831" s="10" t="s">
+        <v>9172</v>
+      </c>
+      <c r="M831" s="10" t="s">
+        <v>9173</v>
+      </c>
+      <c r="N831" s="10" t="s">
+        <v>9174</v>
+      </c>
+      <c r="O831" s="10" t="s">
+        <v>9175</v>
+      </c>
+      <c r="P831" s="10" t="s">
+        <v>9176</v>
+      </c>
+      <c r="Q831" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="R831" s="10" t="s">
+        <v>9177</v>
+      </c>
+      <c r="S831" s="10" t="s">
+        <v>2769</v>
+      </c>
+      <c r="T831" s="10" t="s">
+        <v>4420</v>
+      </c>
+      <c r="U831" s="8">
+        <v>0.40620000000000001</v>
+      </c>
+    </row>
+    <row r="832" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A832" s="4" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B832" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C832" s="11">
+        <v>44551.491666666669</v>
+      </c>
+      <c r="D832" s="10" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E832" s="10" t="s">
+        <v>9178</v>
+      </c>
+      <c r="F832" s="12">
+        <v>44575</v>
+      </c>
+      <c r="G832" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="H832" s="10" t="s">
+        <v>9179</v>
+      </c>
+      <c r="I832" s="10" t="s">
+        <v>9180</v>
+      </c>
+      <c r="J832" s="10" t="s">
+        <v>9181</v>
+      </c>
+      <c r="K832" s="10" t="s">
+        <v>9182</v>
+      </c>
+      <c r="L832" s="10" t="s">
+        <v>9183</v>
+      </c>
+      <c r="M832" s="10" t="s">
+        <v>9184</v>
+      </c>
+      <c r="N832" s="10" t="s">
+        <v>9185</v>
+      </c>
+      <c r="O832" s="10" t="s">
+        <v>9186</v>
+      </c>
+      <c r="P832" s="10" t="s">
+        <v>956</v>
+      </c>
+      <c r="Q832" s="10" t="s">
+        <v>9187</v>
+      </c>
+      <c r="R832" s="10" t="s">
+        <v>9188</v>
+      </c>
+      <c r="S832" s="10" t="s">
+        <v>9189</v>
+      </c>
+      <c r="T832" s="10" t="s">
+        <v>9190</v>
+      </c>
+      <c r="U832" s="8">
+        <v>0.51559999999999995</v>
+      </c>
+    </row>
+    <row r="833" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A833" s="4" t="s">
+        <v>7416</v>
+      </c>
+      <c r="B833" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C833" s="11">
+        <v>44551.491666666669</v>
+      </c>
+      <c r="D833" s="10" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E833" s="10" t="s">
+        <v>9178</v>
+      </c>
+      <c r="F833" s="12">
+        <v>44553</v>
+      </c>
+      <c r="G833" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="H833" s="10" t="s">
+        <v>4903</v>
+      </c>
+      <c r="I833" s="10" t="s">
+        <v>9191</v>
+      </c>
+      <c r="J833" s="10" t="s">
+        <v>9192</v>
+      </c>
+      <c r="K833" s="10" t="s">
+        <v>9193</v>
+      </c>
+      <c r="L833" s="10" t="s">
+        <v>9194</v>
+      </c>
+      <c r="M833" s="10" t="s">
+        <v>9195</v>
+      </c>
+      <c r="N833" s="10" t="s">
+        <v>9196</v>
+      </c>
+      <c r="O833" s="10" t="s">
+        <v>9197</v>
+      </c>
+      <c r="P833" s="10" t="s">
+        <v>9198</v>
+      </c>
+      <c r="Q833" s="10" t="s">
+        <v>9199</v>
+      </c>
+      <c r="R833" s="10" t="s">
+        <v>9200</v>
+      </c>
+      <c r="S833" s="10" t="s">
+        <v>9201</v>
+      </c>
+      <c r="T833" s="10" t="s">
+        <v>5642</v>
+      </c>
+      <c r="U833" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="834" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A834" s="4" t="s">
+        <v>9202</v>
+      </c>
+      <c r="B834" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C834" s="11">
+        <v>44551.495833333334</v>
+      </c>
+      <c r="D834" s="10" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E834" s="10" t="s">
+        <v>9203</v>
+      </c>
+      <c r="F834" s="12">
+        <v>44701</v>
+      </c>
+      <c r="G834" s="10" t="s">
+        <v>6917</v>
+      </c>
+      <c r="H834" s="10" t="s">
+        <v>4655</v>
+      </c>
+      <c r="I834" s="10" t="s">
+        <v>9204</v>
+      </c>
+      <c r="J834" s="10" t="s">
+        <v>9205</v>
+      </c>
+      <c r="K834" s="10" t="s">
+        <v>9206</v>
+      </c>
+      <c r="L834" s="10" t="s">
+        <v>9207</v>
+      </c>
+      <c r="M834" s="10" t="s">
+        <v>9208</v>
+      </c>
+      <c r="N834" s="10" t="s">
+        <v>9209</v>
+      </c>
+      <c r="O834" s="10" t="s">
+        <v>9210</v>
+      </c>
+      <c r="P834" s="10" t="s">
+        <v>9211</v>
+      </c>
+      <c r="Q834" s="10" t="s">
+        <v>2548</v>
+      </c>
+      <c r="R834" s="10" t="s">
+        <v>9212</v>
+      </c>
+      <c r="S834" s="10" t="s">
+        <v>9213</v>
+      </c>
+      <c r="T834" s="10" t="s">
+        <v>5027</v>
+      </c>
+      <c r="U834" s="8">
+        <v>0.3906</v>
+      </c>
+    </row>
+    <row r="835" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A835" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B835" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C835" s="11">
+        <v>44551.504166666666</v>
+      </c>
+      <c r="D835" s="10" t="s">
+        <v>3827</v>
+      </c>
+      <c r="E835" s="10" t="s">
+        <v>9214</v>
+      </c>
+      <c r="F835" s="12">
+        <v>44575</v>
+      </c>
+      <c r="G835" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H835" s="10" t="s">
+        <v>9215</v>
+      </c>
+      <c r="I835" s="10" t="s">
+        <v>9216</v>
+      </c>
+      <c r="J835" s="10" t="s">
+        <v>5265</v>
+      </c>
+      <c r="K835" s="10" t="s">
+        <v>2312</v>
+      </c>
+      <c r="L835" s="10" t="s">
+        <v>9217</v>
+      </c>
+      <c r="M835" s="10" t="s">
+        <v>9218</v>
+      </c>
+      <c r="N835" s="10" t="s">
+        <v>9219</v>
+      </c>
+      <c r="O835" s="10" t="s">
+        <v>9220</v>
+      </c>
+      <c r="P835" s="10" t="s">
+        <v>9221</v>
+      </c>
+      <c r="Q835" s="10" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R835" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="S835" s="10" t="s">
+        <v>9222</v>
+      </c>
+      <c r="T835" s="10" t="s">
+        <v>5027</v>
+      </c>
+      <c r="U835" s="8">
+        <v>0.46879999999999999</v>
+      </c>
+    </row>
+    <row r="836" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A836" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B836" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C836" s="11">
+        <v>44551.509027777778</v>
+      </c>
+      <c r="D836" s="10" t="s">
+        <v>3829</v>
+      </c>
+      <c r="E836" s="10" t="s">
+        <v>9223</v>
+      </c>
+      <c r="F836" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G836" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="H836" s="10" t="s">
+        <v>4303</v>
+      </c>
+      <c r="I836" s="10" t="s">
+        <v>9224</v>
+      </c>
+      <c r="J836" s="10" t="s">
+        <v>9225</v>
+      </c>
+      <c r="K836" s="10" t="s">
+        <v>6828</v>
+      </c>
+      <c r="L836" s="10" t="s">
+        <v>1891</v>
+      </c>
+      <c r="M836" s="10" t="s">
+        <v>9226</v>
+      </c>
+      <c r="N836" s="10" t="s">
+        <v>5384</v>
+      </c>
+      <c r="O836" s="10" t="s">
+        <v>9227</v>
+      </c>
+      <c r="P836" s="10" t="s">
+        <v>9228</v>
+      </c>
+      <c r="Q836" s="10" t="s">
+        <v>1556</v>
+      </c>
+      <c r="R836" s="10" t="s">
+        <v>3309</v>
+      </c>
+      <c r="S836" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="T836" s="10" t="s">
+        <v>9229</v>
+      </c>
+      <c r="U836" s="8">
+        <v>0.51559999999999995</v>
+      </c>
+    </row>
+    <row r="837" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A837" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B837" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C837" s="11">
+        <v>44551.51666666667</v>
+      </c>
+      <c r="D837" s="10" t="s">
+        <v>3830</v>
+      </c>
+      <c r="E837" s="10" t="s">
+        <v>3932</v>
+      </c>
+      <c r="F837" s="12">
+        <v>44589</v>
+      </c>
+      <c r="G837" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H837" s="10" t="s">
+        <v>4745</v>
+      </c>
+      <c r="I837" s="10" t="s">
+        <v>9230</v>
+      </c>
+      <c r="J837" s="10" t="s">
+        <v>9231</v>
+      </c>
+      <c r="K837" s="10" t="s">
+        <v>9232</v>
+      </c>
+      <c r="L837" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="M837" s="10" t="s">
+        <v>9233</v>
+      </c>
+      <c r="N837" s="10" t="s">
+        <v>9234</v>
+      </c>
+      <c r="O837" s="10" t="s">
+        <v>9235</v>
+      </c>
+      <c r="P837" s="10" t="s">
+        <v>9236</v>
+      </c>
+      <c r="Q837" s="10" t="s">
+        <v>9237</v>
+      </c>
+      <c r="R837" s="10" t="s">
+        <v>9238</v>
+      </c>
+      <c r="S837" s="10" t="s">
+        <v>2713</v>
+      </c>
+      <c r="T837" s="10" t="s">
+        <v>4681</v>
+      </c>
+      <c r="U837" s="8">
+        <v>0.60940000000000005</v>
+      </c>
+    </row>
+    <row r="838" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A838" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B838" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C838" s="11">
+        <v>44551.519444444442</v>
+      </c>
+      <c r="D838" s="10" t="s">
+        <v>3827</v>
+      </c>
+      <c r="E838" s="10" t="s">
+        <v>4206</v>
+      </c>
+      <c r="F838" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G838" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H838" s="10" t="s">
+        <v>4502</v>
+      </c>
+      <c r="I838" s="10" t="s">
+        <v>9239</v>
+      </c>
+      <c r="J838" s="10" t="s">
+        <v>9240</v>
+      </c>
+      <c r="K838" s="10" t="s">
+        <v>9241</v>
+      </c>
+      <c r="L838" s="10" t="s">
+        <v>1853</v>
+      </c>
+      <c r="M838" s="10" t="s">
+        <v>9242</v>
+      </c>
+      <c r="N838" s="10" t="s">
+        <v>9243</v>
+      </c>
+      <c r="O838" s="10" t="s">
+        <v>9244</v>
+      </c>
+      <c r="P838" s="10" t="s">
+        <v>9245</v>
+      </c>
+      <c r="Q838" s="10" t="s">
+        <v>7212</v>
+      </c>
+      <c r="R838" s="10" t="s">
+        <v>7961</v>
+      </c>
+      <c r="S838" s="10" t="s">
+        <v>1227</v>
+      </c>
+      <c r="T838" s="10" t="s">
+        <v>5747</v>
+      </c>
+      <c r="U838" s="8">
+        <v>0.54690000000000005</v>
+      </c>
+    </row>
+    <row r="839" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A839" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B839" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C839" s="11">
+        <v>44551.529861111114</v>
+      </c>
+      <c r="D839" s="10" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E839" s="10" t="s">
+        <v>4208</v>
+      </c>
+      <c r="F839" s="12">
+        <v>44820</v>
+      </c>
+      <c r="G839" s="10" t="s">
+        <v>9246</v>
+      </c>
+      <c r="H839" s="10" t="s">
+        <v>4343</v>
+      </c>
+      <c r="I839" s="10" t="s">
+        <v>9247</v>
+      </c>
+      <c r="J839" s="10" t="s">
+        <v>9248</v>
+      </c>
+      <c r="K839" s="10" t="s">
+        <v>9249</v>
+      </c>
+      <c r="L839" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="M839" s="10" t="s">
+        <v>9250</v>
+      </c>
+      <c r="N839" s="10" t="s">
+        <v>9251</v>
+      </c>
+      <c r="O839" s="10" t="s">
+        <v>9252</v>
+      </c>
+      <c r="P839" s="10" t="s">
+        <v>9253</v>
+      </c>
+      <c r="Q839" s="10" t="s">
+        <v>9254</v>
+      </c>
+      <c r="R839" s="10" t="s">
+        <v>9255</v>
+      </c>
+      <c r="S839" s="10" t="s">
+        <v>2005</v>
+      </c>
+      <c r="T839" s="10" t="s">
+        <v>9256</v>
+      </c>
+      <c r="U839" s="8">
+        <v>0.4844</v>
+      </c>
+    </row>
+    <row r="840" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A840" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B840" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C840" s="11">
+        <v>44551.531944444447</v>
+      </c>
+      <c r="D840" s="10" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E840" s="10" t="s">
+        <v>9257</v>
+      </c>
+      <c r="F840" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G840" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H840" s="10" t="s">
+        <v>5349</v>
+      </c>
+      <c r="I840" s="10" t="s">
+        <v>9258</v>
+      </c>
+      <c r="J840" s="10" t="s">
+        <v>9259</v>
+      </c>
+      <c r="K840" s="10" t="s">
+        <v>9260</v>
+      </c>
+      <c r="L840" s="10" t="s">
+        <v>9261</v>
+      </c>
+      <c r="M840" s="10" t="s">
+        <v>9262</v>
+      </c>
+      <c r="N840" s="10" t="s">
+        <v>9263</v>
+      </c>
+      <c r="O840" s="10" t="s">
+        <v>9264</v>
+      </c>
+      <c r="P840" s="10" t="s">
+        <v>9265</v>
+      </c>
+      <c r="Q840" s="10" t="s">
+        <v>9266</v>
+      </c>
+      <c r="R840" s="10" t="s">
+        <v>2931</v>
+      </c>
+      <c r="S840" s="10" t="s">
+        <v>8349</v>
+      </c>
+      <c r="T840" s="10" t="s">
+        <v>5234</v>
+      </c>
+      <c r="U840" s="8">
+        <v>0.40620000000000001</v>
+      </c>
+    </row>
+    <row r="841" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A841" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="B841" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C841" s="11">
+        <v>44551.53402777778</v>
+      </c>
+      <c r="D841" s="10" t="s">
+        <v>3827</v>
+      </c>
+      <c r="E841" s="10" t="s">
+        <v>9267</v>
+      </c>
+      <c r="F841" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G841" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="H841" s="10" t="s">
+        <v>9268</v>
+      </c>
+      <c r="I841" s="10" t="s">
+        <v>9269</v>
+      </c>
+      <c r="J841" s="10" t="s">
+        <v>9270</v>
+      </c>
+      <c r="K841" s="10" t="s">
+        <v>9271</v>
+      </c>
+      <c r="L841" s="10" t="s">
+        <v>9272</v>
+      </c>
+      <c r="M841" s="10" t="s">
+        <v>9273</v>
+      </c>
+      <c r="N841" s="10" t="s">
+        <v>9274</v>
+      </c>
+      <c r="O841" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="P841" s="10" t="s">
+        <v>2927</v>
+      </c>
+      <c r="Q841" s="10" t="s">
+        <v>1111</v>
+      </c>
+      <c r="R841" s="10" t="s">
+        <v>9275</v>
+      </c>
+      <c r="S841" s="10" t="s">
+        <v>3667</v>
+      </c>
+      <c r="T841" s="10" t="s">
+        <v>8204</v>
+      </c>
+      <c r="U841" s="8">
+        <v>0.3594</v>
+      </c>
+    </row>
+    <row r="842" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A842" s="4" t="s">
+        <v>9276</v>
+      </c>
+      <c r="B842" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C842" s="11">
+        <v>44551.542361111111</v>
+      </c>
+      <c r="D842" s="10" t="s">
+        <v>3827</v>
+      </c>
+      <c r="E842" s="10" t="s">
+        <v>9277</v>
+      </c>
+      <c r="F842" s="12">
+        <v>44610</v>
+      </c>
+      <c r="G842" s="10" t="s">
+        <v>2719</v>
+      </c>
+      <c r="H842" s="10" t="s">
+        <v>9278</v>
+      </c>
+      <c r="I842" s="10" t="s">
+        <v>9279</v>
+      </c>
+      <c r="J842" s="10" t="s">
+        <v>9280</v>
+      </c>
+      <c r="K842" s="10" t="s">
+        <v>9281</v>
+      </c>
+      <c r="L842" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="M842" s="10" t="s">
+        <v>9282</v>
+      </c>
+      <c r="N842" s="10" t="s">
+        <v>9283</v>
+      </c>
+      <c r="O842" s="10" t="s">
+        <v>9284</v>
+      </c>
+      <c r="P842" s="10" t="s">
+        <v>9285</v>
+      </c>
+      <c r="Q842" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="R842" s="10" t="s">
+        <v>9286</v>
+      </c>
+      <c r="S842" s="10" t="s">
+        <v>2224</v>
+      </c>
+      <c r="T842" s="10" t="s">
+        <v>5666</v>
+      </c>
+      <c r="U842" s="8">
+        <v>0.40620000000000001</v>
+      </c>
+    </row>
+    <row r="843" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A843" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="B843" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C843" s="11">
+        <v>44551.549305555556</v>
+      </c>
+      <c r="D843" s="10" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E843" s="10" t="s">
+        <v>7395</v>
+      </c>
+      <c r="F843" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G843" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H843" s="10" t="s">
+        <v>5214</v>
+      </c>
+      <c r="I843" s="10" t="s">
+        <v>9287</v>
+      </c>
+      <c r="J843" s="10" t="s">
+        <v>9288</v>
+      </c>
+      <c r="K843" s="10" t="s">
+        <v>2655</v>
+      </c>
+      <c r="L843" s="10" t="s">
+        <v>1942</v>
+      </c>
+      <c r="M843" s="10" t="s">
+        <v>9289</v>
+      </c>
+      <c r="N843" s="10" t="s">
+        <v>9290</v>
+      </c>
+      <c r="O843" s="10" t="s">
+        <v>9291</v>
+      </c>
+      <c r="P843" s="10" t="s">
+        <v>9292</v>
+      </c>
+      <c r="Q843" s="10" t="s">
+        <v>9293</v>
+      </c>
+      <c r="R843" s="10" t="s">
+        <v>9294</v>
+      </c>
+      <c r="S843" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="T843" s="10" t="s">
+        <v>4402</v>
+      </c>
+      <c r="U843" s="8">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="844" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A844" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="B844" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C844" s="11">
+        <v>44551.554166666669</v>
+      </c>
+      <c r="D844" s="10" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E844" s="10" t="s">
+        <v>9295</v>
+      </c>
+      <c r="F844" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G844" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H844" s="10" t="s">
+        <v>9296</v>
+      </c>
+      <c r="I844" s="10" t="s">
+        <v>9297</v>
+      </c>
+      <c r="J844" s="10" t="s">
+        <v>9298</v>
+      </c>
+      <c r="K844" s="10" t="s">
+        <v>9299</v>
+      </c>
+      <c r="L844" s="10" t="s">
+        <v>9300</v>
+      </c>
+      <c r="M844" s="10" t="s">
+        <v>9301</v>
+      </c>
+      <c r="N844" s="10" t="s">
+        <v>9302</v>
+      </c>
+      <c r="O844" s="10" t="s">
+        <v>9303</v>
+      </c>
+      <c r="P844" s="10" t="s">
+        <v>9304</v>
+      </c>
+      <c r="Q844" s="10" t="s">
+        <v>9305</v>
+      </c>
+      <c r="R844" s="10" t="s">
+        <v>9306</v>
+      </c>
+      <c r="S844" s="10" t="s">
+        <v>9307</v>
+      </c>
+      <c r="T844" s="10" t="s">
+        <v>9308</v>
+      </c>
+      <c r="U844" s="8">
+        <v>0.53120000000000001</v>
+      </c>
+    </row>
+    <row r="845" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A845" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="B845" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C845" s="11">
+        <v>44551.554861111108</v>
+      </c>
+      <c r="D845" s="10" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E845" s="10" t="s">
+        <v>9309</v>
+      </c>
+      <c r="F845" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G845" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H845" s="10" t="s">
+        <v>9310</v>
+      </c>
+      <c r="I845" s="10" t="s">
+        <v>9297</v>
+      </c>
+      <c r="J845" s="10" t="s">
+        <v>9311</v>
+      </c>
+      <c r="K845" s="10" t="s">
+        <v>9312</v>
+      </c>
+      <c r="L845" s="10" t="s">
+        <v>8673</v>
+      </c>
+      <c r="M845" s="10" t="s">
+        <v>9313</v>
+      </c>
+      <c r="N845" s="10" t="s">
+        <v>9016</v>
+      </c>
+      <c r="O845" s="10" t="s">
+        <v>9314</v>
+      </c>
+      <c r="P845" s="10" t="s">
+        <v>1105</v>
+      </c>
+      <c r="Q845" s="10" t="s">
+        <v>9315</v>
+      </c>
+      <c r="R845" s="10" t="s">
+        <v>9316</v>
+      </c>
+      <c r="S845" s="10" t="s">
+        <v>9317</v>
+      </c>
+      <c r="T845" s="10" t="s">
+        <v>9318</v>
+      </c>
+      <c r="U845" s="8">
+        <v>0.57809999999999995</v>
+      </c>
+    </row>
+    <row r="846" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A846" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B846" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C846" s="11">
+        <v>44551.556944444441</v>
+      </c>
+      <c r="D846" s="10" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E846" s="10" t="s">
+        <v>9319</v>
+      </c>
+      <c r="F846" s="12">
+        <v>44568</v>
+      </c>
+      <c r="G846" s="10" t="s">
+        <v>1640</v>
+      </c>
+      <c r="H846" s="10" t="s">
+        <v>9320</v>
+      </c>
+      <c r="I846" s="10" t="s">
+        <v>9321</v>
+      </c>
+      <c r="J846" s="10" t="s">
+        <v>9322</v>
+      </c>
+      <c r="K846" s="10" t="s">
+        <v>9323</v>
+      </c>
+      <c r="L846" s="10" t="s">
+        <v>9324</v>
+      </c>
+      <c r="M846" s="10" t="s">
+        <v>9325</v>
+      </c>
+      <c r="N846" s="10" t="s">
+        <v>9326</v>
+      </c>
+      <c r="O846" s="10" t="s">
+        <v>9327</v>
+      </c>
+      <c r="P846" s="10" t="s">
+        <v>9328</v>
+      </c>
+      <c r="Q846" s="10" t="s">
+        <v>9329</v>
+      </c>
+      <c r="R846" s="10" t="s">
+        <v>9330</v>
+      </c>
+      <c r="S846" s="10" t="s">
+        <v>1122</v>
+      </c>
+      <c r="T846" s="10" t="s">
+        <v>5435</v>
+      </c>
+      <c r="U846" s="8">
+        <v>0.51559999999999995</v>
+      </c>
+    </row>
+    <row r="847" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A847" s="4" t="s">
+        <v>9331</v>
+      </c>
+      <c r="B847" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C847" s="11">
+        <v>44551.559027777781</v>
+      </c>
+      <c r="D847" s="10" t="s">
+        <v>3829</v>
+      </c>
+      <c r="E847" s="10" t="s">
+        <v>9332</v>
+      </c>
+      <c r="F847" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G847" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="H847" s="10" t="s">
+        <v>5350</v>
+      </c>
+      <c r="I847" s="10" t="s">
+        <v>9333</v>
+      </c>
+      <c r="J847" s="10" t="s">
+        <v>9334</v>
+      </c>
+      <c r="K847" s="10" t="s">
+        <v>9335</v>
+      </c>
+      <c r="L847" s="10" t="s">
+        <v>2768</v>
+      </c>
+      <c r="M847" s="10" t="s">
+        <v>9336</v>
+      </c>
+      <c r="N847" s="10" t="s">
+        <v>9337</v>
+      </c>
+      <c r="O847" s="10" t="s">
+        <v>9338</v>
+      </c>
+      <c r="P847" s="10" t="s">
+        <v>9339</v>
+      </c>
+      <c r="Q847" s="10" t="s">
+        <v>7893</v>
+      </c>
+      <c r="R847" s="10" t="s">
+        <v>9340</v>
+      </c>
+      <c r="S847" s="10" t="s">
+        <v>9341</v>
+      </c>
+      <c r="T847" s="10" t="s">
+        <v>4283</v>
+      </c>
+      <c r="U847" s="8">
+        <v>0.4844</v>
+      </c>
+    </row>
+    <row r="848" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A848" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B848" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C848" s="11">
+        <v>44551.567361111112</v>
+      </c>
+      <c r="D848" s="10" t="s">
+        <v>3830</v>
+      </c>
+      <c r="E848" s="10" t="s">
+        <v>9342</v>
+      </c>
+      <c r="F848" s="12">
+        <v>44946</v>
+      </c>
+      <c r="G848" s="10" t="s">
+        <v>9343</v>
+      </c>
+      <c r="H848" s="10" t="s">
+        <v>5819</v>
+      </c>
+      <c r="I848" s="10" t="s">
+        <v>9344</v>
+      </c>
+      <c r="J848" s="10" t="s">
+        <v>9345</v>
+      </c>
+      <c r="K848" s="10" t="s">
+        <v>9346</v>
+      </c>
+      <c r="L848" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="M848" s="10" t="s">
+        <v>9347</v>
+      </c>
+      <c r="N848" s="10" t="s">
+        <v>9348</v>
+      </c>
+      <c r="O848" s="10" t="s">
+        <v>9349</v>
+      </c>
+      <c r="P848" s="10" t="s">
+        <v>9350</v>
+      </c>
+      <c r="Q848" s="10" t="s">
+        <v>2880</v>
+      </c>
+      <c r="R848" s="10" t="s">
+        <v>9351</v>
+      </c>
+      <c r="S848" s="10" t="s">
+        <v>9352</v>
+      </c>
+      <c r="T848" s="10" t="s">
+        <v>9353</v>
+      </c>
+      <c r="U848" s="8">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="849" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A849" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B849" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C849" s="11">
+        <v>44551.572222222225</v>
+      </c>
+      <c r="D849" s="10" t="s">
+        <v>3827</v>
+      </c>
+      <c r="E849" s="10" t="s">
+        <v>9354</v>
+      </c>
+      <c r="F849" s="12">
+        <v>44610</v>
+      </c>
+      <c r="G849" s="10" t="s">
+        <v>2719</v>
+      </c>
+      <c r="H849" s="10" t="s">
+        <v>9355</v>
+      </c>
+      <c r="I849" s="10" t="s">
+        <v>9356</v>
+      </c>
+      <c r="J849" s="10" t="s">
+        <v>9357</v>
+      </c>
+      <c r="K849" s="10" t="s">
+        <v>9358</v>
+      </c>
+      <c r="L849" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="M849" s="10" t="s">
+        <v>9359</v>
+      </c>
+      <c r="N849" s="10" t="s">
+        <v>9360</v>
+      </c>
+      <c r="O849" s="10" t="s">
+        <v>9361</v>
+      </c>
+      <c r="P849" s="10" t="s">
+        <v>7095</v>
+      </c>
+      <c r="Q849" s="10" t="s">
+        <v>8127</v>
+      </c>
+      <c r="R849" s="10" t="s">
+        <v>9362</v>
+      </c>
+      <c r="S849" s="10" t="s">
+        <v>1026</v>
+      </c>
+      <c r="T849" s="10" t="s">
+        <v>9363</v>
+      </c>
+      <c r="U849" s="8">
+        <v>0.3594</v>
+      </c>
+    </row>
+    <row r="850" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A850" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B850" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C850" s="11">
+        <v>44551.579861111109</v>
+      </c>
+      <c r="D850" s="10" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E850" s="10" t="s">
+        <v>9364</v>
+      </c>
+      <c r="F850" s="12">
+        <v>44553</v>
+      </c>
+      <c r="G850" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H850" s="10" t="s">
+        <v>4284</v>
+      </c>
+      <c r="I850" s="10" t="s">
+        <v>9365</v>
+      </c>
+      <c r="J850" s="10" t="s">
+        <v>9366</v>
+      </c>
+      <c r="K850" s="10" t="s">
+        <v>9367</v>
+      </c>
+      <c r="L850" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M850" s="10" t="s">
+        <v>9368</v>
+      </c>
+      <c r="N850" s="10" t="s">
+        <v>9369</v>
+      </c>
+      <c r="O850" s="10" t="s">
+        <v>9370</v>
+      </c>
+      <c r="P850" s="10" t="s">
+        <v>9371</v>
+      </c>
+      <c r="Q850" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="R850" s="10" t="s">
+        <v>2436</v>
+      </c>
+      <c r="S850" s="10" t="s">
+        <v>9372</v>
+      </c>
+      <c r="T850" s="10" t="s">
+        <v>9373</v>
+      </c>
+      <c r="U850" s="8">
+        <v>0.4531</v>
+      </c>
+    </row>
+    <row r="851" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A851" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B851" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C851" s="11">
+        <v>44551.579861111109</v>
+      </c>
+      <c r="D851" s="10" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E851" s="10" t="s">
+        <v>9374</v>
+      </c>
+      <c r="F851" s="12">
+        <v>44580</v>
+      </c>
+      <c r="G851" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="H851" s="10" t="s">
+        <v>4681</v>
+      </c>
+      <c r="I851" s="10" t="s">
+        <v>9375</v>
+      </c>
+      <c r="J851" s="10" t="s">
+        <v>9376</v>
+      </c>
+      <c r="K851" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L851" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M851" s="10" t="s">
+        <v>9377</v>
+      </c>
+      <c r="N851" s="10" t="s">
+        <v>9378</v>
+      </c>
+      <c r="O851" s="10" t="s">
+        <v>9379</v>
+      </c>
+      <c r="P851" s="10" t="s">
+        <v>9380</v>
+      </c>
+      <c r="Q851" s="10" t="s">
+        <v>9381</v>
+      </c>
+      <c r="R851" s="10" t="s">
+        <v>9382</v>
+      </c>
+      <c r="S851" s="10" t="s">
+        <v>9383</v>
+      </c>
+      <c r="T851" s="10" t="s">
+        <v>5619</v>
+      </c>
+      <c r="U851" s="8">
+        <v>0.53120000000000001</v>
+      </c>
+    </row>
+    <row r="852" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A852" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B852" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C852" s="11">
+        <v>44551.581944444442</v>
+      </c>
+      <c r="D852" s="10" t="s">
+        <v>3829</v>
+      </c>
+      <c r="E852" s="10" t="s">
+        <v>4194</v>
+      </c>
+      <c r="F852" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G852" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H852" s="10" t="s">
+        <v>9384</v>
+      </c>
+      <c r="I852" s="10" t="s">
+        <v>9385</v>
+      </c>
+      <c r="J852" s="10" t="s">
+        <v>9386</v>
+      </c>
+      <c r="K852" s="10" t="s">
+        <v>9387</v>
+      </c>
+      <c r="L852" s="10" t="s">
+        <v>9388</v>
+      </c>
+      <c r="M852" s="10" t="s">
+        <v>9389</v>
+      </c>
+      <c r="N852" s="10" t="s">
+        <v>9390</v>
+      </c>
+      <c r="O852" s="10" t="s">
+        <v>9391</v>
+      </c>
+      <c r="P852" s="10" t="s">
+        <v>9392</v>
+      </c>
+      <c r="Q852" s="10" t="s">
+        <v>9096</v>
+      </c>
+      <c r="R852" s="10" t="s">
+        <v>9393</v>
+      </c>
+      <c r="S852" s="10" t="s">
+        <v>2341</v>
+      </c>
+      <c r="T852" s="10" t="s">
+        <v>4489</v>
+      </c>
+      <c r="U852" s="8">
+        <v>0.53120000000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A806:U806"/>
     <mergeCell ref="A753:U753"/>
     <mergeCell ref="A636:U636"/>
     <mergeCell ref="A545:U545"/>
@@ -79524,123 +84077,140 @@
     <mergeCell ref="A592:U592"/>
     <mergeCell ref="A614:U614"/>
   </mergeCells>
-  <conditionalFormatting sqref="D1:T1 D546:T568 D3:T543 D571:T590 D593:T612 D615:T634 D637:T751 D754:T1048576">
-    <cfRule type="expression" dxfId="34" priority="31">
+  <conditionalFormatting sqref="D1:T1 D546:T568 D3:T543 D571:T590 D593:T612 D615:T634 D637:T751 D754:T804 D807:T1048576">
+    <cfRule type="expression" dxfId="39" priority="36">
       <formula>ISNUMBER(SEARCH("NEW", D1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="32">
+    <cfRule type="expression" dxfId="38" priority="37">
       <formula>ISNUMBER(SEARCH("BEST", D1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="37" priority="38">
       <formula>ISNUMBER(SEARCH("GOOD", D1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="34">
+    <cfRule type="expression" dxfId="36" priority="39">
       <formula>ISNUMBER(SEARCH("OK", D1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="35">
+    <cfRule type="expression" dxfId="35" priority="40">
       <formula>ISNUMBER(SEARCH("BAD", D1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D544:T544">
-    <cfRule type="expression" dxfId="29" priority="26">
+    <cfRule type="expression" dxfId="34" priority="31">
       <formula>ISNUMBER(SEARCH("NEW", D544))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="27">
+    <cfRule type="expression" dxfId="33" priority="32">
       <formula>ISNUMBER(SEARCH("BEST", D544))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>ISNUMBER(SEARCH("GOOD", D544))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="29">
+    <cfRule type="expression" dxfId="31" priority="34">
       <formula>ISNUMBER(SEARCH("OK", D544))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="30">
+    <cfRule type="expression" dxfId="30" priority="35">
       <formula>ISNUMBER(SEARCH("BAD", D544))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D569:T569">
-    <cfRule type="expression" dxfId="24" priority="21">
+    <cfRule type="expression" dxfId="29" priority="26">
       <formula>ISNUMBER(SEARCH("NEW", D569))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="28" priority="27">
       <formula>ISNUMBER(SEARCH("BEST", D569))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>ISNUMBER(SEARCH("GOOD", D569))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="26" priority="29">
       <formula>ISNUMBER(SEARCH("OK", D569))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="25">
+    <cfRule type="expression" dxfId="25" priority="30">
       <formula>ISNUMBER(SEARCH("BAD", D569))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D591:T591">
-    <cfRule type="expression" dxfId="19" priority="16">
+    <cfRule type="expression" dxfId="24" priority="21">
       <formula>ISNUMBER(SEARCH("NEW", D591))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="17">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>ISNUMBER(SEARCH("BEST", D591))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>ISNUMBER(SEARCH("GOOD", D591))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>ISNUMBER(SEARCH("OK", D591))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="20">
+    <cfRule type="expression" dxfId="20" priority="25">
       <formula>ISNUMBER(SEARCH("BAD", D591))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D613:T613">
-    <cfRule type="expression" dxfId="14" priority="11">
+    <cfRule type="expression" dxfId="19" priority="16">
       <formula>ISNUMBER(SEARCH("NEW", D613))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>ISNUMBER(SEARCH("BEST", D613))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>ISNUMBER(SEARCH("GOOD", D613))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>ISNUMBER(SEARCH("OK", D613))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="15" priority="20">
       <formula>ISNUMBER(SEARCH("BAD", D613))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D635:T635">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>ISNUMBER(SEARCH("NEW", D635))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>ISNUMBER(SEARCH("BEST", D635))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>ISNUMBER(SEARCH("GOOD", D635))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>ISNUMBER(SEARCH("OK", D635))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="10" priority="15">
       <formula>ISNUMBER(SEARCH("BAD", D635))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D752:T752">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>ISNUMBER(SEARCH("NEW", D752))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>ISNUMBER(SEARCH("BEST", D752))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>ISNUMBER(SEARCH("GOOD", D752))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>ISNUMBER(SEARCH("OK", D752))</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="5" priority="10">
+      <formula>ISNUMBER(SEARCH("BAD", D752))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D805:T805">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>ISNUMBER(SEARCH("NEW", D805))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>ISNUMBER(SEARCH("BEST", D805))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISNUMBER(SEARCH("GOOD", D805))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>ISNUMBER(SEARCH("OK", D805))</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>ISNUMBER(SEARCH("BAD", D752))</formula>
+      <formula>ISNUMBER(SEARCH("BAD", D805))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/options-recap/realtime/excel/Options Recap - Realtime.xlsx
+++ b/data/options-recap/realtime/excel/Options Recap - Realtime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Programming\Cue\data\options-recap\realtime\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C160A0B-5E67-4FE1-9E12-705F5809D5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447B9896-1BED-4803-A1FF-68291A0BC216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{46699434-473C-4966-BCFA-04206E4C53EA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15219" uniqueCount="9394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16158" uniqueCount="9924">
   <si>
     <t>Ticker</t>
   </si>
@@ -28216,6 +28216,1596 @@
   </si>
   <si>
     <t>BAD|-0.0429</t>
+  </si>
+  <si>
+    <t>BAD|08:05</t>
+  </si>
+  <si>
+    <t>OKAY|$45.27</t>
+  </si>
+  <si>
+    <t>BAD|10.45%</t>
+  </si>
+  <si>
+    <t>BAD|2051</t>
+  </si>
+  <si>
+    <t>BAD|98</t>
+  </si>
+  <si>
+    <t>OKAY|2092.86</t>
+  </si>
+  <si>
+    <t>OKAY|47.72%</t>
+  </si>
+  <si>
+    <t>BAD|0.104</t>
+  </si>
+  <si>
+    <t>GOOD|0.0524</t>
+  </si>
+  <si>
+    <t>BEST|08:11</t>
+  </si>
+  <si>
+    <t>GOOD|$38.06</t>
+  </si>
+  <si>
+    <t>BAD|7.72%</t>
+  </si>
+  <si>
+    <t>BAD|4553</t>
+  </si>
+  <si>
+    <t>BAD|5763.29</t>
+  </si>
+  <si>
+    <t>BEST|57.84%</t>
+  </si>
+  <si>
+    <t>BAD|0.3629</t>
+  </si>
+  <si>
+    <t>GOOD|0.0412</t>
+  </si>
+  <si>
+    <t>OKAY|-0.0391</t>
+  </si>
+  <si>
+    <t>GOOD|0.0103</t>
+  </si>
+  <si>
+    <t>GOOD|$143</t>
+  </si>
+  <si>
+    <t>BAD|$16.5</t>
+  </si>
+  <si>
+    <t>BAD|$14.83</t>
+  </si>
+  <si>
+    <t>BAD|11.26%</t>
+  </si>
+  <si>
+    <t>BEST|8142.86</t>
+  </si>
+  <si>
+    <t>BAD|77.24%</t>
+  </si>
+  <si>
+    <t>BAD|0.3432</t>
+  </si>
+  <si>
+    <t>GOOD|0.117</t>
+  </si>
+  <si>
+    <t>GOOD|-0.019</t>
+  </si>
+  <si>
+    <t>BEST|08:23</t>
+  </si>
+  <si>
+    <t>OKAY|$15.78</t>
+  </si>
+  <si>
+    <t>GOOD|14.07%</t>
+  </si>
+  <si>
+    <t>BEST|750</t>
+  </si>
+  <si>
+    <t>GOOD|132</t>
+  </si>
+  <si>
+    <t>OKAY|568.18</t>
+  </si>
+  <si>
+    <t>OKAY|142.83%</t>
+  </si>
+  <si>
+    <t>OKAY|-0.6207</t>
+  </si>
+  <si>
+    <t>OKAY|0.0832</t>
+  </si>
+  <si>
+    <t>BAD|-0.0536</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0058</t>
+  </si>
+  <si>
+    <t>OKAY|$345</t>
+  </si>
+  <si>
+    <t>BAD|08:39</t>
+  </si>
+  <si>
+    <t>BAD|$3.76</t>
+  </si>
+  <si>
+    <t>BAD|502</t>
+  </si>
+  <si>
+    <t>GOOD|309.88</t>
+  </si>
+  <si>
+    <t>BAD|129.59%</t>
+  </si>
+  <si>
+    <t>OKAY|0.3837</t>
+  </si>
+  <si>
+    <t>OKAY|0.1944</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0064</t>
+  </si>
+  <si>
+    <t>BEST|0.0016</t>
+  </si>
+  <si>
+    <t>OKAY|8.25%</t>
+  </si>
+  <si>
+    <t>OKAY|325</t>
+  </si>
+  <si>
+    <t>OKAY|33</t>
+  </si>
+  <si>
+    <t>BAD|984.85</t>
+  </si>
+  <si>
+    <t>OKAY|59.57%</t>
+  </si>
+  <si>
+    <t>OKAY|-0.5823</t>
+  </si>
+  <si>
+    <t>OKAY|0.0346</t>
+  </si>
+  <si>
+    <t>BEST|-0.0176</t>
+  </si>
+  <si>
+    <t>BEST|-0.0217</t>
+  </si>
+  <si>
+    <t>OKAY|$325</t>
+  </si>
+  <si>
+    <t>OKAY|$50.5</t>
+  </si>
+  <si>
+    <t>BAD|12.87%</t>
+  </si>
+  <si>
+    <t>OKAY|2867</t>
+  </si>
+  <si>
+    <t>OKAY|2350</t>
+  </si>
+  <si>
+    <t>BAD|26.15%</t>
+  </si>
+  <si>
+    <t>OKAY|0.0594</t>
+  </si>
+  <si>
+    <t>OKAY|0.0312</t>
+  </si>
+  <si>
+    <t>BAD|0.0178</t>
+  </si>
+  <si>
+    <t>OKAY|08:57</t>
+  </si>
+  <si>
+    <t>BAD|$349</t>
+  </si>
+  <si>
+    <t>OKAY|$465.33</t>
+  </si>
+  <si>
+    <t>BAD|-25%</t>
+  </si>
+  <si>
+    <t>BAD|4472</t>
+  </si>
+  <si>
+    <t>OKAY|614</t>
+  </si>
+  <si>
+    <t>OKAY|728.34</t>
+  </si>
+  <si>
+    <t>GOOD|37.03%</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0474</t>
+  </si>
+  <si>
+    <t>BAD|0.2275</t>
+  </si>
+  <si>
+    <t>OKAY|-0.047</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0554</t>
+  </si>
+  <si>
+    <t>OKAY|08:58</t>
+  </si>
+  <si>
+    <t>BAD|239</t>
+  </si>
+  <si>
+    <t>BEST|$44.51</t>
+  </si>
+  <si>
+    <t>BAD|-10.13%</t>
+  </si>
+  <si>
+    <t>BAD|346</t>
+  </si>
+  <si>
+    <t>BAD|4325</t>
+  </si>
+  <si>
+    <t>OKAY|30.47%</t>
+  </si>
+  <si>
+    <t>BAD|-0.296</t>
+  </si>
+  <si>
+    <t>BAD|0.1239</t>
+  </si>
+  <si>
+    <t>OKAY|-0.0078</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0906</t>
+  </si>
+  <si>
+    <t>GOOD|$239</t>
+  </si>
+  <si>
+    <t>OKAY|09:01</t>
+  </si>
+  <si>
+    <t>BAD|$102.72</t>
+  </si>
+  <si>
+    <t>BAD|-6.54%</t>
+  </si>
+  <si>
+    <t>BAD|75000</t>
+  </si>
+  <si>
+    <t>BAD|24.77%</t>
+  </si>
+  <si>
+    <t>OKAY|-0.1902</t>
+  </si>
+  <si>
+    <t>BAD|0.0328</t>
+  </si>
+  <si>
+    <t>BAD|0.09</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0299</t>
+  </si>
+  <si>
+    <t>BAD|-0.0207</t>
+  </si>
+  <si>
+    <t>OKAY|09:04</t>
+  </si>
+  <si>
+    <t>GOOD|$110</t>
+  </si>
+  <si>
+    <t>BAD|$104.62</t>
+  </si>
+  <si>
+    <t>GOOD|5.14%</t>
+  </si>
+  <si>
+    <t>BAD|18213</t>
+  </si>
+  <si>
+    <t>OKAY|2797</t>
+  </si>
+  <si>
+    <t>BAD|651.16</t>
+  </si>
+  <si>
+    <t>BAD|94.17%</t>
+  </si>
+  <si>
+    <t>BAD|0.1903</t>
+  </si>
+  <si>
+    <t>BAD|-0.5647</t>
+  </si>
+  <si>
+    <t>GOOD|0.0007</t>
+  </si>
+  <si>
+    <t>GOOD|09:16</t>
+  </si>
+  <si>
+    <t>GOOD|$39.15</t>
+  </si>
+  <si>
+    <t>GOOD|-13.15%</t>
+  </si>
+  <si>
+    <t>GOOD|7092</t>
+  </si>
+  <si>
+    <t>OKAY|852</t>
+  </si>
+  <si>
+    <t>OKAY|832.39</t>
+  </si>
+  <si>
+    <t>GOOD|89.81%</t>
+  </si>
+  <si>
+    <t>GOOD|-0.146</t>
+  </si>
+  <si>
+    <t>GOOD|0.0411</t>
+  </si>
+  <si>
+    <t>GOOD|0.0143</t>
+  </si>
+  <si>
+    <t>OKAY|-0.0685</t>
+  </si>
+  <si>
+    <t>BEST|$30.79</t>
+  </si>
+  <si>
+    <t>GOOD|-9.06%</t>
+  </si>
+  <si>
+    <t>BEST|533</t>
+  </si>
+  <si>
+    <t>OKAY|53300</t>
+  </si>
+  <si>
+    <t>OKAY|37.42%</t>
+  </si>
+  <si>
+    <t>BAD|0.8906</t>
+  </si>
+  <si>
+    <t>BAD|0.0757</t>
+  </si>
+  <si>
+    <t>BAD|-0.014</t>
+  </si>
+  <si>
+    <t>GOOD|$298</t>
+  </si>
+  <si>
+    <t>BAD|$950</t>
+  </si>
+  <si>
+    <t>BAD|$998.84</t>
+  </si>
+  <si>
+    <t>BAD|-4.89%</t>
+  </si>
+  <si>
+    <t>BAD|15613</t>
+  </si>
+  <si>
+    <t>BAD|2098</t>
+  </si>
+  <si>
+    <t>BAD|744.18</t>
+  </si>
+  <si>
+    <t>BAD|62.98%</t>
+  </si>
+  <si>
+    <t>BAD|-0.0832</t>
+  </si>
+  <si>
+    <t>BEST|0.0891</t>
+  </si>
+  <si>
+    <t>BEST|-1.3672</t>
+  </si>
+  <si>
+    <t>BAD|$141</t>
+  </si>
+  <si>
+    <t>ERJ</t>
+  </si>
+  <si>
+    <t>BAD|09:26</t>
+  </si>
+  <si>
+    <t>BAD|$16.3</t>
+  </si>
+  <si>
+    <t>BAD|7.36%</t>
+  </si>
+  <si>
+    <t>BAD|58.62%</t>
+  </si>
+  <si>
+    <t>OKAY|0.4253</t>
+  </si>
+  <si>
+    <t>OKAY|0.1043</t>
+  </si>
+  <si>
+    <t>OKAY|0.0255</t>
+  </si>
+  <si>
+    <t>OKAY|-0.0126</t>
+  </si>
+  <si>
+    <t>GOOD|$160.36</t>
+  </si>
+  <si>
+    <t>OKAY|-5.21%</t>
+  </si>
+  <si>
+    <t>BAD|12937</t>
+  </si>
+  <si>
+    <t>BAD|3082</t>
+  </si>
+  <si>
+    <t>BAD|419.76</t>
+  </si>
+  <si>
+    <t>BEST|77.2%</t>
+  </si>
+  <si>
+    <t>BAD|-0.1127</t>
+  </si>
+  <si>
+    <t>BAD|-0.3938</t>
+  </si>
+  <si>
+    <t>OKAY|-0.0006</t>
+  </si>
+  <si>
+    <t>GOOD|09:41</t>
+  </si>
+  <si>
+    <t>OKAY|204</t>
+  </si>
+  <si>
+    <t>GOOD|$59.11</t>
+  </si>
+  <si>
+    <t>GOOD|-6.95%</t>
+  </si>
+  <si>
+    <t>OKAY|700</t>
+  </si>
+  <si>
+    <t>OKAY|70000</t>
+  </si>
+  <si>
+    <t>GOOD|54.84%</t>
+  </si>
+  <si>
+    <t>OKAY|-0.3511</t>
+  </si>
+  <si>
+    <t>OKAY|0.164</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0219</t>
+  </si>
+  <si>
+    <t>GOOD|-0.14</t>
+  </si>
+  <si>
+    <t>OKAY|$745</t>
+  </si>
+  <si>
+    <t>BAD|09:52</t>
+  </si>
+  <si>
+    <t>GOOD|$28.5</t>
+  </si>
+  <si>
+    <t>BAD|$24.09</t>
+  </si>
+  <si>
+    <t>BAD|18.31%</t>
+  </si>
+  <si>
+    <t>OKAY|709</t>
+  </si>
+  <si>
+    <t>BAD|157</t>
+  </si>
+  <si>
+    <t>BAD|451.59</t>
+  </si>
+  <si>
+    <t>BAD|87.64%</t>
+  </si>
+  <si>
+    <t>OKAY|0.129</t>
+  </si>
+  <si>
+    <t>OKAY|0.0624</t>
+  </si>
+  <si>
+    <t>GOOD|10:02</t>
+  </si>
+  <si>
+    <t>OKAY|$13.13</t>
+  </si>
+  <si>
+    <t>OKAY|-23.84%</t>
+  </si>
+  <si>
+    <t>OKAY|15050</t>
+  </si>
+  <si>
+    <t>OKAY|34.26%</t>
+  </si>
+  <si>
+    <t>OKAY|0.9511</t>
+  </si>
+  <si>
+    <t>OKAY|0.0465</t>
+  </si>
+  <si>
+    <t>OKAY|-0.002</t>
+  </si>
+  <si>
+    <t>OKAY|0.0082</t>
+  </si>
+  <si>
+    <t>BAD|$123</t>
+  </si>
+  <si>
+    <t>BAD|$116.23</t>
+  </si>
+  <si>
+    <t>BAD|5.82%</t>
+  </si>
+  <si>
+    <t>BAD|2765</t>
+  </si>
+  <si>
+    <t>BEST|8919.35</t>
+  </si>
+  <si>
+    <t>BAD|21.02%</t>
+  </si>
+  <si>
+    <t>BAD|0.1057</t>
+  </si>
+  <si>
+    <t>BEST|0.0355</t>
+  </si>
+  <si>
+    <t>BAD|0.046</t>
+  </si>
+  <si>
+    <t>GOOD|10:21</t>
+  </si>
+  <si>
+    <t>BEST|85</t>
+  </si>
+  <si>
+    <t>GOOD|$82.5</t>
+  </si>
+  <si>
+    <t>OKAY|$73.46</t>
+  </si>
+  <si>
+    <t>BAD|12.31%</t>
+  </si>
+  <si>
+    <t>BAD|9425</t>
+  </si>
+  <si>
+    <t>BAD|2292</t>
+  </si>
+  <si>
+    <t>BAD|411.21</t>
+  </si>
+  <si>
+    <t>BAD|48.54%</t>
+  </si>
+  <si>
+    <t>BAD|0.3566</t>
+  </si>
+  <si>
+    <t>OKAY|0.1332</t>
+  </si>
+  <si>
+    <t>OKAY|0.0529</t>
+  </si>
+  <si>
+    <t>BAD|$375</t>
+  </si>
+  <si>
+    <t>GOOD|$86.87</t>
+  </si>
+  <si>
+    <t>OKAY|-9.06%</t>
+  </si>
+  <si>
+    <t>BAD|10002</t>
+  </si>
+  <si>
+    <t>BAD|3225</t>
+  </si>
+  <si>
+    <t>GOOD|13.81%</t>
+  </si>
+  <si>
+    <t>BAD|0.0308</t>
+  </si>
+  <si>
+    <t>OKAY|$21.03</t>
+  </si>
+  <si>
+    <t>BAD|6.99%</t>
+  </si>
+  <si>
+    <t>GOOD|5239</t>
+  </si>
+  <si>
+    <t>GOOD|753</t>
+  </si>
+  <si>
+    <t>BEST|695.75</t>
+  </si>
+  <si>
+    <t>OKAY|28.53%</t>
+  </si>
+  <si>
+    <t>BAD|0.1728</t>
+  </si>
+  <si>
+    <t>OKAY|0.0097</t>
+  </si>
+  <si>
+    <t>GOOD|10:39</t>
+  </si>
+  <si>
+    <t>BEST|$43.93</t>
+  </si>
+  <si>
+    <t>OKAY|2895</t>
+  </si>
+  <si>
+    <t>OKAY|41.48%</t>
+  </si>
+  <si>
+    <t>OKAY|0.0534</t>
+  </si>
+  <si>
+    <t>OKAY|0.0354</t>
+  </si>
+  <si>
+    <t>BEST|-0.0239</t>
+  </si>
+  <si>
+    <t>GOOD|10:47</t>
+  </si>
+  <si>
+    <t>BEST|$22.5</t>
+  </si>
+  <si>
+    <t>GOOD|$21.31</t>
+  </si>
+  <si>
+    <t>OKAY|5.58%</t>
+  </si>
+  <si>
+    <t>BEST|87</t>
+  </si>
+  <si>
+    <t>BEST|573.56</t>
+  </si>
+  <si>
+    <t>OKAY|55.64%</t>
+  </si>
+  <si>
+    <t>GOOD|0.3432</t>
+  </si>
+  <si>
+    <t>GOOD|0.147</t>
+  </si>
+  <si>
+    <t>BAD|0.0165</t>
+  </si>
+  <si>
+    <t>BAD|-0.0286</t>
+  </si>
+  <si>
+    <t>GOOD|204</t>
+  </si>
+  <si>
+    <t>GOOD|$140</t>
+  </si>
+  <si>
+    <t>BAD|$190.53</t>
+  </si>
+  <si>
+    <t>GOOD|-26.52%</t>
+  </si>
+  <si>
+    <t>OKAY|1600</t>
+  </si>
+  <si>
+    <t>BAD|82</t>
+  </si>
+  <si>
+    <t>BAD|1951.22</t>
+  </si>
+  <si>
+    <t>GOOD|44.26%</t>
+  </si>
+  <si>
+    <t>OKAY|-0.1349</t>
+  </si>
+  <si>
+    <t>OKAY|0.3119</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0334</t>
+  </si>
+  <si>
+    <t>BAD|-0.1599</t>
+  </si>
+  <si>
+    <t>GOOD|$510</t>
+  </si>
+  <si>
+    <t>BEST|10:54</t>
+  </si>
+  <si>
+    <t>BEST|$59.62</t>
+  </si>
+  <si>
+    <t>BEST|9.02%</t>
+  </si>
+  <si>
+    <t>OKAY|5678</t>
+  </si>
+  <si>
+    <t>OKAY|101</t>
+  </si>
+  <si>
+    <t>OKAY|5621.78</t>
+  </si>
+  <si>
+    <t>GOOD|101.1%</t>
+  </si>
+  <si>
+    <t>BAD|0.0594</t>
+  </si>
+  <si>
+    <t>BAD|-0.0772</t>
+  </si>
+  <si>
+    <t>RSX</t>
+  </si>
+  <si>
+    <t>OKAY|10:57</t>
+  </si>
+  <si>
+    <t>BAD|$26.27</t>
+  </si>
+  <si>
+    <t>GOOD|-8.64%</t>
+  </si>
+  <si>
+    <t>GOOD|684</t>
+  </si>
+  <si>
+    <t>BAD|3600</t>
+  </si>
+  <si>
+    <t>OKAY|39.07%</t>
+  </si>
+  <si>
+    <t>OKAY|-0.2523</t>
+  </si>
+  <si>
+    <t>OKAY|0.0336</t>
+  </si>
+  <si>
+    <t>BAD|$21.36</t>
+  </si>
+  <si>
+    <t>OKAY|14871</t>
+  </si>
+  <si>
+    <t>OKAY|2953</t>
+  </si>
+  <si>
+    <t>BAD|503.59</t>
+  </si>
+  <si>
+    <t>BAD|65.78%</t>
+  </si>
+  <si>
+    <t>BEST|-0.1131</t>
+  </si>
+  <si>
+    <t>BAD|0.0884</t>
+  </si>
+  <si>
+    <t>OKAY|0.0065</t>
+  </si>
+  <si>
+    <t>BAD|-0.0222</t>
+  </si>
+  <si>
+    <t>BAD|-0.0006</t>
+  </si>
+  <si>
+    <t>OKAY|$56.5</t>
+  </si>
+  <si>
+    <t>OKAY|$60.19</t>
+  </si>
+  <si>
+    <t>OKAY|-6.13%</t>
+  </si>
+  <si>
+    <t>OKAY|332</t>
+  </si>
+  <si>
+    <t>BAD|353.19</t>
+  </si>
+  <si>
+    <t>OKAY|38.02%</t>
+  </si>
+  <si>
+    <t>OKAY|0.8536</t>
+  </si>
+  <si>
+    <t>OKAY|0.0612</t>
+  </si>
+  <si>
+    <t>GOOD|0.022</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0464</t>
+  </si>
+  <si>
+    <t>OKAY|0.012</t>
+  </si>
+  <si>
+    <t>OKAY|$405</t>
+  </si>
+  <si>
+    <t>BAD|11:23</t>
+  </si>
+  <si>
+    <t>BAD|$498</t>
+  </si>
+  <si>
+    <t>OKAY|$466.66</t>
+  </si>
+  <si>
+    <t>BEST|6.72%</t>
+  </si>
+  <si>
+    <t>OKAY|401</t>
+  </si>
+  <si>
+    <t>GOOD|1055.26</t>
+  </si>
+  <si>
+    <t>BAD|12.44%</t>
+  </si>
+  <si>
+    <t>OKAY|0.0551</t>
+  </si>
+  <si>
+    <t>BAD|0.006</t>
+  </si>
+  <si>
+    <t>BAD|0.1806</t>
+  </si>
+  <si>
+    <t>BAD|0.0253</t>
+  </si>
+  <si>
+    <t>BAD|11:26</t>
+  </si>
+  <si>
+    <t>BAD|$1050</t>
+  </si>
+  <si>
+    <t>BAD|$996.38</t>
+  </si>
+  <si>
+    <t>BAD|5.38%</t>
+  </si>
+  <si>
+    <t>OKAY|45473</t>
+  </si>
+  <si>
+    <t>BEST|6953</t>
+  </si>
+  <si>
+    <t>BAD|654.01</t>
+  </si>
+  <si>
+    <t>BAD|0.0881</t>
+  </si>
+  <si>
+    <t>BEST|0.0893</t>
+  </si>
+  <si>
+    <t>BAD|-1.4784</t>
+  </si>
+  <si>
+    <t>OKAY|$152</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>OKAY|239</t>
+  </si>
+  <si>
+    <t>BAD|$175</t>
+  </si>
+  <si>
+    <t>OKAY|$220.15</t>
+  </si>
+  <si>
+    <t>BAD|-20.51%</t>
+  </si>
+  <si>
+    <t>BAD|278</t>
+  </si>
+  <si>
+    <t>OKAY|58</t>
+  </si>
+  <si>
+    <t>BAD|479.31</t>
+  </si>
+  <si>
+    <t>BAD|53.67%</t>
+  </si>
+  <si>
+    <t>BAD|-0.224</t>
+  </si>
+  <si>
+    <t>OKAY|0.0031</t>
+  </si>
+  <si>
+    <t>BAD|0.5362</t>
+  </si>
+  <si>
+    <t>OKAY|-0.0597</t>
+  </si>
+  <si>
+    <t>BAD|-0.3851</t>
+  </si>
+  <si>
+    <t>BAD|$1585</t>
+  </si>
+  <si>
+    <t>BAD|$28.38</t>
+  </si>
+  <si>
+    <t>BAD|-22.48%</t>
+  </si>
+  <si>
+    <t>GOOD|5614</t>
+  </si>
+  <si>
+    <t>BAD|1779</t>
+  </si>
+  <si>
+    <t>GOOD|315.57</t>
+  </si>
+  <si>
+    <t>BAD|142.52%</t>
+  </si>
+  <si>
+    <t>OKAY|-0.1082</t>
+  </si>
+  <si>
+    <t>OKAY|-0.0639</t>
+  </si>
+  <si>
+    <t>GOOD|$37</t>
+  </si>
+  <si>
+    <t>BAD|11:47</t>
+  </si>
+  <si>
+    <t>BAD|$56.3</t>
+  </si>
+  <si>
+    <t>OKAY|-25.4%</t>
+  </si>
+  <si>
+    <t>BAD|2800</t>
+  </si>
+  <si>
+    <t>BAD|1609.2</t>
+  </si>
+  <si>
+    <t>BEST|47.95%</t>
+  </si>
+  <si>
+    <t>BAD|-0.0848</t>
+  </si>
+  <si>
+    <t>OKAY|0.0118</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0117</t>
+  </si>
+  <si>
+    <t>GOOD|$49</t>
+  </si>
+  <si>
+    <t>BEST|$45.23</t>
+  </si>
+  <si>
+    <t>BAD|8.34%</t>
+  </si>
+  <si>
+    <t>BAD|2897</t>
+  </si>
+  <si>
+    <t>OKAY|1034.64</t>
+  </si>
+  <si>
+    <t>OKAY|58.83%</t>
+  </si>
+  <si>
+    <t>BAD|0.2082</t>
+  </si>
+  <si>
+    <t>BAD|0.0676</t>
+  </si>
+  <si>
+    <t>BAD|0.0205</t>
+  </si>
+  <si>
+    <t>BAD|-0.0664</t>
+  </si>
+  <si>
+    <t>BAD|$177.5</t>
+  </si>
+  <si>
+    <t>BAD|$168.89</t>
+  </si>
+  <si>
+    <t>GOOD|5.1%</t>
+  </si>
+  <si>
+    <t>BEST|869</t>
+  </si>
+  <si>
+    <t>BEST|224</t>
+  </si>
+  <si>
+    <t>BAD|387.95</t>
+  </si>
+  <si>
+    <t>BAD|45.29%</t>
+  </si>
+  <si>
+    <t>OKAY|0.3798</t>
+  </si>
+  <si>
+    <t>BEST|0.185</t>
+  </si>
+  <si>
+    <t>GOOD|0.0484</t>
+  </si>
+  <si>
+    <t>GOOD|$550</t>
+  </si>
+  <si>
+    <t>BAD|12:03</t>
+  </si>
+  <si>
+    <t>BAD|$289.85</t>
+  </si>
+  <si>
+    <t>BAD|5.23%</t>
+  </si>
+  <si>
+    <t>BAD|34147</t>
+  </si>
+  <si>
+    <t>BEST|3948</t>
+  </si>
+  <si>
+    <t>BAD|864.92</t>
+  </si>
+  <si>
+    <t>BAD|55.03%</t>
+  </si>
+  <si>
+    <t>OKAY|0.0188</t>
+  </si>
+  <si>
+    <t>BAD|-0.223</t>
+  </si>
+  <si>
+    <t>OKAY|12:07</t>
+  </si>
+  <si>
+    <t>GOOD|$94</t>
+  </si>
+  <si>
+    <t>BAD|$87.29</t>
+  </si>
+  <si>
+    <t>BAD|7.69%</t>
+  </si>
+  <si>
+    <t>BAD|1525</t>
+  </si>
+  <si>
+    <t>BAD|5446.43</t>
+  </si>
+  <si>
+    <t>BAD|37.34%</t>
+  </si>
+  <si>
+    <t>BEST|0.266</t>
+  </si>
+  <si>
+    <t>GOOD|0.0826</t>
+  </si>
+  <si>
+    <t>OKAY|-0.0511</t>
+  </si>
+  <si>
+    <t>GOOD|$145</t>
+  </si>
+  <si>
+    <t>OKAY|12:18</t>
+  </si>
+  <si>
+    <t>BAD|$71.39</t>
+  </si>
+  <si>
+    <t>BEST|6.46%</t>
+  </si>
+  <si>
+    <t>OKAY|322</t>
+  </si>
+  <si>
+    <t>BAD|545.76</t>
+  </si>
+  <si>
+    <t>BAD|29.61%</t>
+  </si>
+  <si>
+    <t>BAD|0.2356</t>
+  </si>
+  <si>
+    <t>OKAY|0.0508</t>
+  </si>
+  <si>
+    <t>BAD|-0.0308</t>
+  </si>
+  <si>
+    <t>OTLY</t>
+  </si>
+  <si>
+    <t>NEW|12:18</t>
+  </si>
+  <si>
+    <t>NEW|$7.53</t>
+  </si>
+  <si>
+    <t>NEW|-33.6%</t>
+  </si>
+  <si>
+    <t>NEW|720</t>
+  </si>
+  <si>
+    <t>NEW|33</t>
+  </si>
+  <si>
+    <t>NEW|2181.82</t>
+  </si>
+  <si>
+    <t>NEW|73.55%</t>
+  </si>
+  <si>
+    <t>NEW|0.9349</t>
+  </si>
+  <si>
+    <t>NEW|0.057</t>
+  </si>
+  <si>
+    <t>NEW|0.0029</t>
+  </si>
+  <si>
+    <t>NEW|-0.0051</t>
+  </si>
+  <si>
+    <t>NEW|0.0036</t>
+  </si>
+  <si>
+    <t>NEW|$265</t>
+  </si>
+  <si>
+    <t>GOOD|12:35</t>
+  </si>
+  <si>
+    <t>GOOD|$22.5</t>
+  </si>
+  <si>
+    <t>GOOD|$18.72</t>
+  </si>
+  <si>
+    <t>BAD|20.19%</t>
+  </si>
+  <si>
+    <t>OKAY|3047</t>
+  </si>
+  <si>
+    <t>GOOD|606</t>
+  </si>
+  <si>
+    <t>BAD|502.81</t>
+  </si>
+  <si>
+    <t>BAD|52.2%</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0097</t>
+  </si>
+  <si>
+    <t>OKAY|$366</t>
+  </si>
+  <si>
+    <t>BAD|$391.46</t>
+  </si>
+  <si>
+    <t>BAD|-6.5%</t>
+  </si>
+  <si>
+    <t>BAD|1867</t>
+  </si>
+  <si>
+    <t>GOOD|294</t>
+  </si>
+  <si>
+    <t>OKAY|635.03</t>
+  </si>
+  <si>
+    <t>BAD|26.97%</t>
+  </si>
+  <si>
+    <t>OKAY|-0.1118</t>
+  </si>
+  <si>
+    <t>GOOD|-0.1291</t>
+  </si>
+  <si>
+    <t>BAD|-0.0188</t>
+  </si>
+  <si>
+    <t>OKAY|12:39</t>
+  </si>
+  <si>
+    <t>BAD|148</t>
+  </si>
+  <si>
+    <t>BAD|$54.98</t>
+  </si>
+  <si>
+    <t>OKAY|14.59%</t>
+  </si>
+  <si>
+    <t>BAD|5263.16</t>
+  </si>
+  <si>
+    <t>GOOD|0.2245</t>
+  </si>
+  <si>
+    <t>OKAY|0.105</t>
+  </si>
+  <si>
+    <t>BAD|$109</t>
+  </si>
+  <si>
+    <t>OKAY|12:53</t>
+  </si>
+  <si>
+    <t>BAD|176</t>
+  </si>
+  <si>
+    <t>BAD|$22.58</t>
+  </si>
+  <si>
+    <t>BAD|-7%</t>
+  </si>
+  <si>
+    <t>BEST|307</t>
+  </si>
+  <si>
+    <t>GOOD|70</t>
+  </si>
+  <si>
+    <t>BEST|438.57</t>
+  </si>
+  <si>
+    <t>GOOD|32.78%</t>
+  </si>
+  <si>
+    <t>GOOD|0.6678</t>
+  </si>
+  <si>
+    <t>GOOD|0.0735</t>
+  </si>
+  <si>
+    <t>OKAY|0.0558</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0055</t>
+  </si>
+  <si>
+    <t>BEST|0.0504</t>
+  </si>
+  <si>
+    <t>BAD|$280</t>
+  </si>
+  <si>
+    <t>GOOD|12:54</t>
+  </si>
+  <si>
+    <t>BAD|$25.91</t>
+  </si>
+  <si>
+    <t>BAD|25.43%</t>
+  </si>
+  <si>
+    <t>BAD|390</t>
+  </si>
+  <si>
+    <t>GOOD|1695.65</t>
+  </si>
+  <si>
+    <t>BEST|54.39%</t>
+  </si>
+  <si>
+    <t>BAD|0.3621</t>
+  </si>
+  <si>
+    <t>BAD|0.0355</t>
+  </si>
+  <si>
+    <t>BAD|0.0723</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0096</t>
+  </si>
+  <si>
+    <t>GOOD|$214</t>
+  </si>
+  <si>
+    <t>NEW|0</t>
+  </si>
+  <si>
+    <t>NEW|$94.81</t>
+  </si>
+  <si>
+    <t>NEW|5.47%</t>
+  </si>
+  <si>
+    <t>NEW|9146</t>
+  </si>
+  <si>
+    <t>NEW|2966</t>
+  </si>
+  <si>
+    <t>NEW|308.36</t>
+  </si>
+  <si>
+    <t>NEW|90.8%</t>
+  </si>
+  <si>
+    <t>NEW|0.1572</t>
+  </si>
+  <si>
+    <t>NEW|0.0496</t>
+  </si>
+  <si>
+    <t>NEW|0.0124</t>
+  </si>
+  <si>
+    <t>NEW|-0.3824</t>
+  </si>
+  <si>
+    <t>CSCO</t>
+  </si>
+  <si>
+    <t>GOOD|$61.43</t>
+  </si>
+  <si>
+    <t>BAD|-14.54%</t>
+  </si>
+  <si>
+    <t>BAD|2500</t>
+  </si>
+  <si>
+    <t>OKAY|243</t>
+  </si>
+  <si>
+    <t>GOOD|1028.81</t>
+  </si>
+  <si>
+    <t>BAD|28.2%</t>
+  </si>
+  <si>
+    <t>GOOD|-0.2177</t>
+  </si>
+  <si>
+    <t>OKAY|0.023</t>
+  </si>
+  <si>
+    <t>GOOD|0.134</t>
+  </si>
+  <si>
+    <t>OKAY|-0.0092</t>
+  </si>
+  <si>
+    <t>BAD|-0.0815</t>
+  </si>
+  <si>
+    <t>OKAY|$179</t>
+  </si>
+  <si>
+    <t>LYFT</t>
+  </si>
+  <si>
+    <t>GOOD|$42.41</t>
+  </si>
+  <si>
+    <t>GOOD|6.11%</t>
+  </si>
+  <si>
+    <t>BEST|471</t>
+  </si>
+  <si>
+    <t>BEST|99</t>
+  </si>
+  <si>
+    <t>BEST|475.76</t>
+  </si>
+  <si>
+    <t>OKAY|46.53%</t>
+  </si>
+  <si>
+    <t>OKAY|0.2869</t>
+  </si>
+  <si>
+    <t>BEST|0.0829</t>
+  </si>
+  <si>
+    <t>BEST|0.0304</t>
+  </si>
+  <si>
+    <t>OKAY|-0.0436</t>
+  </si>
+  <si>
+    <t>BEST|0.005</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>BAD|13:13</t>
+  </si>
+  <si>
+    <t>OKAY|$365</t>
+  </si>
+  <si>
+    <t>OKAY|$331.2</t>
+  </si>
+  <si>
+    <t>GOOD|10.21%</t>
+  </si>
+  <si>
+    <t>BAD|5846</t>
+  </si>
+  <si>
+    <t>GOOD|1669</t>
+  </si>
+  <si>
+    <t>GOOD|350.27</t>
+  </si>
+  <si>
+    <t>BEST|0.229</t>
+  </si>
+  <si>
+    <t>OKAY|0.0076</t>
+  </si>
+  <si>
+    <t>OKAY|0.4904</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0696</t>
+  </si>
+  <si>
+    <t>BAD|$505</t>
+  </si>
+  <si>
+    <t>BAD|$145.17</t>
+  </si>
+  <si>
+    <t>BEST|10.22%</t>
+  </si>
+  <si>
+    <t>OKAY|3285</t>
+  </si>
+  <si>
+    <t>GOOD|1061</t>
+  </si>
+  <si>
+    <t>GOOD|309.61</t>
+  </si>
+  <si>
+    <t>OKAY|79.35%</t>
+  </si>
+  <si>
+    <t>BEST|0.2407</t>
+  </si>
+  <si>
+    <t>GOOD|0.0171</t>
+  </si>
+  <si>
+    <t>BEST|0.0712</t>
+  </si>
+  <si>
+    <t>BAD|-0.314</t>
+  </si>
+  <si>
+    <t>BEST|$250</t>
   </si>
 </sst>
 </file>
@@ -28381,7 +29971,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="45">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -28972,10 +30597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01A41AF-5C41-43F4-ABA6-E54911303FD1}">
-  <dimension ref="A1:U852"/>
+  <dimension ref="A1:U905"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A826" sqref="A826"/>
+      <selection activeCell="U905" sqref="A905:U905"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -84066,8 +85691,3414 @@
         <v>0.53120000000000001</v>
       </c>
     </row>
+    <row r="853" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A853" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B853" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C853" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D853" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E853" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F853" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G853" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H853" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I853" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J853" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K853" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L853" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M853" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N853" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O853" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P853" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q853" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R853" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S853" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T853" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U853" s="1" t="s">
+        <v>6862</v>
+      </c>
+    </row>
+    <row r="854" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A854" s="23">
+        <v>44551</v>
+      </c>
+      <c r="B854" s="23"/>
+      <c r="C854" s="23"/>
+      <c r="D854" s="23"/>
+      <c r="E854" s="23"/>
+      <c r="F854" s="23"/>
+      <c r="G854" s="23"/>
+      <c r="H854" s="23"/>
+      <c r="I854" s="23"/>
+      <c r="J854" s="23"/>
+      <c r="K854" s="23"/>
+      <c r="L854" s="23"/>
+      <c r="M854" s="23"/>
+      <c r="N854" s="23"/>
+      <c r="O854" s="23"/>
+      <c r="P854" s="23"/>
+      <c r="Q854" s="23"/>
+      <c r="R854" s="23"/>
+      <c r="S854" s="23"/>
+      <c r="T854" s="23"/>
+      <c r="U854" s="23"/>
+    </row>
+    <row r="855" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A855" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B855" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C855" s="11">
+        <v>44552.336805555555</v>
+      </c>
+      <c r="D855" s="10" t="s">
+        <v>3834</v>
+      </c>
+      <c r="E855" s="10" t="s">
+        <v>9394</v>
+      </c>
+      <c r="F855" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G855" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H855" s="10" t="s">
+        <v>4910</v>
+      </c>
+      <c r="I855" s="10" t="s">
+        <v>9395</v>
+      </c>
+      <c r="J855" s="10" t="s">
+        <v>9396</v>
+      </c>
+      <c r="K855" s="10" t="s">
+        <v>9397</v>
+      </c>
+      <c r="L855" s="10" t="s">
+        <v>9398</v>
+      </c>
+      <c r="M855" s="10" t="s">
+        <v>9399</v>
+      </c>
+      <c r="N855" s="10" t="s">
+        <v>9400</v>
+      </c>
+      <c r="O855" s="10" t="s">
+        <v>9401</v>
+      </c>
+      <c r="P855" s="10" t="s">
+        <v>9402</v>
+      </c>
+      <c r="Q855" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="R855" s="10" t="s">
+        <v>2714</v>
+      </c>
+      <c r="S855" s="10" t="s">
+        <v>2437</v>
+      </c>
+      <c r="T855" s="10" t="s">
+        <v>4675</v>
+      </c>
+      <c r="U855" s="8">
+        <v>0.40620000000000001</v>
+      </c>
+    </row>
+    <row r="856" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A856" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B856" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C856" s="11">
+        <v>44552.34097222222</v>
+      </c>
+      <c r="D856" s="10" t="s">
+        <v>3833</v>
+      </c>
+      <c r="E856" s="10" t="s">
+        <v>9403</v>
+      </c>
+      <c r="F856" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G856" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="H856" s="10" t="s">
+        <v>4424</v>
+      </c>
+      <c r="I856" s="10" t="s">
+        <v>9404</v>
+      </c>
+      <c r="J856" s="10" t="s">
+        <v>9405</v>
+      </c>
+      <c r="K856" s="10" t="s">
+        <v>9406</v>
+      </c>
+      <c r="L856" s="10" t="s">
+        <v>1428</v>
+      </c>
+      <c r="M856" s="10" t="s">
+        <v>9407</v>
+      </c>
+      <c r="N856" s="10" t="s">
+        <v>9408</v>
+      </c>
+      <c r="O856" s="10" t="s">
+        <v>9409</v>
+      </c>
+      <c r="P856" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="Q856" s="10" t="s">
+        <v>9410</v>
+      </c>
+      <c r="R856" s="10" t="s">
+        <v>9411</v>
+      </c>
+      <c r="S856" s="10" t="s">
+        <v>9412</v>
+      </c>
+      <c r="T856" s="10" t="s">
+        <v>9413</v>
+      </c>
+      <c r="U856" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="857" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A857" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B857" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C857" s="11">
+        <v>44552.343055555553</v>
+      </c>
+      <c r="D857" s="10" t="s">
+        <v>3834</v>
+      </c>
+      <c r="E857" s="10" t="s">
+        <v>4181</v>
+      </c>
+      <c r="F857" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G857" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="H857" s="10" t="s">
+        <v>9414</v>
+      </c>
+      <c r="I857" s="10" t="s">
+        <v>9415</v>
+      </c>
+      <c r="J857" s="10" t="s">
+        <v>9416</v>
+      </c>
+      <c r="K857" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="L857" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="M857" s="10" t="s">
+        <v>9417</v>
+      </c>
+      <c r="N857" s="10" t="s">
+        <v>9418</v>
+      </c>
+      <c r="O857" s="10" t="s">
+        <v>9419</v>
+      </c>
+      <c r="P857" s="10" t="s">
+        <v>9420</v>
+      </c>
+      <c r="Q857" s="10" t="s">
+        <v>3437</v>
+      </c>
+      <c r="R857" s="10" t="s">
+        <v>9421</v>
+      </c>
+      <c r="S857" s="10" t="s">
+        <v>2594</v>
+      </c>
+      <c r="T857" s="10" t="s">
+        <v>4481</v>
+      </c>
+      <c r="U857" s="8">
+        <v>0.46879999999999999</v>
+      </c>
+    </row>
+    <row r="858" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A858" s="4" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B858" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C858" s="11">
+        <v>44552.349305555559</v>
+      </c>
+      <c r="D858" s="10" t="s">
+        <v>3833</v>
+      </c>
+      <c r="E858" s="10" t="s">
+        <v>9422</v>
+      </c>
+      <c r="F858" s="12">
+        <v>44568</v>
+      </c>
+      <c r="G858" s="10" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H858" s="10" t="s">
+        <v>4667</v>
+      </c>
+      <c r="I858" s="10" t="s">
+        <v>9423</v>
+      </c>
+      <c r="J858" s="10" t="s">
+        <v>9424</v>
+      </c>
+      <c r="K858" s="10" t="s">
+        <v>9425</v>
+      </c>
+      <c r="L858" s="10" t="s">
+        <v>9426</v>
+      </c>
+      <c r="M858" s="10" t="s">
+        <v>9427</v>
+      </c>
+      <c r="N858" s="10" t="s">
+        <v>9428</v>
+      </c>
+      <c r="O858" s="10" t="s">
+        <v>9429</v>
+      </c>
+      <c r="P858" s="10" t="s">
+        <v>9430</v>
+      </c>
+      <c r="Q858" s="10" t="s">
+        <v>7298</v>
+      </c>
+      <c r="R858" s="10" t="s">
+        <v>9431</v>
+      </c>
+      <c r="S858" s="10" t="s">
+        <v>9432</v>
+      </c>
+      <c r="T858" s="10" t="s">
+        <v>9433</v>
+      </c>
+      <c r="U858" s="8">
+        <v>0.54690000000000005</v>
+      </c>
+    </row>
+    <row r="859" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A859" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B859" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C859" s="11">
+        <v>44552.36041666667</v>
+      </c>
+      <c r="D859" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E859" s="10" t="s">
+        <v>9434</v>
+      </c>
+      <c r="F859" s="12">
+        <v>44610</v>
+      </c>
+      <c r="G859" s="10" t="s">
+        <v>2771</v>
+      </c>
+      <c r="H859" s="10" t="s">
+        <v>4655</v>
+      </c>
+      <c r="I859" s="10" t="s">
+        <v>9435</v>
+      </c>
+      <c r="J859" s="10" t="s">
+        <v>9143</v>
+      </c>
+      <c r="K859" s="10" t="s">
+        <v>9436</v>
+      </c>
+      <c r="L859" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="M859" s="10" t="s">
+        <v>9437</v>
+      </c>
+      <c r="N859" s="10" t="s">
+        <v>9438</v>
+      </c>
+      <c r="O859" s="10" t="s">
+        <v>9439</v>
+      </c>
+      <c r="P859" s="10" t="s">
+        <v>9440</v>
+      </c>
+      <c r="Q859" s="10" t="s">
+        <v>1454</v>
+      </c>
+      <c r="R859" s="10" t="s">
+        <v>9441</v>
+      </c>
+      <c r="S859" s="10" t="s">
+        <v>9442</v>
+      </c>
+      <c r="T859" s="10" t="s">
+        <v>4783</v>
+      </c>
+      <c r="U859" s="8">
+        <v>0.4531</v>
+      </c>
+    </row>
+    <row r="860" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A860" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B860" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C860" s="11">
+        <v>44552.361111111109</v>
+      </c>
+      <c r="D860" s="10" t="s">
+        <v>3833</v>
+      </c>
+      <c r="E860" s="10" t="s">
+        <v>3894</v>
+      </c>
+      <c r="F860" s="12">
+        <v>44610</v>
+      </c>
+      <c r="G860" s="10" t="s">
+        <v>2771</v>
+      </c>
+      <c r="H860" s="10" t="s">
+        <v>4489</v>
+      </c>
+      <c r="I860" s="10" t="s">
+        <v>7613</v>
+      </c>
+      <c r="J860" s="10" t="s">
+        <v>9443</v>
+      </c>
+      <c r="K860" s="10" t="s">
+        <v>9444</v>
+      </c>
+      <c r="L860" s="10" t="s">
+        <v>9445</v>
+      </c>
+      <c r="M860" s="10" t="s">
+        <v>9446</v>
+      </c>
+      <c r="N860" s="10" t="s">
+        <v>9447</v>
+      </c>
+      <c r="O860" s="10" t="s">
+        <v>9448</v>
+      </c>
+      <c r="P860" s="10" t="s">
+        <v>3477</v>
+      </c>
+      <c r="Q860" s="10" t="s">
+        <v>9449</v>
+      </c>
+      <c r="R860" s="10" t="s">
+        <v>9450</v>
+      </c>
+      <c r="S860" s="10" t="s">
+        <v>9451</v>
+      </c>
+      <c r="T860" s="10" t="s">
+        <v>9452</v>
+      </c>
+      <c r="U860" s="8">
+        <v>0.4531</v>
+      </c>
+    </row>
+    <row r="861" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A861" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B861" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C861" s="11">
+        <v>44552.362500000003</v>
+      </c>
+      <c r="D861" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E861" s="10" t="s">
+        <v>3969</v>
+      </c>
+      <c r="F861" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G861" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="H861" s="10" t="s">
+        <v>5085</v>
+      </c>
+      <c r="I861" s="10" t="s">
+        <v>9453</v>
+      </c>
+      <c r="J861" s="10" t="s">
+        <v>9454</v>
+      </c>
+      <c r="K861" s="10" t="s">
+        <v>9455</v>
+      </c>
+      <c r="L861" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="M861" s="10" t="s">
+        <v>9456</v>
+      </c>
+      <c r="N861" s="10" t="s">
+        <v>9457</v>
+      </c>
+      <c r="O861" s="10" t="s">
+        <v>9458</v>
+      </c>
+      <c r="P861" s="10" t="s">
+        <v>9459</v>
+      </c>
+      <c r="Q861" s="10" t="s">
+        <v>9460</v>
+      </c>
+      <c r="R861" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="S861" s="10" t="s">
+        <v>3659</v>
+      </c>
+      <c r="T861" s="10" t="s">
+        <v>4569</v>
+      </c>
+      <c r="U861" s="8">
+        <v>0.40620000000000001</v>
+      </c>
+    </row>
+    <row r="862" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A862" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B862" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C862" s="11">
+        <v>44552.372916666667</v>
+      </c>
+      <c r="D862" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E862" s="10" t="s">
+        <v>9461</v>
+      </c>
+      <c r="F862" s="12">
+        <v>44638</v>
+      </c>
+      <c r="G862" s="10" t="s">
+        <v>2617</v>
+      </c>
+      <c r="H862" s="10" t="s">
+        <v>9462</v>
+      </c>
+      <c r="I862" s="10" t="s">
+        <v>9463</v>
+      </c>
+      <c r="J862" s="10" t="s">
+        <v>9464</v>
+      </c>
+      <c r="K862" s="10" t="s">
+        <v>9465</v>
+      </c>
+      <c r="L862" s="10" t="s">
+        <v>9466</v>
+      </c>
+      <c r="M862" s="10" t="s">
+        <v>9467</v>
+      </c>
+      <c r="N862" s="10" t="s">
+        <v>9468</v>
+      </c>
+      <c r="O862" s="10" t="s">
+        <v>9469</v>
+      </c>
+      <c r="P862" s="10" t="s">
+        <v>9372</v>
+      </c>
+      <c r="Q862" s="10" t="s">
+        <v>9470</v>
+      </c>
+      <c r="R862" s="10" t="s">
+        <v>9471</v>
+      </c>
+      <c r="S862" s="10" t="s">
+        <v>9472</v>
+      </c>
+      <c r="T862" s="10" t="s">
+        <v>7311</v>
+      </c>
+      <c r="U862" s="8">
+        <v>0.4844</v>
+      </c>
+    </row>
+    <row r="863" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A863" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B863" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C863" s="11">
+        <v>44552.373611111114</v>
+      </c>
+      <c r="D863" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E863" s="10" t="s">
+        <v>9473</v>
+      </c>
+      <c r="F863" s="12">
+        <v>44792</v>
+      </c>
+      <c r="G863" s="10" t="s">
+        <v>9474</v>
+      </c>
+      <c r="H863" s="10" t="s">
+        <v>4637</v>
+      </c>
+      <c r="I863" s="10" t="s">
+        <v>9475</v>
+      </c>
+      <c r="J863" s="10" t="s">
+        <v>9476</v>
+      </c>
+      <c r="K863" s="10" t="s">
+        <v>9477</v>
+      </c>
+      <c r="L863" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M863" s="10" t="s">
+        <v>9478</v>
+      </c>
+      <c r="N863" s="10" t="s">
+        <v>9479</v>
+      </c>
+      <c r="O863" s="10" t="s">
+        <v>9480</v>
+      </c>
+      <c r="P863" s="10" t="s">
+        <v>8287</v>
+      </c>
+      <c r="Q863" s="10" t="s">
+        <v>9481</v>
+      </c>
+      <c r="R863" s="10" t="s">
+        <v>9482</v>
+      </c>
+      <c r="S863" s="10" t="s">
+        <v>9483</v>
+      </c>
+      <c r="T863" s="10" t="s">
+        <v>9484</v>
+      </c>
+      <c r="U863" s="8">
+        <v>0.4531</v>
+      </c>
+    </row>
+    <row r="864" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A864" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="B864" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C864" s="11">
+        <v>44552.375694444447</v>
+      </c>
+      <c r="D864" s="10" t="s">
+        <v>3834</v>
+      </c>
+      <c r="E864" s="10" t="s">
+        <v>9485</v>
+      </c>
+      <c r="F864" s="12">
+        <v>44589</v>
+      </c>
+      <c r="G864" s="10" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H864" s="10" t="s">
+        <v>5854</v>
+      </c>
+      <c r="I864" s="10" t="s">
+        <v>9486</v>
+      </c>
+      <c r="J864" s="10" t="s">
+        <v>9487</v>
+      </c>
+      <c r="K864" s="10" t="s">
+        <v>2169</v>
+      </c>
+      <c r="L864" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="M864" s="10" t="s">
+        <v>9488</v>
+      </c>
+      <c r="N864" s="10" t="s">
+        <v>9489</v>
+      </c>
+      <c r="O864" s="10" t="s">
+        <v>9490</v>
+      </c>
+      <c r="P864" s="10" t="s">
+        <v>9491</v>
+      </c>
+      <c r="Q864" s="10" t="s">
+        <v>9492</v>
+      </c>
+      <c r="R864" s="10" t="s">
+        <v>9493</v>
+      </c>
+      <c r="S864" s="10" t="s">
+        <v>9494</v>
+      </c>
+      <c r="T864" s="10" t="s">
+        <v>4581</v>
+      </c>
+      <c r="U864" s="8">
+        <v>0.3594</v>
+      </c>
+    </row>
+    <row r="865" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A865" s="4" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B865" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C865" s="11">
+        <v>44552.37777777778</v>
+      </c>
+      <c r="D865" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E865" s="10" t="s">
+        <v>9495</v>
+      </c>
+      <c r="F865" s="12">
+        <v>44553</v>
+      </c>
+      <c r="G865" s="10" t="s">
+        <v>2927</v>
+      </c>
+      <c r="H865" s="10" t="s">
+        <v>9496</v>
+      </c>
+      <c r="I865" s="10" t="s">
+        <v>9497</v>
+      </c>
+      <c r="J865" s="10" t="s">
+        <v>9498</v>
+      </c>
+      <c r="K865" s="10" t="s">
+        <v>9499</v>
+      </c>
+      <c r="L865" s="10" t="s">
+        <v>9500</v>
+      </c>
+      <c r="M865" s="10" t="s">
+        <v>9501</v>
+      </c>
+      <c r="N865" s="10" t="s">
+        <v>9502</v>
+      </c>
+      <c r="O865" s="10" t="s">
+        <v>9503</v>
+      </c>
+      <c r="P865" s="10" t="s">
+        <v>8149</v>
+      </c>
+      <c r="Q865" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="R865" s="10" t="s">
+        <v>9504</v>
+      </c>
+      <c r="S865" s="10" t="s">
+        <v>9505</v>
+      </c>
+      <c r="T865" s="10" t="s">
+        <v>5385</v>
+      </c>
+      <c r="U865" s="8">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="866" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A866" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B866" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C866" s="11">
+        <v>44552.386111111111</v>
+      </c>
+      <c r="D866" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E866" s="10" t="s">
+        <v>9506</v>
+      </c>
+      <c r="F866" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G866" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H866" s="10" t="s">
+        <v>5552</v>
+      </c>
+      <c r="I866" s="10" t="s">
+        <v>9507</v>
+      </c>
+      <c r="J866" s="10" t="s">
+        <v>9508</v>
+      </c>
+      <c r="K866" s="10" t="s">
+        <v>9509</v>
+      </c>
+      <c r="L866" s="10" t="s">
+        <v>9510</v>
+      </c>
+      <c r="M866" s="10" t="s">
+        <v>9511</v>
+      </c>
+      <c r="N866" s="10" t="s">
+        <v>9512</v>
+      </c>
+      <c r="O866" s="10" t="s">
+        <v>9513</v>
+      </c>
+      <c r="P866" s="10" t="s">
+        <v>9514</v>
+      </c>
+      <c r="Q866" s="10" t="s">
+        <v>9515</v>
+      </c>
+      <c r="R866" s="10" t="s">
+        <v>9516</v>
+      </c>
+      <c r="S866" s="10" t="s">
+        <v>7478</v>
+      </c>
+      <c r="T866" s="10" t="s">
+        <v>4646</v>
+      </c>
+      <c r="U866" s="8">
+        <v>0.65620000000000001</v>
+      </c>
+    </row>
+    <row r="867" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A867" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B867" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C867" s="11">
+        <v>44552.388888888891</v>
+      </c>
+      <c r="D867" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E867" s="10" t="s">
+        <v>4005</v>
+      </c>
+      <c r="F867" s="12">
+        <v>44568</v>
+      </c>
+      <c r="G867" s="10" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H867" s="10" t="s">
+        <v>6258</v>
+      </c>
+      <c r="I867" s="10" t="s">
+        <v>9517</v>
+      </c>
+      <c r="J867" s="10" t="s">
+        <v>9518</v>
+      </c>
+      <c r="K867" s="10" t="s">
+        <v>9519</v>
+      </c>
+      <c r="L867" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M867" s="10" t="s">
+        <v>9520</v>
+      </c>
+      <c r="N867" s="10" t="s">
+        <v>9521</v>
+      </c>
+      <c r="O867" s="10" t="s">
+        <v>9522</v>
+      </c>
+      <c r="P867" s="10" t="s">
+        <v>9523</v>
+      </c>
+      <c r="Q867" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="R867" s="10" t="s">
+        <v>9524</v>
+      </c>
+      <c r="S867" s="10" t="s">
+        <v>7575</v>
+      </c>
+      <c r="T867" s="10" t="s">
+        <v>9525</v>
+      </c>
+      <c r="U867" s="8">
+        <v>0.57809999999999995</v>
+      </c>
+    </row>
+    <row r="868" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A868" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="B868" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C868" s="11">
+        <v>44552.390972222223</v>
+      </c>
+      <c r="D868" s="10" t="s">
+        <v>3834</v>
+      </c>
+      <c r="E868" s="10" t="s">
+        <v>3919</v>
+      </c>
+      <c r="F868" s="12">
+        <v>44553</v>
+      </c>
+      <c r="G868" s="10" t="s">
+        <v>934</v>
+      </c>
+      <c r="H868" s="10" t="s">
+        <v>9526</v>
+      </c>
+      <c r="I868" s="10" t="s">
+        <v>9527</v>
+      </c>
+      <c r="J868" s="10" t="s">
+        <v>9528</v>
+      </c>
+      <c r="K868" s="10" t="s">
+        <v>9529</v>
+      </c>
+      <c r="L868" s="10" t="s">
+        <v>9530</v>
+      </c>
+      <c r="M868" s="10" t="s">
+        <v>9531</v>
+      </c>
+      <c r="N868" s="10" t="s">
+        <v>9532</v>
+      </c>
+      <c r="O868" s="10" t="s">
+        <v>9533</v>
+      </c>
+      <c r="P868" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q868" s="10" t="s">
+        <v>9534</v>
+      </c>
+      <c r="R868" s="10" t="s">
+        <v>9535</v>
+      </c>
+      <c r="S868" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="T868" s="10" t="s">
+        <v>9536</v>
+      </c>
+      <c r="U868" s="8">
+        <v>0.3906</v>
+      </c>
+    </row>
+    <row r="869" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A869" s="4" t="s">
+        <v>9537</v>
+      </c>
+      <c r="B869" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C869" s="11">
+        <v>44552.393055555556</v>
+      </c>
+      <c r="D869" s="10" t="s">
+        <v>3833</v>
+      </c>
+      <c r="E869" s="10" t="s">
+        <v>9538</v>
+      </c>
+      <c r="F869" s="12">
+        <v>44610</v>
+      </c>
+      <c r="G869" s="10" t="s">
+        <v>2771</v>
+      </c>
+      <c r="H869" s="10" t="s">
+        <v>4410</v>
+      </c>
+      <c r="I869" s="10" t="s">
+        <v>9539</v>
+      </c>
+      <c r="J869" s="10" t="s">
+        <v>9540</v>
+      </c>
+      <c r="K869" s="10" t="s">
+        <v>7777</v>
+      </c>
+      <c r="L869" s="10" t="s">
+        <v>3268</v>
+      </c>
+      <c r="M869" s="10" t="s">
+        <v>9346</v>
+      </c>
+      <c r="N869" s="10" t="s">
+        <v>9541</v>
+      </c>
+      <c r="O869" s="10" t="s">
+        <v>9542</v>
+      </c>
+      <c r="P869" s="10" t="s">
+        <v>9543</v>
+      </c>
+      <c r="Q869" s="10" t="s">
+        <v>9544</v>
+      </c>
+      <c r="R869" s="10" t="s">
+        <v>9545</v>
+      </c>
+      <c r="S869" s="10" t="s">
+        <v>2459</v>
+      </c>
+      <c r="T869" s="10" t="s">
+        <v>8483</v>
+      </c>
+      <c r="U869" s="8">
+        <v>0.34379999999999999</v>
+      </c>
+    </row>
+    <row r="870" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A870" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B870" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C870" s="11">
+        <v>44552.398611111108</v>
+      </c>
+      <c r="D870" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E870" s="10" t="s">
+        <v>3858</v>
+      </c>
+      <c r="F870" s="12">
+        <v>44553</v>
+      </c>
+      <c r="G870" s="10" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H870" s="10" t="s">
+        <v>7839</v>
+      </c>
+      <c r="I870" s="10" t="s">
+        <v>9546</v>
+      </c>
+      <c r="J870" s="10" t="s">
+        <v>9547</v>
+      </c>
+      <c r="K870" s="10" t="s">
+        <v>9548</v>
+      </c>
+      <c r="L870" s="10" t="s">
+        <v>9549</v>
+      </c>
+      <c r="M870" s="10" t="s">
+        <v>9550</v>
+      </c>
+      <c r="N870" s="10" t="s">
+        <v>9551</v>
+      </c>
+      <c r="O870" s="10" t="s">
+        <v>9552</v>
+      </c>
+      <c r="P870" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q870" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="R870" s="10" t="s">
+        <v>9553</v>
+      </c>
+      <c r="S870" s="10" t="s">
+        <v>9554</v>
+      </c>
+      <c r="T870" s="10" t="s">
+        <v>4424</v>
+      </c>
+      <c r="U870" s="8">
+        <v>0.4219</v>
+      </c>
+    </row>
+    <row r="871" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A871" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B871" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C871" s="11">
+        <v>44552.40347222222</v>
+      </c>
+      <c r="D871" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E871" s="10" t="s">
+        <v>9555</v>
+      </c>
+      <c r="F871" s="12">
+        <v>44757</v>
+      </c>
+      <c r="G871" s="10" t="s">
+        <v>9556</v>
+      </c>
+      <c r="H871" s="10" t="s">
+        <v>4662</v>
+      </c>
+      <c r="I871" s="10" t="s">
+        <v>9557</v>
+      </c>
+      <c r="J871" s="10" t="s">
+        <v>9558</v>
+      </c>
+      <c r="K871" s="10" t="s">
+        <v>9559</v>
+      </c>
+      <c r="L871" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="M871" s="10" t="s">
+        <v>9560</v>
+      </c>
+      <c r="N871" s="10" t="s">
+        <v>9561</v>
+      </c>
+      <c r="O871" s="10" t="s">
+        <v>9562</v>
+      </c>
+      <c r="P871" s="10" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Q871" s="10" t="s">
+        <v>9563</v>
+      </c>
+      <c r="R871" s="10" t="s">
+        <v>9564</v>
+      </c>
+      <c r="S871" s="10" t="s">
+        <v>9565</v>
+      </c>
+      <c r="T871" s="10" t="s">
+        <v>9566</v>
+      </c>
+      <c r="U871" s="8">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="872" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A872" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="B872" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C872" s="11">
+        <v>44552.411111111112</v>
+      </c>
+      <c r="D872" s="10" t="s">
+        <v>3833</v>
+      </c>
+      <c r="E872" s="10" t="s">
+        <v>9567</v>
+      </c>
+      <c r="F872" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G872" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="H872" s="10" t="s">
+        <v>9568</v>
+      </c>
+      <c r="I872" s="10" t="s">
+        <v>9569</v>
+      </c>
+      <c r="J872" s="10" t="s">
+        <v>9570</v>
+      </c>
+      <c r="K872" s="10" t="s">
+        <v>9571</v>
+      </c>
+      <c r="L872" s="10" t="s">
+        <v>9572</v>
+      </c>
+      <c r="M872" s="10" t="s">
+        <v>9573</v>
+      </c>
+      <c r="N872" s="10" t="s">
+        <v>9574</v>
+      </c>
+      <c r="O872" s="10" t="s">
+        <v>9575</v>
+      </c>
+      <c r="P872" s="10" t="s">
+        <v>9576</v>
+      </c>
+      <c r="Q872" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="R872" s="10" t="s">
+        <v>3814</v>
+      </c>
+      <c r="S872" s="10" t="s">
+        <v>3447</v>
+      </c>
+      <c r="T872" s="10" t="s">
+        <v>6308</v>
+      </c>
+      <c r="U872" s="8">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="873" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A873" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B873" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C873" s="11">
+        <v>44552.418055555558</v>
+      </c>
+      <c r="D873" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E873" s="10" t="s">
+        <v>9577</v>
+      </c>
+      <c r="F873" s="12">
+        <v>44610</v>
+      </c>
+      <c r="G873" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="H873" s="10" t="s">
+        <v>5747</v>
+      </c>
+      <c r="I873" s="10" t="s">
+        <v>9578</v>
+      </c>
+      <c r="J873" s="10" t="s">
+        <v>9579</v>
+      </c>
+      <c r="K873" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="L873" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="M873" s="10" t="s">
+        <v>9580</v>
+      </c>
+      <c r="N873" s="10" t="s">
+        <v>9581</v>
+      </c>
+      <c r="O873" s="10" t="s">
+        <v>9582</v>
+      </c>
+      <c r="P873" s="10" t="s">
+        <v>9583</v>
+      </c>
+      <c r="Q873" s="10" t="s">
+        <v>7212</v>
+      </c>
+      <c r="R873" s="10" t="s">
+        <v>9584</v>
+      </c>
+      <c r="S873" s="10" t="s">
+        <v>9585</v>
+      </c>
+      <c r="T873" s="10" t="s">
+        <v>8055</v>
+      </c>
+      <c r="U873" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="874" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A874" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B874" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C874" s="11">
+        <v>44552.426388888889</v>
+      </c>
+      <c r="D874" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E874" s="10" t="s">
+        <v>4106</v>
+      </c>
+      <c r="F874" s="12">
+        <v>44568</v>
+      </c>
+      <c r="G874" s="10" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H874" s="10" t="s">
+        <v>9586</v>
+      </c>
+      <c r="I874" s="10" t="s">
+        <v>9587</v>
+      </c>
+      <c r="J874" s="10" t="s">
+        <v>9588</v>
+      </c>
+      <c r="K874" s="10" t="s">
+        <v>9589</v>
+      </c>
+      <c r="L874" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M874" s="10" t="s">
+        <v>9590</v>
+      </c>
+      <c r="N874" s="10" t="s">
+        <v>9591</v>
+      </c>
+      <c r="O874" s="10" t="s">
+        <v>9592</v>
+      </c>
+      <c r="P874" s="10" t="s">
+        <v>9593</v>
+      </c>
+      <c r="Q874" s="10" t="s">
+        <v>9594</v>
+      </c>
+      <c r="R874" s="10" t="s">
+        <v>1630</v>
+      </c>
+      <c r="S874" s="10" t="s">
+        <v>9062</v>
+      </c>
+      <c r="T874" s="10" t="s">
+        <v>4444</v>
+      </c>
+      <c r="U874" s="8">
+        <v>0.4219</v>
+      </c>
+    </row>
+    <row r="875" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A875" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B875" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C875" s="11">
+        <v>44552.431250000001</v>
+      </c>
+      <c r="D875" s="10" t="s">
+        <v>3848</v>
+      </c>
+      <c r="E875" s="10" t="s">
+        <v>9595</v>
+      </c>
+      <c r="F875" s="12">
+        <v>44638</v>
+      </c>
+      <c r="G875" s="10" t="s">
+        <v>9596</v>
+      </c>
+      <c r="H875" s="10" t="s">
+        <v>9597</v>
+      </c>
+      <c r="I875" s="10" t="s">
+        <v>9598</v>
+      </c>
+      <c r="J875" s="10" t="s">
+        <v>9599</v>
+      </c>
+      <c r="K875" s="10" t="s">
+        <v>9600</v>
+      </c>
+      <c r="L875" s="10" t="s">
+        <v>9601</v>
+      </c>
+      <c r="M875" s="10" t="s">
+        <v>9602</v>
+      </c>
+      <c r="N875" s="10" t="s">
+        <v>9603</v>
+      </c>
+      <c r="O875" s="10" t="s">
+        <v>9604</v>
+      </c>
+      <c r="P875" s="10" t="s">
+        <v>9293</v>
+      </c>
+      <c r="Q875" s="10" t="s">
+        <v>9605</v>
+      </c>
+      <c r="R875" s="10" t="s">
+        <v>1600</v>
+      </c>
+      <c r="S875" s="10" t="s">
+        <v>9606</v>
+      </c>
+      <c r="T875" s="10" t="s">
+        <v>9607</v>
+      </c>
+      <c r="U875" s="8">
+        <v>0.4531</v>
+      </c>
+    </row>
+    <row r="876" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A876" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B876" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C876" s="11">
+        <v>44552.439583333333</v>
+      </c>
+      <c r="D876" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E876" s="10" t="s">
+        <v>8546</v>
+      </c>
+      <c r="F876" s="12">
+        <v>44638</v>
+      </c>
+      <c r="G876" s="10" t="s">
+        <v>7559</v>
+      </c>
+      <c r="H876" s="10" t="s">
+        <v>4357</v>
+      </c>
+      <c r="I876" s="10" t="s">
+        <v>9608</v>
+      </c>
+      <c r="J876" s="10" t="s">
+        <v>9609</v>
+      </c>
+      <c r="K876" s="10" t="s">
+        <v>9610</v>
+      </c>
+      <c r="L876" s="10" t="s">
+        <v>9611</v>
+      </c>
+      <c r="M876" s="10" t="s">
+        <v>6714</v>
+      </c>
+      <c r="N876" s="10" t="s">
+        <v>9612</v>
+      </c>
+      <c r="O876" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="P876" s="10" t="s">
+        <v>9613</v>
+      </c>
+      <c r="Q876" s="10" t="s">
+        <v>3119</v>
+      </c>
+      <c r="R876" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="S876" s="10" t="s">
+        <v>3628</v>
+      </c>
+      <c r="T876" s="10" t="s">
+        <v>5721</v>
+      </c>
+      <c r="U876" s="8">
+        <v>0.4219</v>
+      </c>
+    </row>
+    <row r="877" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A877" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B877" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C877" s="11">
+        <v>44552.441666666666</v>
+      </c>
+      <c r="D877" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E877" s="10" t="s">
+        <v>8558</v>
+      </c>
+      <c r="F877" s="12">
+        <v>44568</v>
+      </c>
+      <c r="G877" s="10" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H877" s="10" t="s">
+        <v>4543</v>
+      </c>
+      <c r="I877" s="10" t="s">
+        <v>9614</v>
+      </c>
+      <c r="J877" s="10" t="s">
+        <v>9615</v>
+      </c>
+      <c r="K877" s="10" t="s">
+        <v>9616</v>
+      </c>
+      <c r="L877" s="10" t="s">
+        <v>9617</v>
+      </c>
+      <c r="M877" s="10" t="s">
+        <v>9618</v>
+      </c>
+      <c r="N877" s="10" t="s">
+        <v>9619</v>
+      </c>
+      <c r="O877" s="10" t="s">
+        <v>3459</v>
+      </c>
+      <c r="P877" s="10" t="s">
+        <v>9620</v>
+      </c>
+      <c r="Q877" s="10" t="s">
+        <v>9621</v>
+      </c>
+      <c r="R877" s="10" t="s">
+        <v>1495</v>
+      </c>
+      <c r="S877" s="10" t="s">
+        <v>8403</v>
+      </c>
+      <c r="T877" s="10" t="s">
+        <v>4763</v>
+      </c>
+      <c r="U877" s="8">
+        <v>0.54690000000000005</v>
+      </c>
+    </row>
+    <row r="878" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A878" s="4" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B878" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C878" s="11">
+        <v>44552.443749999999</v>
+      </c>
+      <c r="D878" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E878" s="10" t="s">
+        <v>9622</v>
+      </c>
+      <c r="F878" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G878" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H878" s="10" t="s">
+        <v>4937</v>
+      </c>
+      <c r="I878" s="10" t="s">
+        <v>9623</v>
+      </c>
+      <c r="J878" s="10" t="s">
+        <v>8125</v>
+      </c>
+      <c r="K878" s="10" t="s">
+        <v>3302</v>
+      </c>
+      <c r="L878" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M878" s="10" t="s">
+        <v>9624</v>
+      </c>
+      <c r="N878" s="10" t="s">
+        <v>9625</v>
+      </c>
+      <c r="O878" s="10" t="s">
+        <v>2536</v>
+      </c>
+      <c r="P878" s="10" t="s">
+        <v>9626</v>
+      </c>
+      <c r="Q878" s="10" t="s">
+        <v>9627</v>
+      </c>
+      <c r="R878" s="10" t="s">
+        <v>9628</v>
+      </c>
+      <c r="S878" s="10" t="s">
+        <v>2110</v>
+      </c>
+      <c r="T878" s="10" t="s">
+        <v>4409</v>
+      </c>
+      <c r="U878" s="8">
+        <v>0.4844</v>
+      </c>
+    </row>
+    <row r="879" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A879" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B879" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C879" s="11">
+        <v>44552.449305555558</v>
+      </c>
+      <c r="D879" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E879" s="10" t="s">
+        <v>9629</v>
+      </c>
+      <c r="F879" s="12">
+        <v>44568</v>
+      </c>
+      <c r="G879" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="H879" s="10" t="s">
+        <v>9630</v>
+      </c>
+      <c r="I879" s="10" t="s">
+        <v>9631</v>
+      </c>
+      <c r="J879" s="10" t="s">
+        <v>9632</v>
+      </c>
+      <c r="K879" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="L879" s="10" t="s">
+        <v>9633</v>
+      </c>
+      <c r="M879" s="10" t="s">
+        <v>9634</v>
+      </c>
+      <c r="N879" s="10" t="s">
+        <v>9635</v>
+      </c>
+      <c r="O879" s="10" t="s">
+        <v>9636</v>
+      </c>
+      <c r="P879" s="10" t="s">
+        <v>9637</v>
+      </c>
+      <c r="Q879" s="10" t="s">
+        <v>9638</v>
+      </c>
+      <c r="R879" s="10" t="s">
+        <v>9639</v>
+      </c>
+      <c r="S879" s="10" t="s">
+        <v>2831</v>
+      </c>
+      <c r="T879" s="10" t="s">
+        <v>4439</v>
+      </c>
+      <c r="U879" s="8">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="880" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A880" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B880" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C880" s="11">
+        <v>44552.451388888891</v>
+      </c>
+      <c r="D880" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E880" s="10" t="s">
+        <v>3926</v>
+      </c>
+      <c r="F880" s="12">
+        <v>44757</v>
+      </c>
+      <c r="G880" s="10" t="s">
+        <v>9640</v>
+      </c>
+      <c r="H880" s="10" t="s">
+        <v>9641</v>
+      </c>
+      <c r="I880" s="10" t="s">
+        <v>9642</v>
+      </c>
+      <c r="J880" s="10" t="s">
+        <v>9643</v>
+      </c>
+      <c r="K880" s="10" t="s">
+        <v>9644</v>
+      </c>
+      <c r="L880" s="10" t="s">
+        <v>9645</v>
+      </c>
+      <c r="M880" s="10" t="s">
+        <v>9646</v>
+      </c>
+      <c r="N880" s="10" t="s">
+        <v>9647</v>
+      </c>
+      <c r="O880" s="10" t="s">
+        <v>9648</v>
+      </c>
+      <c r="P880" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="Q880" s="10" t="s">
+        <v>9649</v>
+      </c>
+      <c r="R880" s="10" t="s">
+        <v>9650</v>
+      </c>
+      <c r="S880" s="10" t="s">
+        <v>9651</v>
+      </c>
+      <c r="T880" s="10" t="s">
+        <v>9652</v>
+      </c>
+      <c r="U880" s="8">
+        <v>0.51559999999999995</v>
+      </c>
+    </row>
+    <row r="881" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A881" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B881" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C881" s="11">
+        <v>44552.45416666667</v>
+      </c>
+      <c r="D881" s="10" t="s">
+        <v>3848</v>
+      </c>
+      <c r="E881" s="10" t="s">
+        <v>9653</v>
+      </c>
+      <c r="F881" s="12">
+        <v>44553</v>
+      </c>
+      <c r="G881" s="10" t="s">
+        <v>8339</v>
+      </c>
+      <c r="H881" s="10" t="s">
+        <v>4805</v>
+      </c>
+      <c r="I881" s="10" t="s">
+        <v>9654</v>
+      </c>
+      <c r="J881" s="10" t="s">
+        <v>9655</v>
+      </c>
+      <c r="K881" s="10" t="s">
+        <v>9656</v>
+      </c>
+      <c r="L881" s="10" t="s">
+        <v>9657</v>
+      </c>
+      <c r="M881" s="10" t="s">
+        <v>9658</v>
+      </c>
+      <c r="N881" s="10" t="s">
+        <v>9659</v>
+      </c>
+      <c r="O881" s="10" t="s">
+        <v>9660</v>
+      </c>
+      <c r="P881" s="10" t="s">
+        <v>2923</v>
+      </c>
+      <c r="Q881" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="R881" s="10" t="s">
+        <v>9661</v>
+      </c>
+      <c r="S881" s="10" t="s">
+        <v>7197</v>
+      </c>
+      <c r="T881" s="10" t="s">
+        <v>4450</v>
+      </c>
+      <c r="U881" s="8">
+        <v>0.67190000000000005</v>
+      </c>
+    </row>
+    <row r="882" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A882" s="4" t="s">
+        <v>9662</v>
+      </c>
+      <c r="B882" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C882" s="11">
+        <v>44552.456250000003</v>
+      </c>
+      <c r="D882" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E882" s="10" t="s">
+        <v>9663</v>
+      </c>
+      <c r="F882" s="12">
+        <v>44610</v>
+      </c>
+      <c r="G882" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="H882" s="10" t="s">
+        <v>4489</v>
+      </c>
+      <c r="I882" s="10" t="s">
+        <v>9664</v>
+      </c>
+      <c r="J882" s="10" t="s">
+        <v>9665</v>
+      </c>
+      <c r="K882" s="10" t="s">
+        <v>9666</v>
+      </c>
+      <c r="L882" s="10" t="s">
+        <v>6988</v>
+      </c>
+      <c r="M882" s="10" t="s">
+        <v>9667</v>
+      </c>
+      <c r="N882" s="10" t="s">
+        <v>9668</v>
+      </c>
+      <c r="O882" s="10" t="s">
+        <v>9669</v>
+      </c>
+      <c r="P882" s="10" t="s">
+        <v>3772</v>
+      </c>
+      <c r="Q882" s="10" t="s">
+        <v>9670</v>
+      </c>
+      <c r="R882" s="10" t="s">
+        <v>3231</v>
+      </c>
+      <c r="S882" s="10" t="s">
+        <v>3270</v>
+      </c>
+      <c r="T882" s="10" t="s">
+        <v>5807</v>
+      </c>
+      <c r="U882" s="8">
+        <v>0.46879999999999999</v>
+      </c>
+    </row>
+    <row r="883" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A883" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B883" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C883" s="11">
+        <v>44552.461805555555</v>
+      </c>
+      <c r="D883" s="10" t="s">
+        <v>3834</v>
+      </c>
+      <c r="E883" s="10" t="s">
+        <v>4090</v>
+      </c>
+      <c r="F883" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G883" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H883" s="10" t="s">
+        <v>4605</v>
+      </c>
+      <c r="I883" s="10" t="s">
+        <v>9671</v>
+      </c>
+      <c r="J883" s="10" t="s">
+        <v>9270</v>
+      </c>
+      <c r="K883" s="10" t="s">
+        <v>9672</v>
+      </c>
+      <c r="L883" s="10" t="s">
+        <v>9673</v>
+      </c>
+      <c r="M883" s="10" t="s">
+        <v>9674</v>
+      </c>
+      <c r="N883" s="10" t="s">
+        <v>9675</v>
+      </c>
+      <c r="O883" s="10" t="s">
+        <v>9676</v>
+      </c>
+      <c r="P883" s="10" t="s">
+        <v>9677</v>
+      </c>
+      <c r="Q883" s="10" t="s">
+        <v>9678</v>
+      </c>
+      <c r="R883" s="10" t="s">
+        <v>9679</v>
+      </c>
+      <c r="S883" s="10" t="s">
+        <v>9680</v>
+      </c>
+      <c r="T883" s="10" t="s">
+        <v>5097</v>
+      </c>
+      <c r="U883" s="8">
+        <v>0.4219</v>
+      </c>
+    </row>
+    <row r="884" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A884" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="B884" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C884" s="11">
+        <v>44552.474305555559</v>
+      </c>
+      <c r="D884" s="10" t="s">
+        <v>3834</v>
+      </c>
+      <c r="E884" s="10" t="s">
+        <v>4164</v>
+      </c>
+      <c r="F884" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G884" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H884" s="10" t="s">
+        <v>9681</v>
+      </c>
+      <c r="I884" s="10" t="s">
+        <v>9682</v>
+      </c>
+      <c r="J884" s="10" t="s">
+        <v>9683</v>
+      </c>
+      <c r="K884" s="10" t="s">
+        <v>9684</v>
+      </c>
+      <c r="L884" s="10" t="s">
+        <v>9048</v>
+      </c>
+      <c r="M884" s="10" t="s">
+        <v>9685</v>
+      </c>
+      <c r="N884" s="10" t="s">
+        <v>9686</v>
+      </c>
+      <c r="O884" s="10" t="s">
+        <v>9687</v>
+      </c>
+      <c r="P884" s="10" t="s">
+        <v>9688</v>
+      </c>
+      <c r="Q884" s="10" t="s">
+        <v>9689</v>
+      </c>
+      <c r="R884" s="10" t="s">
+        <v>9690</v>
+      </c>
+      <c r="S884" s="10" t="s">
+        <v>9691</v>
+      </c>
+      <c r="T884" s="10" t="s">
+        <v>9692</v>
+      </c>
+      <c r="U884" s="8">
+        <v>0.54690000000000005</v>
+      </c>
+    </row>
+    <row r="885" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A885" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B885" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C885" s="11">
+        <v>44552.474305555559</v>
+      </c>
+      <c r="D885" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E885" s="10" t="s">
+        <v>9693</v>
+      </c>
+      <c r="F885" s="12">
+        <v>44589</v>
+      </c>
+      <c r="G885" s="10" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H885" s="10" t="s">
+        <v>9694</v>
+      </c>
+      <c r="I885" s="10" t="s">
+        <v>9695</v>
+      </c>
+      <c r="J885" s="10" t="s">
+        <v>9696</v>
+      </c>
+      <c r="K885" s="10" t="s">
+        <v>9697</v>
+      </c>
+      <c r="L885" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="M885" s="10" t="s">
+        <v>9698</v>
+      </c>
+      <c r="N885" s="10" t="s">
+        <v>9699</v>
+      </c>
+      <c r="O885" s="10" t="s">
+        <v>9700</v>
+      </c>
+      <c r="P885" s="10" t="s">
+        <v>9701</v>
+      </c>
+      <c r="Q885" s="10" t="s">
+        <v>9702</v>
+      </c>
+      <c r="R885" s="10" t="s">
+        <v>3008</v>
+      </c>
+      <c r="S885" s="10" t="s">
+        <v>9703</v>
+      </c>
+      <c r="T885" s="10" t="s">
+        <v>4303</v>
+      </c>
+      <c r="U885" s="8">
+        <v>0.4219</v>
+      </c>
+    </row>
+    <row r="886" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A886" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="B886" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C886" s="11">
+        <v>44552.476388888892</v>
+      </c>
+      <c r="D886" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E886" s="10" t="s">
+        <v>9704</v>
+      </c>
+      <c r="F886" s="12">
+        <v>44553</v>
+      </c>
+      <c r="G886" s="10" t="s">
+        <v>934</v>
+      </c>
+      <c r="H886" s="10" t="s">
+        <v>9705</v>
+      </c>
+      <c r="I886" s="10" t="s">
+        <v>9706</v>
+      </c>
+      <c r="J886" s="10" t="s">
+        <v>9707</v>
+      </c>
+      <c r="K886" s="10" t="s">
+        <v>9708</v>
+      </c>
+      <c r="L886" s="10" t="s">
+        <v>9709</v>
+      </c>
+      <c r="M886" s="10" t="s">
+        <v>9710</v>
+      </c>
+      <c r="N886" s="10" t="s">
+        <v>8498</v>
+      </c>
+      <c r="O886" s="10" t="s">
+        <v>9711</v>
+      </c>
+      <c r="P886" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q886" s="10" t="s">
+        <v>9712</v>
+      </c>
+      <c r="R886" s="10" t="s">
+        <v>9713</v>
+      </c>
+      <c r="S886" s="10" t="s">
+        <v>1439</v>
+      </c>
+      <c r="T886" s="10" t="s">
+        <v>9714</v>
+      </c>
+      <c r="U886" s="8">
+        <v>0.40620000000000001</v>
+      </c>
+    </row>
+    <row r="887" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A887" s="4" t="s">
+        <v>9715</v>
+      </c>
+      <c r="B887" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C887" s="11">
+        <v>44552.486805555556</v>
+      </c>
+      <c r="D887" s="10" t="s">
+        <v>3833</v>
+      </c>
+      <c r="E887" s="10" t="s">
+        <v>8705</v>
+      </c>
+      <c r="F887" s="12">
+        <v>44792</v>
+      </c>
+      <c r="G887" s="10" t="s">
+        <v>9716</v>
+      </c>
+      <c r="H887" s="10" t="s">
+        <v>9717</v>
+      </c>
+      <c r="I887" s="10" t="s">
+        <v>9718</v>
+      </c>
+      <c r="J887" s="10" t="s">
+        <v>9719</v>
+      </c>
+      <c r="K887" s="10" t="s">
+        <v>9720</v>
+      </c>
+      <c r="L887" s="10" t="s">
+        <v>9721</v>
+      </c>
+      <c r="M887" s="10" t="s">
+        <v>9722</v>
+      </c>
+      <c r="N887" s="10" t="s">
+        <v>9723</v>
+      </c>
+      <c r="O887" s="10" t="s">
+        <v>9724</v>
+      </c>
+      <c r="P887" s="10" t="s">
+        <v>9725</v>
+      </c>
+      <c r="Q887" s="10" t="s">
+        <v>9726</v>
+      </c>
+      <c r="R887" s="10" t="s">
+        <v>9727</v>
+      </c>
+      <c r="S887" s="10" t="s">
+        <v>9728</v>
+      </c>
+      <c r="T887" s="10" t="s">
+        <v>9729</v>
+      </c>
+      <c r="U887" s="8">
+        <v>0.34379999999999999</v>
+      </c>
+    </row>
+    <row r="888" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A888" s="4" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B888" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C888" s="11">
+        <v>44552.488888888889</v>
+      </c>
+      <c r="D888" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E888" s="10" t="s">
+        <v>3881</v>
+      </c>
+      <c r="F888" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G888" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H888" s="10" t="s">
+        <v>4811</v>
+      </c>
+      <c r="I888" s="10" t="s">
+        <v>9730</v>
+      </c>
+      <c r="J888" s="10" t="s">
+        <v>9731</v>
+      </c>
+      <c r="K888" s="10" t="s">
+        <v>9732</v>
+      </c>
+      <c r="L888" s="10" t="s">
+        <v>9733</v>
+      </c>
+      <c r="M888" s="10" t="s">
+        <v>9734</v>
+      </c>
+      <c r="N888" s="10" t="s">
+        <v>9735</v>
+      </c>
+      <c r="O888" s="10" t="s">
+        <v>9736</v>
+      </c>
+      <c r="P888" s="10" t="s">
+        <v>1593</v>
+      </c>
+      <c r="Q888" s="10" t="s">
+        <v>3198</v>
+      </c>
+      <c r="R888" s="10" t="s">
+        <v>9737</v>
+      </c>
+      <c r="S888" s="10" t="s">
+        <v>8338</v>
+      </c>
+      <c r="T888" s="10" t="s">
+        <v>9738</v>
+      </c>
+      <c r="U888" s="8">
+        <v>0.4531</v>
+      </c>
+    </row>
+    <row r="889" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A889" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="B889" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C889" s="11">
+        <v>44552.490972222222</v>
+      </c>
+      <c r="D889" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E889" s="10" t="s">
+        <v>9739</v>
+      </c>
+      <c r="F889" s="12">
+        <v>44638</v>
+      </c>
+      <c r="G889" s="10" t="s">
+        <v>2617</v>
+      </c>
+      <c r="H889" s="10" t="s">
+        <v>4823</v>
+      </c>
+      <c r="I889" s="10" t="s">
+        <v>9740</v>
+      </c>
+      <c r="J889" s="10" t="s">
+        <v>9741</v>
+      </c>
+      <c r="K889" s="10" t="s">
+        <v>9742</v>
+      </c>
+      <c r="L889" s="10" t="s">
+        <v>1225</v>
+      </c>
+      <c r="M889" s="10" t="s">
+        <v>9743</v>
+      </c>
+      <c r="N889" s="10" t="s">
+        <v>9744</v>
+      </c>
+      <c r="O889" s="10" t="s">
+        <v>9745</v>
+      </c>
+      <c r="P889" s="10" t="s">
+        <v>9746</v>
+      </c>
+      <c r="Q889" s="10" t="s">
+        <v>1278</v>
+      </c>
+      <c r="R889" s="10" t="s">
+        <v>9747</v>
+      </c>
+      <c r="S889" s="10" t="s">
+        <v>2648</v>
+      </c>
+      <c r="T889" s="10" t="s">
+        <v>4429</v>
+      </c>
+      <c r="U889" s="8">
+        <v>0.40620000000000001</v>
+      </c>
+    </row>
+    <row r="890" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A890" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B890" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C890" s="11">
+        <v>44552.493750000001</v>
+      </c>
+      <c r="D890" s="10" t="s">
+        <v>3848</v>
+      </c>
+      <c r="E890" s="10" t="s">
+        <v>4114</v>
+      </c>
+      <c r="F890" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G890" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="H890" s="10" t="s">
+        <v>9748</v>
+      </c>
+      <c r="I890" s="10" t="s">
+        <v>9749</v>
+      </c>
+      <c r="J890" s="10" t="s">
+        <v>9750</v>
+      </c>
+      <c r="K890" s="10" t="s">
+        <v>9751</v>
+      </c>
+      <c r="L890" s="10" t="s">
+        <v>3053</v>
+      </c>
+      <c r="M890" s="10" t="s">
+        <v>9752</v>
+      </c>
+      <c r="N890" s="10" t="s">
+        <v>9753</v>
+      </c>
+      <c r="O890" s="10" t="s">
+        <v>9754</v>
+      </c>
+      <c r="P890" s="10" t="s">
+        <v>9755</v>
+      </c>
+      <c r="Q890" s="10" t="s">
+        <v>9756</v>
+      </c>
+      <c r="R890" s="10" t="s">
+        <v>9757</v>
+      </c>
+      <c r="S890" s="10" t="s">
+        <v>2958</v>
+      </c>
+      <c r="T890" s="10" t="s">
+        <v>4551</v>
+      </c>
+      <c r="U890" s="8">
+        <v>0.4844</v>
+      </c>
+    </row>
+    <row r="891" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A891" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B891" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C891" s="11">
+        <v>44552.5</v>
+      </c>
+      <c r="D891" s="10" t="s">
+        <v>3834</v>
+      </c>
+      <c r="E891" s="10" t="s">
+        <v>3987</v>
+      </c>
+      <c r="F891" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G891" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H891" s="10" t="s">
+        <v>9758</v>
+      </c>
+      <c r="I891" s="10" t="s">
+        <v>9759</v>
+      </c>
+      <c r="J891" s="10" t="s">
+        <v>9760</v>
+      </c>
+      <c r="K891" s="10" t="s">
+        <v>9761</v>
+      </c>
+      <c r="L891" s="10" t="s">
+        <v>9762</v>
+      </c>
+      <c r="M891" s="10" t="s">
+        <v>9763</v>
+      </c>
+      <c r="N891" s="10" t="s">
+        <v>9764</v>
+      </c>
+      <c r="O891" s="10" t="s">
+        <v>9765</v>
+      </c>
+      <c r="P891" s="10" t="s">
+        <v>1209</v>
+      </c>
+      <c r="Q891" s="10" t="s">
+        <v>9766</v>
+      </c>
+      <c r="R891" s="10" t="s">
+        <v>1309</v>
+      </c>
+      <c r="S891" s="10" t="s">
+        <v>9767</v>
+      </c>
+      <c r="T891" s="10" t="s">
+        <v>9768</v>
+      </c>
+      <c r="U891" s="8">
+        <v>0.59379999999999999</v>
+      </c>
+    </row>
+    <row r="892" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A892" s="4" t="s">
+        <v>7416</v>
+      </c>
+      <c r="B892" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C892" s="11">
+        <v>44552.502083333333</v>
+      </c>
+      <c r="D892" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E892" s="10" t="s">
+        <v>9769</v>
+      </c>
+      <c r="F892" s="12">
+        <v>44553</v>
+      </c>
+      <c r="G892" s="10" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H892" s="10" t="s">
+        <v>5354</v>
+      </c>
+      <c r="I892" s="10" t="s">
+        <v>9770</v>
+      </c>
+      <c r="J892" s="10" t="s">
+        <v>9771</v>
+      </c>
+      <c r="K892" s="10" t="s">
+        <v>9772</v>
+      </c>
+      <c r="L892" s="10" t="s">
+        <v>9773</v>
+      </c>
+      <c r="M892" s="10" t="s">
+        <v>9774</v>
+      </c>
+      <c r="N892" s="10" t="s">
+        <v>9775</v>
+      </c>
+      <c r="O892" s="10" t="s">
+        <v>3480</v>
+      </c>
+      <c r="P892" s="10" t="s">
+        <v>7106</v>
+      </c>
+      <c r="Q892" s="10" t="s">
+        <v>9776</v>
+      </c>
+      <c r="R892" s="10" t="s">
+        <v>9777</v>
+      </c>
+      <c r="S892" s="10" t="s">
+        <v>3748</v>
+      </c>
+      <c r="T892" s="10" t="s">
+        <v>4690</v>
+      </c>
+      <c r="U892" s="8">
+        <v>0.3906</v>
+      </c>
+    </row>
+    <row r="893" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A893" s="4" t="s">
+        <v>7010</v>
+      </c>
+      <c r="B893" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C893" s="11">
+        <v>44552.504861111112</v>
+      </c>
+      <c r="D893" s="10" t="s">
+        <v>3848</v>
+      </c>
+      <c r="E893" s="10" t="s">
+        <v>9778</v>
+      </c>
+      <c r="F893" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G893" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H893" s="10" t="s">
+        <v>9779</v>
+      </c>
+      <c r="I893" s="10" t="s">
+        <v>9780</v>
+      </c>
+      <c r="J893" s="10" t="s">
+        <v>9781</v>
+      </c>
+      <c r="K893" s="10" t="s">
+        <v>9782</v>
+      </c>
+      <c r="L893" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="M893" s="10" t="s">
+        <v>9783</v>
+      </c>
+      <c r="N893" s="10" t="s">
+        <v>9784</v>
+      </c>
+      <c r="O893" s="10" t="s">
+        <v>9785</v>
+      </c>
+      <c r="P893" s="10" t="s">
+        <v>6899</v>
+      </c>
+      <c r="Q893" s="10" t="s">
+        <v>9786</v>
+      </c>
+      <c r="R893" s="10" t="s">
+        <v>9787</v>
+      </c>
+      <c r="S893" s="10" t="s">
+        <v>1563</v>
+      </c>
+      <c r="T893" s="10" t="s">
+        <v>9788</v>
+      </c>
+      <c r="U893" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="894" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A894" s="4" t="s">
+        <v>8891</v>
+      </c>
+      <c r="B894" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C894" s="11">
+        <v>44552.512499999997</v>
+      </c>
+      <c r="D894" s="10" t="s">
+        <v>3833</v>
+      </c>
+      <c r="E894" s="10" t="s">
+        <v>9789</v>
+      </c>
+      <c r="F894" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G894" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H894" s="10" t="s">
+        <v>4289</v>
+      </c>
+      <c r="I894" s="10" t="s">
+        <v>9790</v>
+      </c>
+      <c r="J894" s="10" t="s">
+        <v>9791</v>
+      </c>
+      <c r="K894" s="10" t="s">
+        <v>9792</v>
+      </c>
+      <c r="L894" s="10" t="s">
+        <v>1869</v>
+      </c>
+      <c r="M894" s="10" t="s">
+        <v>9793</v>
+      </c>
+      <c r="N894" s="10" t="s">
+        <v>9794</v>
+      </c>
+      <c r="O894" s="10" t="s">
+        <v>9795</v>
+      </c>
+      <c r="P894" s="10" t="s">
+        <v>9796</v>
+      </c>
+      <c r="Q894" s="10" t="s">
+        <v>1174</v>
+      </c>
+      <c r="R894" s="10" t="s">
+        <v>9797</v>
+      </c>
+      <c r="S894" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="T894" s="10" t="s">
+        <v>4959</v>
+      </c>
+      <c r="U894" s="8">
+        <v>0.40620000000000001</v>
+      </c>
+    </row>
+    <row r="895" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A895" s="4" t="s">
+        <v>9798</v>
+      </c>
+      <c r="B895" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C895" s="11">
+        <v>44552.512499999997</v>
+      </c>
+      <c r="D895" s="10" t="s">
+        <v>3847</v>
+      </c>
+      <c r="E895" s="10" t="s">
+        <v>9799</v>
+      </c>
+      <c r="F895" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G895" s="10" t="s">
+        <v>2280</v>
+      </c>
+      <c r="H895" s="10" t="s">
+        <v>6952</v>
+      </c>
+      <c r="I895" s="10" t="s">
+        <v>9800</v>
+      </c>
+      <c r="J895" s="10" t="s">
+        <v>9801</v>
+      </c>
+      <c r="K895" s="10" t="s">
+        <v>9802</v>
+      </c>
+      <c r="L895" s="10" t="s">
+        <v>9803</v>
+      </c>
+      <c r="M895" s="10" t="s">
+        <v>9804</v>
+      </c>
+      <c r="N895" s="10" t="s">
+        <v>9805</v>
+      </c>
+      <c r="O895" s="10" t="s">
+        <v>9806</v>
+      </c>
+      <c r="P895" s="10" t="s">
+        <v>9807</v>
+      </c>
+      <c r="Q895" s="10" t="s">
+        <v>9808</v>
+      </c>
+      <c r="R895" s="10" t="s">
+        <v>9809</v>
+      </c>
+      <c r="S895" s="10" t="s">
+        <v>9810</v>
+      </c>
+      <c r="T895" s="10" t="s">
+        <v>9811</v>
+      </c>
+      <c r="U895" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A896" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B896" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C896" s="11">
+        <v>44552.524305555555</v>
+      </c>
+      <c r="D896" s="10" t="s">
+        <v>3834</v>
+      </c>
+      <c r="E896" s="10" t="s">
+        <v>9812</v>
+      </c>
+      <c r="F896" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G896" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="H896" s="10" t="s">
+        <v>9813</v>
+      </c>
+      <c r="I896" s="10" t="s">
+        <v>9814</v>
+      </c>
+      <c r="J896" s="10" t="s">
+        <v>9815</v>
+      </c>
+      <c r="K896" s="10" t="s">
+        <v>9816</v>
+      </c>
+      <c r="L896" s="10" t="s">
+        <v>9817</v>
+      </c>
+      <c r="M896" s="10" t="s">
+        <v>9818</v>
+      </c>
+      <c r="N896" s="10" t="s">
+        <v>9819</v>
+      </c>
+      <c r="O896" s="10" t="s">
+        <v>1459</v>
+      </c>
+      <c r="P896" s="10" t="s">
+        <v>3477</v>
+      </c>
+      <c r="Q896" s="10" t="s">
+        <v>2218</v>
+      </c>
+      <c r="R896" s="10" t="s">
+        <v>9820</v>
+      </c>
+      <c r="S896" s="10" t="s">
+        <v>8482</v>
+      </c>
+      <c r="T896" s="10" t="s">
+        <v>4675</v>
+      </c>
+      <c r="U896" s="8">
+        <v>0.51559999999999995</v>
+      </c>
+    </row>
+    <row r="897" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A897" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B897" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C897" s="11">
+        <v>44552.524305555555</v>
+      </c>
+      <c r="D897" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E897" s="10" t="s">
+        <v>4231</v>
+      </c>
+      <c r="F897" s="12">
+        <v>44568</v>
+      </c>
+      <c r="G897" s="10" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H897" s="10" t="s">
+        <v>9821</v>
+      </c>
+      <c r="I897" s="10" t="s">
+        <v>9822</v>
+      </c>
+      <c r="J897" s="10" t="s">
+        <v>9823</v>
+      </c>
+      <c r="K897" s="10" t="s">
+        <v>9824</v>
+      </c>
+      <c r="L897" s="10" t="s">
+        <v>9825</v>
+      </c>
+      <c r="M897" s="10" t="s">
+        <v>9826</v>
+      </c>
+      <c r="N897" s="10" t="s">
+        <v>9827</v>
+      </c>
+      <c r="O897" s="10" t="s">
+        <v>9828</v>
+      </c>
+      <c r="P897" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q897" s="10" t="s">
+        <v>8626</v>
+      </c>
+      <c r="R897" s="10" t="s">
+        <v>9829</v>
+      </c>
+      <c r="S897" s="10" t="s">
+        <v>9830</v>
+      </c>
+      <c r="T897" s="10" t="s">
+        <v>8233</v>
+      </c>
+      <c r="U897" s="8">
+        <v>0.40620000000000001</v>
+      </c>
+    </row>
+    <row r="898" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A898" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B898" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C898" s="11">
+        <v>44552.527083333334</v>
+      </c>
+      <c r="D898" s="10" t="s">
+        <v>3833</v>
+      </c>
+      <c r="E898" s="10" t="s">
+        <v>9831</v>
+      </c>
+      <c r="F898" s="12">
+        <v>44701</v>
+      </c>
+      <c r="G898" s="10" t="s">
+        <v>9832</v>
+      </c>
+      <c r="H898" s="10" t="s">
+        <v>4800</v>
+      </c>
+      <c r="I898" s="10" t="s">
+        <v>9833</v>
+      </c>
+      <c r="J898" s="10" t="s">
+        <v>9834</v>
+      </c>
+      <c r="K898" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="L898" s="10" t="s">
+        <v>7155</v>
+      </c>
+      <c r="M898" s="10" t="s">
+        <v>9835</v>
+      </c>
+      <c r="N898" s="10" t="s">
+        <v>9457</v>
+      </c>
+      <c r="O898" s="10" t="s">
+        <v>9836</v>
+      </c>
+      <c r="P898" s="10" t="s">
+        <v>8635</v>
+      </c>
+      <c r="Q898" s="10" t="s">
+        <v>9837</v>
+      </c>
+      <c r="R898" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="S898" s="10" t="s">
+        <v>8758</v>
+      </c>
+      <c r="T898" s="10" t="s">
+        <v>9838</v>
+      </c>
+      <c r="U898" s="8">
+        <v>0.3906</v>
+      </c>
+    </row>
+    <row r="899" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A899" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B899" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C899" s="11">
+        <v>44552.536805555559</v>
+      </c>
+      <c r="D899" s="10" t="s">
+        <v>3834</v>
+      </c>
+      <c r="E899" s="10" t="s">
+        <v>9839</v>
+      </c>
+      <c r="F899" s="12">
+        <v>44729</v>
+      </c>
+      <c r="G899" s="10" t="s">
+        <v>9840</v>
+      </c>
+      <c r="H899" s="10" t="s">
+        <v>4435</v>
+      </c>
+      <c r="I899" s="10" t="s">
+        <v>9841</v>
+      </c>
+      <c r="J899" s="10" t="s">
+        <v>9842</v>
+      </c>
+      <c r="K899" s="10" t="s">
+        <v>9843</v>
+      </c>
+      <c r="L899" s="10" t="s">
+        <v>9844</v>
+      </c>
+      <c r="M899" s="10" t="s">
+        <v>9845</v>
+      </c>
+      <c r="N899" s="10" t="s">
+        <v>9846</v>
+      </c>
+      <c r="O899" s="10" t="s">
+        <v>9847</v>
+      </c>
+      <c r="P899" s="10" t="s">
+        <v>9848</v>
+      </c>
+      <c r="Q899" s="10" t="s">
+        <v>9849</v>
+      </c>
+      <c r="R899" s="10" t="s">
+        <v>9850</v>
+      </c>
+      <c r="S899" s="10" t="s">
+        <v>9851</v>
+      </c>
+      <c r="T899" s="10" t="s">
+        <v>9852</v>
+      </c>
+      <c r="U899" s="8">
+        <v>0.60940000000000005</v>
+      </c>
+    </row>
+    <row r="900" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A900" s="4" t="s">
+        <v>9276</v>
+      </c>
+      <c r="B900" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C900" s="11">
+        <v>44552.537499999999</v>
+      </c>
+      <c r="D900" s="10" t="s">
+        <v>3848</v>
+      </c>
+      <c r="E900" s="10" t="s">
+        <v>9853</v>
+      </c>
+      <c r="F900" s="12">
+        <v>44757</v>
+      </c>
+      <c r="G900" s="10" t="s">
+        <v>9640</v>
+      </c>
+      <c r="H900" s="10" t="s">
+        <v>9278</v>
+      </c>
+      <c r="I900" s="10" t="s">
+        <v>9854</v>
+      </c>
+      <c r="J900" s="10" t="s">
+        <v>9855</v>
+      </c>
+      <c r="K900" s="10" t="s">
+        <v>9856</v>
+      </c>
+      <c r="L900" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="M900" s="10" t="s">
+        <v>9857</v>
+      </c>
+      <c r="N900" s="10" t="s">
+        <v>9858</v>
+      </c>
+      <c r="O900" s="10" t="s">
+        <v>9859</v>
+      </c>
+      <c r="P900" s="10" t="s">
+        <v>9860</v>
+      </c>
+      <c r="Q900" s="10" t="s">
+        <v>9861</v>
+      </c>
+      <c r="R900" s="10" t="s">
+        <v>9862</v>
+      </c>
+      <c r="S900" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="T900" s="10" t="s">
+        <v>9863</v>
+      </c>
+      <c r="U900" s="8">
+        <v>0.54690000000000005</v>
+      </c>
+    </row>
+    <row r="901" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A901" s="4" t="s">
+        <v>7696</v>
+      </c>
+      <c r="B901" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C901" s="11">
+        <v>44552.539583333331</v>
+      </c>
+      <c r="D901" s="10" t="s">
+        <v>3847</v>
+      </c>
+      <c r="E901" s="10" t="s">
+        <v>4054</v>
+      </c>
+      <c r="F901" s="12">
+        <v>44553</v>
+      </c>
+      <c r="G901" s="10" t="s">
+        <v>9864</v>
+      </c>
+      <c r="H901" s="10" t="s">
+        <v>7785</v>
+      </c>
+      <c r="I901" s="10" t="s">
+        <v>9865</v>
+      </c>
+      <c r="J901" s="10" t="s">
+        <v>9866</v>
+      </c>
+      <c r="K901" s="10" t="s">
+        <v>9867</v>
+      </c>
+      <c r="L901" s="10" t="s">
+        <v>9868</v>
+      </c>
+      <c r="M901" s="10" t="s">
+        <v>9869</v>
+      </c>
+      <c r="N901" s="10" t="s">
+        <v>9870</v>
+      </c>
+      <c r="O901" s="10" t="s">
+        <v>9871</v>
+      </c>
+      <c r="P901" s="10" t="s">
+        <v>9872</v>
+      </c>
+      <c r="Q901" s="10" t="s">
+        <v>9873</v>
+      </c>
+      <c r="R901" s="10" t="s">
+        <v>9874</v>
+      </c>
+      <c r="S901" s="10" t="s">
+        <v>9127</v>
+      </c>
+      <c r="T901" s="10" t="s">
+        <v>6071</v>
+      </c>
+      <c r="U901" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A902" s="4" t="s">
+        <v>9875</v>
+      </c>
+      <c r="B902" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C902" s="11">
+        <v>44552.541666666664</v>
+      </c>
+      <c r="D902" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E902" s="10" t="s">
+        <v>3871</v>
+      </c>
+      <c r="F902" s="12">
+        <v>44757</v>
+      </c>
+      <c r="G902" s="10" t="s">
+        <v>9556</v>
+      </c>
+      <c r="H902" s="10" t="s">
+        <v>8279</v>
+      </c>
+      <c r="I902" s="10" t="s">
+        <v>9876</v>
+      </c>
+      <c r="J902" s="10" t="s">
+        <v>9877</v>
+      </c>
+      <c r="K902" s="10" t="s">
+        <v>9878</v>
+      </c>
+      <c r="L902" s="10" t="s">
+        <v>9879</v>
+      </c>
+      <c r="M902" s="10" t="s">
+        <v>9880</v>
+      </c>
+      <c r="N902" s="10" t="s">
+        <v>9881</v>
+      </c>
+      <c r="O902" s="10" t="s">
+        <v>9882</v>
+      </c>
+      <c r="P902" s="10" t="s">
+        <v>9883</v>
+      </c>
+      <c r="Q902" s="10" t="s">
+        <v>9884</v>
+      </c>
+      <c r="R902" s="10" t="s">
+        <v>9885</v>
+      </c>
+      <c r="S902" s="10" t="s">
+        <v>9886</v>
+      </c>
+      <c r="T902" s="10" t="s">
+        <v>9887</v>
+      </c>
+      <c r="U902" s="8">
+        <v>0.4844</v>
+      </c>
+    </row>
+    <row r="903" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A903" s="4" t="s">
+        <v>9888</v>
+      </c>
+      <c r="B903" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C903" s="11">
+        <v>44552.549305555556</v>
+      </c>
+      <c r="D903" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E903" s="10" t="s">
+        <v>7395</v>
+      </c>
+      <c r="F903" s="12">
+        <v>44568</v>
+      </c>
+      <c r="G903" s="10" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H903" s="10" t="s">
+        <v>4783</v>
+      </c>
+      <c r="I903" s="10" t="s">
+        <v>9889</v>
+      </c>
+      <c r="J903" s="10" t="s">
+        <v>9890</v>
+      </c>
+      <c r="K903" s="10" t="s">
+        <v>9891</v>
+      </c>
+      <c r="L903" s="10" t="s">
+        <v>9892</v>
+      </c>
+      <c r="M903" s="10" t="s">
+        <v>9893</v>
+      </c>
+      <c r="N903" s="10" t="s">
+        <v>9894</v>
+      </c>
+      <c r="O903" s="10" t="s">
+        <v>9895</v>
+      </c>
+      <c r="P903" s="10" t="s">
+        <v>9896</v>
+      </c>
+      <c r="Q903" s="10" t="s">
+        <v>9897</v>
+      </c>
+      <c r="R903" s="10" t="s">
+        <v>9898</v>
+      </c>
+      <c r="S903" s="10" t="s">
+        <v>9899</v>
+      </c>
+      <c r="T903" s="10" t="s">
+        <v>9229</v>
+      </c>
+      <c r="U903" s="8">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="904" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A904" s="4" t="s">
+        <v>9900</v>
+      </c>
+      <c r="B904" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C904" s="11">
+        <v>44552.550694444442</v>
+      </c>
+      <c r="D904" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E904" s="10" t="s">
+        <v>9901</v>
+      </c>
+      <c r="F904" s="12">
+        <v>44638</v>
+      </c>
+      <c r="G904" s="10" t="s">
+        <v>2617</v>
+      </c>
+      <c r="H904" s="10" t="s">
+        <v>9902</v>
+      </c>
+      <c r="I904" s="10" t="s">
+        <v>9903</v>
+      </c>
+      <c r="J904" s="10" t="s">
+        <v>9904</v>
+      </c>
+      <c r="K904" s="10" t="s">
+        <v>9905</v>
+      </c>
+      <c r="L904" s="10" t="s">
+        <v>9906</v>
+      </c>
+      <c r="M904" s="10" t="s">
+        <v>9907</v>
+      </c>
+      <c r="N904" s="10" t="s">
+        <v>9489</v>
+      </c>
+      <c r="O904" s="10" t="s">
+        <v>9908</v>
+      </c>
+      <c r="P904" s="10" t="s">
+        <v>9909</v>
+      </c>
+      <c r="Q904" s="10" t="s">
+        <v>9910</v>
+      </c>
+      <c r="R904" s="10" t="s">
+        <v>9911</v>
+      </c>
+      <c r="S904" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="T904" s="10" t="s">
+        <v>9912</v>
+      </c>
+      <c r="U904" s="8">
+        <v>0.51559999999999995</v>
+      </c>
+    </row>
+    <row r="905" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A905" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B905" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C905" s="11">
+        <v>44552.568055555559</v>
+      </c>
+      <c r="D905" s="10" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E905" s="10" t="s">
+        <v>3914</v>
+      </c>
+      <c r="F905" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G905" s="10" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H905" s="10" t="s">
+        <v>8088</v>
+      </c>
+      <c r="I905" s="10" t="s">
+        <v>9913</v>
+      </c>
+      <c r="J905" s="10" t="s">
+        <v>9914</v>
+      </c>
+      <c r="K905" s="10" t="s">
+        <v>9915</v>
+      </c>
+      <c r="L905" s="10" t="s">
+        <v>9916</v>
+      </c>
+      <c r="M905" s="10" t="s">
+        <v>9917</v>
+      </c>
+      <c r="N905" s="10" t="s">
+        <v>9918</v>
+      </c>
+      <c r="O905" s="10" t="s">
+        <v>9919</v>
+      </c>
+      <c r="P905" s="10" t="s">
+        <v>9920</v>
+      </c>
+      <c r="Q905" s="10" t="s">
+        <v>9921</v>
+      </c>
+      <c r="R905" s="10" t="s">
+        <v>9922</v>
+      </c>
+      <c r="S905" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="T905" s="10" t="s">
+        <v>9923</v>
+      </c>
+      <c r="U905" s="8">
+        <v>0.625</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A854:U854"/>
     <mergeCell ref="A806:U806"/>
     <mergeCell ref="A753:U753"/>
     <mergeCell ref="A636:U636"/>
@@ -84077,140 +89108,157 @@
     <mergeCell ref="A592:U592"/>
     <mergeCell ref="A614:U614"/>
   </mergeCells>
-  <conditionalFormatting sqref="D1:T1 D546:T568 D3:T543 D571:T590 D593:T612 D615:T634 D637:T751 D754:T804 D807:T1048576">
-    <cfRule type="expression" dxfId="39" priority="36">
+  <conditionalFormatting sqref="D1:T1 D546:T568 D3:T543 D571:T590 D593:T612 D615:T634 D637:T751 D754:T804 D807:T852 D855:T1048576">
+    <cfRule type="expression" dxfId="44" priority="41">
       <formula>ISNUMBER(SEARCH("NEW", D1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="37">
+    <cfRule type="expression" dxfId="43" priority="42">
       <formula>ISNUMBER(SEARCH("BEST", D1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="42" priority="43">
       <formula>ISNUMBER(SEARCH("GOOD", D1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="39">
+    <cfRule type="expression" dxfId="41" priority="44">
       <formula>ISNUMBER(SEARCH("OK", D1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="40">
+    <cfRule type="expression" dxfId="40" priority="45">
       <formula>ISNUMBER(SEARCH("BAD", D1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D544:T544">
-    <cfRule type="expression" dxfId="34" priority="31">
+    <cfRule type="expression" dxfId="39" priority="36">
       <formula>ISNUMBER(SEARCH("NEW", D544))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="32">
+    <cfRule type="expression" dxfId="38" priority="37">
       <formula>ISNUMBER(SEARCH("BEST", D544))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="37" priority="38">
       <formula>ISNUMBER(SEARCH("GOOD", D544))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="34">
+    <cfRule type="expression" dxfId="36" priority="39">
       <formula>ISNUMBER(SEARCH("OK", D544))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="35">
+    <cfRule type="expression" dxfId="35" priority="40">
       <formula>ISNUMBER(SEARCH("BAD", D544))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D569:T569">
-    <cfRule type="expression" dxfId="29" priority="26">
+    <cfRule type="expression" dxfId="34" priority="31">
       <formula>ISNUMBER(SEARCH("NEW", D569))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="27">
+    <cfRule type="expression" dxfId="33" priority="32">
       <formula>ISNUMBER(SEARCH("BEST", D569))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>ISNUMBER(SEARCH("GOOD", D569))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="29">
+    <cfRule type="expression" dxfId="31" priority="34">
       <formula>ISNUMBER(SEARCH("OK", D569))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="30">
+    <cfRule type="expression" dxfId="30" priority="35">
       <formula>ISNUMBER(SEARCH("BAD", D569))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D591:T591">
-    <cfRule type="expression" dxfId="24" priority="21">
+    <cfRule type="expression" dxfId="29" priority="26">
       <formula>ISNUMBER(SEARCH("NEW", D591))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="28" priority="27">
       <formula>ISNUMBER(SEARCH("BEST", D591))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>ISNUMBER(SEARCH("GOOD", D591))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="26" priority="29">
       <formula>ISNUMBER(SEARCH("OK", D591))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="25">
+    <cfRule type="expression" dxfId="25" priority="30">
       <formula>ISNUMBER(SEARCH("BAD", D591))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D613:T613">
-    <cfRule type="expression" dxfId="19" priority="16">
+    <cfRule type="expression" dxfId="24" priority="21">
       <formula>ISNUMBER(SEARCH("NEW", D613))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="17">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>ISNUMBER(SEARCH("BEST", D613))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>ISNUMBER(SEARCH("GOOD", D613))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>ISNUMBER(SEARCH("OK", D613))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="20">
+    <cfRule type="expression" dxfId="20" priority="25">
       <formula>ISNUMBER(SEARCH("BAD", D613))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D635:T635">
-    <cfRule type="expression" dxfId="14" priority="11">
+    <cfRule type="expression" dxfId="19" priority="16">
       <formula>ISNUMBER(SEARCH("NEW", D635))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>ISNUMBER(SEARCH("BEST", D635))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>ISNUMBER(SEARCH("GOOD", D635))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>ISNUMBER(SEARCH("OK", D635))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="15" priority="20">
       <formula>ISNUMBER(SEARCH("BAD", D635))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D752:T752">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>ISNUMBER(SEARCH("NEW", D752))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>ISNUMBER(SEARCH("BEST", D752))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>ISNUMBER(SEARCH("GOOD", D752))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>ISNUMBER(SEARCH("OK", D752))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="10" priority="15">
       <formula>ISNUMBER(SEARCH("BAD", D752))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D805:T805">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>ISNUMBER(SEARCH("NEW", D805))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>ISNUMBER(SEARCH("BEST", D805))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>ISNUMBER(SEARCH("GOOD", D805))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>ISNUMBER(SEARCH("OK", D805))</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="5" priority="10">
+      <formula>ISNUMBER(SEARCH("BAD", D805))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D853:T853">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>ISNUMBER(SEARCH("NEW", D853))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>ISNUMBER(SEARCH("BEST", D853))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISNUMBER(SEARCH("GOOD", D853))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>ISNUMBER(SEARCH("OK", D853))</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>ISNUMBER(SEARCH("BAD", D805))</formula>
+      <formula>ISNUMBER(SEARCH("BAD", D853))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/options-recap/realtime/excel/Options Recap - Realtime.xlsx
+++ b/data/options-recap/realtime/excel/Options Recap - Realtime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Programming\Cue\data\options-recap\realtime\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447B9896-1BED-4803-A1FF-68291A0BC216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78038DA0-C7A4-4B15-AEB4-2719102D9EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{46699434-473C-4966-BCFA-04206E4C53EA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16158" uniqueCount="9924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16647" uniqueCount="10205">
   <si>
     <t>Ticker</t>
   </si>
@@ -29806,6 +29806,849 @@
   </si>
   <si>
     <t>BEST|$250</t>
+  </si>
+  <si>
+    <t>FUBO</t>
+  </si>
+  <si>
+    <t>OKAY|08:08</t>
+  </si>
+  <si>
+    <t>BEST|$16.71</t>
+  </si>
+  <si>
+    <t>BAD|25.67%</t>
+  </si>
+  <si>
+    <t>BAD|8437</t>
+  </si>
+  <si>
+    <t>BAD|1547</t>
+  </si>
+  <si>
+    <t>OKAY|545.38</t>
+  </si>
+  <si>
+    <t>BEST|95.59%</t>
+  </si>
+  <si>
+    <t>BAD|0.2421</t>
+  </si>
+  <si>
+    <t>BAD|0.0689</t>
+  </si>
+  <si>
+    <t>ALLK</t>
+  </si>
+  <si>
+    <t>NEW|08:45</t>
+  </si>
+  <si>
+    <t>NEW|28</t>
+  </si>
+  <si>
+    <t>NEW|$15</t>
+  </si>
+  <si>
+    <t>NEW|$10.88</t>
+  </si>
+  <si>
+    <t>NEW|37.87%</t>
+  </si>
+  <si>
+    <t>NEW|1296</t>
+  </si>
+  <si>
+    <t>NEW|11</t>
+  </si>
+  <si>
+    <t>NEW|11781.82</t>
+  </si>
+  <si>
+    <t>NEW|211.02%</t>
+  </si>
+  <si>
+    <t>NEW|0.415</t>
+  </si>
+  <si>
+    <t>NEW|0.0595</t>
+  </si>
+  <si>
+    <t>NEW|0.0121</t>
+  </si>
+  <si>
+    <t>NEW|-0.0438</t>
+  </si>
+  <si>
+    <t>NEW|$145</t>
+  </si>
+  <si>
+    <t>PAYX</t>
+  </si>
+  <si>
+    <t>NEW|10:01</t>
+  </si>
+  <si>
+    <t>NEW|392</t>
+  </si>
+  <si>
+    <t>NEW|$160</t>
+  </si>
+  <si>
+    <t>NEW|$135.19</t>
+  </si>
+  <si>
+    <t>NEW|18.35%</t>
+  </si>
+  <si>
+    <t>NEW|730</t>
+  </si>
+  <si>
+    <t>NEW|43</t>
+  </si>
+  <si>
+    <t>NEW|1697.67</t>
+  </si>
+  <si>
+    <t>NEW|22.52%</t>
+  </si>
+  <si>
+    <t>NEW|0.2521</t>
+  </si>
+  <si>
+    <t>NEW|0.0106</t>
+  </si>
+  <si>
+    <t>NEW|0.4432</t>
+  </si>
+  <si>
+    <t>NEW|-0.0122</t>
+  </si>
+  <si>
+    <t>NEW|0.3058</t>
+  </si>
+  <si>
+    <t>NEW|$480</t>
+  </si>
+  <si>
+    <t>BAD|$20.27</t>
+  </si>
+  <si>
+    <t>BAD|-8.73%</t>
+  </si>
+  <si>
+    <t>BAD|754</t>
+  </si>
+  <si>
+    <t>OKAY|64</t>
+  </si>
+  <si>
+    <t>BEST|1178.12</t>
+  </si>
+  <si>
+    <t>BEST|44.33%</t>
+  </si>
+  <si>
+    <t>GOOD|0.7871</t>
+  </si>
+  <si>
+    <t>BAD|0.1143</t>
+  </si>
+  <si>
+    <t>OKAY|0.0167</t>
+  </si>
+  <si>
+    <t>BEST|0.011</t>
+  </si>
+  <si>
+    <t>BAD|$213</t>
+  </si>
+  <si>
+    <t>BAD|$20.13</t>
+  </si>
+  <si>
+    <t>BAD|26.68%</t>
+  </si>
+  <si>
+    <t>BAD|2691</t>
+  </si>
+  <si>
+    <t>GOOD|709</t>
+  </si>
+  <si>
+    <t>BAD|379.55</t>
+  </si>
+  <si>
+    <t>BAD|108.27%</t>
+  </si>
+  <si>
+    <t>OKAY|0.048</t>
+  </si>
+  <si>
+    <t>BEST|0.0048</t>
+  </si>
+  <si>
+    <t>GOOD|0.0004</t>
+  </si>
+  <si>
+    <t>GOOD|175</t>
+  </si>
+  <si>
+    <t>OKAY|$416</t>
+  </si>
+  <si>
+    <t>OKAY|$397.73</t>
+  </si>
+  <si>
+    <t>BAD|4.59%</t>
+  </si>
+  <si>
+    <t>OKAY|3022</t>
+  </si>
+  <si>
+    <t>GOOD|259</t>
+  </si>
+  <si>
+    <t>BAD|1166.8</t>
+  </si>
+  <si>
+    <t>BEST|21.43%</t>
+  </si>
+  <si>
+    <t>OKAY|0.4126</t>
+  </si>
+  <si>
+    <t>BAD|1.075</t>
+  </si>
+  <si>
+    <t>BAD|-0.0652</t>
+  </si>
+  <si>
+    <t>BAD|0.7102</t>
+  </si>
+  <si>
+    <t>OKAY|$1623</t>
+  </si>
+  <si>
+    <t>GOOD|$141</t>
+  </si>
+  <si>
+    <t>BEST|$148.08</t>
+  </si>
+  <si>
+    <t>OKAY|-4.78%</t>
+  </si>
+  <si>
+    <t>OKAY|787</t>
+  </si>
+  <si>
+    <t>BAD|1108.45</t>
+  </si>
+  <si>
+    <t>GOOD|48.41%</t>
+  </si>
+  <si>
+    <t>OKAY|-0.3335</t>
+  </si>
+  <si>
+    <t>OKAY|0.1523</t>
+  </si>
+  <si>
+    <t>GOOD|-0.1272</t>
+  </si>
+  <si>
+    <t>BAD|-0.0398</t>
+  </si>
+  <si>
+    <t>OKAY|$485</t>
+  </si>
+  <si>
+    <t>LAZR</t>
+  </si>
+  <si>
+    <t>BEST|$17.52</t>
+  </si>
+  <si>
+    <t>BAD|8.45%</t>
+  </si>
+  <si>
+    <t>OKAY|5069</t>
+  </si>
+  <si>
+    <t>BEST|132</t>
+  </si>
+  <si>
+    <t>BAD|3840.15</t>
+  </si>
+  <si>
+    <t>BAD|54.91%</t>
+  </si>
+  <si>
+    <t>GOOD|0.185</t>
+  </si>
+  <si>
+    <t>BEST|0.1758</t>
+  </si>
+  <si>
+    <t>BEST|0.007</t>
+  </si>
+  <si>
+    <t>BEST|12:16</t>
+  </si>
+  <si>
+    <t>BEST|$4.5</t>
+  </si>
+  <si>
+    <t>BEST|$4.8</t>
+  </si>
+  <si>
+    <t>BEST|-6.25%</t>
+  </si>
+  <si>
+    <t>BEST|1046</t>
+  </si>
+  <si>
+    <t>BEST|245</t>
+  </si>
+  <si>
+    <t>BEST|426.94</t>
+  </si>
+  <si>
+    <t>BEST|57.36%</t>
+  </si>
+  <si>
+    <t>BAD|0.753</t>
+  </si>
+  <si>
+    <t>BEST|0.6511</t>
+  </si>
+  <si>
+    <t>BEST|-0.0096</t>
+  </si>
+  <si>
+    <t>GOOD|12:24</t>
+  </si>
+  <si>
+    <t>BEST|$13</t>
+  </si>
+  <si>
+    <t>OKAY|$14.05</t>
+  </si>
+  <si>
+    <t>BAD|-7.47%</t>
+  </si>
+  <si>
+    <t>BEST|2795</t>
+  </si>
+  <si>
+    <t>BAD|811</t>
+  </si>
+  <si>
+    <t>OKAY|344.64</t>
+  </si>
+  <si>
+    <t>BEST|88.44%</t>
+  </si>
+  <si>
+    <t>BEST|-0.2994</t>
+  </si>
+  <si>
+    <t>GOOD|0.1377</t>
+  </si>
+  <si>
+    <t>BEST|-0.0018</t>
+  </si>
+  <si>
+    <t>STNE</t>
+  </si>
+  <si>
+    <t>BAD|$17.94</t>
+  </si>
+  <si>
+    <t>BAD|11.48%</t>
+  </si>
+  <si>
+    <t>OKAY|7117</t>
+  </si>
+  <si>
+    <t>OKAY|4651.63</t>
+  </si>
+  <si>
+    <t>BAD|114.35%</t>
+  </si>
+  <si>
+    <t>BAD|0.3406</t>
+  </si>
+  <si>
+    <t>OKAY|-0.0716</t>
+  </si>
+  <si>
+    <t>OKAY|12:34</t>
+  </si>
+  <si>
+    <t>OKAY|$116</t>
+  </si>
+  <si>
+    <t>OKAY|$100.48</t>
+  </si>
+  <si>
+    <t>OKAY|15.45%</t>
+  </si>
+  <si>
+    <t>OKAY|374</t>
+  </si>
+  <si>
+    <t>OKAY|25</t>
+  </si>
+  <si>
+    <t>OKAY|1496</t>
+  </si>
+  <si>
+    <t>OKAY|72.34%</t>
+  </si>
+  <si>
+    <t>OKAY|0.1029</t>
+  </si>
+  <si>
+    <t>OKAY|0.0268</t>
+  </si>
+  <si>
+    <t>OKAY|-0.1151</t>
+  </si>
+  <si>
+    <t>BAD|12:41</t>
+  </si>
+  <si>
+    <t>GOOD|$115</t>
+  </si>
+  <si>
+    <t>OKAY|$166.57</t>
+  </si>
+  <si>
+    <t>BAD|-30.96%</t>
+  </si>
+  <si>
+    <t>BAD|453.15</t>
+  </si>
+  <si>
+    <t>BAD|87.13%</t>
+  </si>
+  <si>
+    <t>OKAY|-0.0708</t>
+  </si>
+  <si>
+    <t>OKAY|0.0029</t>
+  </si>
+  <si>
+    <t>OKAY|0.071</t>
+  </si>
+  <si>
+    <t>BAD|-0.0854</t>
+  </si>
+  <si>
+    <t>BAD|-0.013</t>
+  </si>
+  <si>
+    <t>BAD|$162</t>
+  </si>
+  <si>
+    <t>OKAY|56</t>
+  </si>
+  <si>
+    <t>BAD|$26.21</t>
+  </si>
+  <si>
+    <t>GOOD|-19.88%</t>
+  </si>
+  <si>
+    <t>OKAY|3085</t>
+  </si>
+  <si>
+    <t>OKAY|102833.33</t>
+  </si>
+  <si>
+    <t>OKAY|49.92%</t>
+  </si>
+  <si>
+    <t>OKAY|-0.1097</t>
+  </si>
+  <si>
+    <t>GOOD|0.0364</t>
+  </si>
+  <si>
+    <t>OKAY|0.0196</t>
+  </si>
+  <si>
+    <t>OKAY|-0.0047</t>
+  </si>
+  <si>
+    <t>GOOD|12:51</t>
+  </si>
+  <si>
+    <t>OKAY|175</t>
+  </si>
+  <si>
+    <t>OKAY|$30.72</t>
+  </si>
+  <si>
+    <t>BAD|-34.9%</t>
+  </si>
+  <si>
+    <t>BAD|1497</t>
+  </si>
+  <si>
+    <t>BAD|953.5</t>
+  </si>
+  <si>
+    <t>BAD|73.38%</t>
+  </si>
+  <si>
+    <t>BAD|-0.1351</t>
+  </si>
+  <si>
+    <t>GOOD|0.0465</t>
+  </si>
+  <si>
+    <t>BAD|$139</t>
+  </si>
+  <si>
+    <t>NEW|12:59</t>
+  </si>
+  <si>
+    <t>NEW|7</t>
+  </si>
+  <si>
+    <t>NEW|$12</t>
+  </si>
+  <si>
+    <t>NEW|$10.71</t>
+  </si>
+  <si>
+    <t>NEW|12.04%</t>
+  </si>
+  <si>
+    <t>NEW|1746</t>
+  </si>
+  <si>
+    <t>NEW|569</t>
+  </si>
+  <si>
+    <t>NEW|306.85</t>
+  </si>
+  <si>
+    <t>NEW|148.53%</t>
+  </si>
+  <si>
+    <t>NEW|0.3229</t>
+  </si>
+  <si>
+    <t>NEW|0.1638</t>
+  </si>
+  <si>
+    <t>NEW|0.0057</t>
+  </si>
+  <si>
+    <t>NEW|-0.0494</t>
+  </si>
+  <si>
+    <t>NEW|0.0007</t>
+  </si>
+  <si>
+    <t>NEW|$50</t>
+  </si>
+  <si>
+    <t>OKAY|$45.86</t>
+  </si>
+  <si>
+    <t>BEST|-12.78%</t>
+  </si>
+  <si>
+    <t>BAD|273</t>
+  </si>
+  <si>
+    <t>BAD|1186.96</t>
+  </si>
+  <si>
+    <t>BAD|81.3%</t>
+  </si>
+  <si>
+    <t>BEST|-0.2773</t>
+  </si>
+  <si>
+    <t>BAD|0.0228</t>
+  </si>
+  <si>
+    <t>BEST|0.0608</t>
+  </si>
+  <si>
+    <t>BEST|-0.0431</t>
+  </si>
+  <si>
+    <t>BAD|13:06</t>
+  </si>
+  <si>
+    <t>BAD|$41.11</t>
+  </si>
+  <si>
+    <t>BAD|7.03%</t>
+  </si>
+  <si>
+    <t>OKAY|2170.83</t>
+  </si>
+  <si>
+    <t>OKAY|37.23%</t>
+  </si>
+  <si>
+    <t>BAD|0.0865</t>
+  </si>
+  <si>
+    <t>OKAY|-0.028</t>
+  </si>
+  <si>
+    <t>BAD|13:09</t>
+  </si>
+  <si>
+    <t>BEST|$6.51</t>
+  </si>
+  <si>
+    <t>BAD|22.89%</t>
+  </si>
+  <si>
+    <t>BAD|1917</t>
+  </si>
+  <si>
+    <t>BAD|104</t>
+  </si>
+  <si>
+    <t>BAD|1843.27</t>
+  </si>
+  <si>
+    <t>BAD|62.9%</t>
+  </si>
+  <si>
+    <t>BAD|0.2454</t>
+  </si>
+  <si>
+    <t>OKAY|0.1924</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0045</t>
+  </si>
+  <si>
+    <t>BAD|0.0022</t>
+  </si>
+  <si>
+    <t>BAD|13:17</t>
+  </si>
+  <si>
+    <t>OKAY|$13.98</t>
+  </si>
+  <si>
+    <t>GOOD|-28.47%</t>
+  </si>
+  <si>
+    <t>OKAY|285</t>
+  </si>
+  <si>
+    <t>BAD|401.41</t>
+  </si>
+  <si>
+    <t>OKAY|117.06%</t>
+  </si>
+  <si>
+    <t>BAD|0.8292</t>
+  </si>
+  <si>
+    <t>OKAY|0.0394</t>
+  </si>
+  <si>
+    <t>BAD|-0.0142</t>
+  </si>
+  <si>
+    <t>OKAY|$475</t>
+  </si>
+  <si>
+    <t>CPNG</t>
+  </si>
+  <si>
+    <t>BAD|13:20</t>
+  </si>
+  <si>
+    <t>OKAY|$32.5</t>
+  </si>
+  <si>
+    <t>BEST|$30.19</t>
+  </si>
+  <si>
+    <t>OKAY|7.65%</t>
+  </si>
+  <si>
+    <t>BAD|15544</t>
+  </si>
+  <si>
+    <t>BAD|4764</t>
+  </si>
+  <si>
+    <t>BAD|326.28</t>
+  </si>
+  <si>
+    <t>OKAY|42.61%</t>
+  </si>
+  <si>
+    <t>BAD|0.2987</t>
+  </si>
+  <si>
+    <t>BEST|0.0928</t>
+  </si>
+  <si>
+    <t>BAD|0.0296</t>
+  </si>
+  <si>
+    <t>BEST|-0.0222</t>
+  </si>
+  <si>
+    <t>BAD|$282.5</t>
+  </si>
+  <si>
+    <t>BEST|$297.61</t>
+  </si>
+  <si>
+    <t>BAD|-5.08%</t>
+  </si>
+  <si>
+    <t>BAD|2030</t>
+  </si>
+  <si>
+    <t>BEST|602</t>
+  </si>
+  <si>
+    <t>OKAY|337.21</t>
+  </si>
+  <si>
+    <t>BEST|43.22%</t>
+  </si>
+  <si>
+    <t>OKAY|0.0146</t>
+  </si>
+  <si>
+    <t>OKAY|0.124</t>
+  </si>
+  <si>
+    <t>BEST|-0.3323</t>
+  </si>
+  <si>
+    <t>BEST|-0.0127</t>
+  </si>
+  <si>
+    <t>GOOD|$25.62</t>
+  </si>
+  <si>
+    <t>OKAY|8616</t>
+  </si>
+  <si>
+    <t>GOOD|1696</t>
+  </si>
+  <si>
+    <t>OKAY|508.02</t>
+  </si>
+  <si>
+    <t>BEST|100.03%</t>
+  </si>
+  <si>
+    <t>GOOD|0.3921</t>
+  </si>
+  <si>
+    <t>BEST|0.0146</t>
+  </si>
+  <si>
+    <t>OKAY|-0.0928</t>
+  </si>
+  <si>
+    <t>BAD|$17.43</t>
+  </si>
+  <si>
+    <t>BAD|6.14%</t>
+  </si>
+  <si>
+    <t>OKAY|834</t>
+  </si>
+  <si>
+    <t>BAD|27800</t>
+  </si>
+  <si>
+    <t>BAD|119.03%</t>
+  </si>
+  <si>
+    <t>OKAY|0.4002</t>
+  </si>
+  <si>
+    <t>BAD|0.1209</t>
+  </si>
+  <si>
+    <t>OKAY|-0.0789</t>
+  </si>
+  <si>
+    <t>OKAY|13:53</t>
+  </si>
+  <si>
+    <t>BEST|$17.32</t>
+  </si>
+  <si>
+    <t>OKAY|6.81%</t>
+  </si>
+  <si>
+    <t>BEST|1561</t>
+  </si>
+  <si>
+    <t>BEST|3630.23</t>
+  </si>
+  <si>
+    <t>BAD|61.75%</t>
+  </si>
+  <si>
+    <t>GOOD|0.2459</t>
+  </si>
+  <si>
+    <t>BEST|0.2014</t>
+  </si>
+  <si>
+    <t>GOOD|-0.0308</t>
+  </si>
+  <si>
+    <t>BEST|0.0008</t>
+  </si>
+  <si>
+    <t>NEW|$12.5</t>
+  </si>
+  <si>
+    <t>NEW|$10.47</t>
+  </si>
+  <si>
+    <t>NEW|19.39%</t>
+  </si>
+  <si>
+    <t>NEW|6989</t>
+  </si>
+  <si>
+    <t>NEW|38</t>
+  </si>
+  <si>
+    <t>NEW|18392.11</t>
+  </si>
+  <si>
+    <t>NEW|191.47%</t>
+  </si>
+  <si>
+    <t>NEW|0.4699</t>
+  </si>
+  <si>
+    <t>NEW|0.0723</t>
+  </si>
+  <si>
+    <t>NEW|0.0117</t>
+  </si>
+  <si>
+    <t>NEW|-0.0376</t>
   </si>
 </sst>
 </file>
@@ -29971,7 +30814,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="50">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -30597,10 +31475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01A41AF-5C41-43F4-ABA6-E54911303FD1}">
-  <dimension ref="A1:U905"/>
+  <dimension ref="A1:U933"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U905" sqref="A905:U905"/>
+      <selection activeCell="A2" sqref="A2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -85758,7 +86636,7 @@
     </row>
     <row r="854" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A854" s="23">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B854" s="23"/>
       <c r="C854" s="23"/>
@@ -89096,169 +89974,1967 @@
         <v>0.625</v>
       </c>
     </row>
+    <row r="906" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A906" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B906" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C906" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D906" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E906" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F906" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G906" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H906" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I906" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J906" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K906" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L906" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M906" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N906" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O906" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P906" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q906" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R906" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S906" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T906" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U906" s="1" t="s">
+        <v>6862</v>
+      </c>
+    </row>
+    <row r="907" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A907" s="23">
+        <v>44553</v>
+      </c>
+      <c r="B907" s="23"/>
+      <c r="C907" s="23"/>
+      <c r="D907" s="23"/>
+      <c r="E907" s="23"/>
+      <c r="F907" s="23"/>
+      <c r="G907" s="23"/>
+      <c r="H907" s="23"/>
+      <c r="I907" s="23"/>
+      <c r="J907" s="23"/>
+      <c r="K907" s="23"/>
+      <c r="L907" s="23"/>
+      <c r="M907" s="23"/>
+      <c r="N907" s="23"/>
+      <c r="O907" s="23"/>
+      <c r="P907" s="23"/>
+      <c r="Q907" s="23"/>
+      <c r="R907" s="23"/>
+      <c r="S907" s="23"/>
+      <c r="T907" s="23"/>
+      <c r="U907" s="23"/>
+    </row>
+    <row r="908" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A908" s="4" t="s">
+        <v>9924</v>
+      </c>
+      <c r="B908" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C908" s="11">
+        <v>44553.338888888888</v>
+      </c>
+      <c r="D908" s="10" t="s">
+        <v>3836</v>
+      </c>
+      <c r="E908" s="10" t="s">
+        <v>9925</v>
+      </c>
+      <c r="F908" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G908" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="H908" s="10" t="s">
+        <v>4435</v>
+      </c>
+      <c r="I908" s="10" t="s">
+        <v>9926</v>
+      </c>
+      <c r="J908" s="10" t="s">
+        <v>9927</v>
+      </c>
+      <c r="K908" s="10" t="s">
+        <v>9928</v>
+      </c>
+      <c r="L908" s="10" t="s">
+        <v>9929</v>
+      </c>
+      <c r="M908" s="10" t="s">
+        <v>9930</v>
+      </c>
+      <c r="N908" s="10" t="s">
+        <v>9931</v>
+      </c>
+      <c r="O908" s="10" t="s">
+        <v>9932</v>
+      </c>
+      <c r="P908" s="10" t="s">
+        <v>9933</v>
+      </c>
+      <c r="Q908" s="10" t="s">
+        <v>2837</v>
+      </c>
+      <c r="R908" s="10" t="s">
+        <v>1964</v>
+      </c>
+      <c r="S908" s="10" t="s">
+        <v>7073</v>
+      </c>
+      <c r="T908" s="10" t="s">
+        <v>4409</v>
+      </c>
+      <c r="U908" s="8">
+        <v>0.4531</v>
+      </c>
+    </row>
+    <row r="909" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A909" s="4" t="s">
+        <v>9934</v>
+      </c>
+      <c r="B909" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C909" s="11">
+        <v>44553.364583333336</v>
+      </c>
+      <c r="D909" s="10" t="s">
+        <v>3851</v>
+      </c>
+      <c r="E909" s="10" t="s">
+        <v>9935</v>
+      </c>
+      <c r="F909" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G909" s="10" t="s">
+        <v>9936</v>
+      </c>
+      <c r="H909" s="10" t="s">
+        <v>9937</v>
+      </c>
+      <c r="I909" s="10" t="s">
+        <v>9938</v>
+      </c>
+      <c r="J909" s="10" t="s">
+        <v>9939</v>
+      </c>
+      <c r="K909" s="10" t="s">
+        <v>9940</v>
+      </c>
+      <c r="L909" s="10" t="s">
+        <v>9941</v>
+      </c>
+      <c r="M909" s="10" t="s">
+        <v>9942</v>
+      </c>
+      <c r="N909" s="10" t="s">
+        <v>9943</v>
+      </c>
+      <c r="O909" s="10" t="s">
+        <v>9944</v>
+      </c>
+      <c r="P909" s="10" t="s">
+        <v>9945</v>
+      </c>
+      <c r="Q909" s="10" t="s">
+        <v>9946</v>
+      </c>
+      <c r="R909" s="10" t="s">
+        <v>9947</v>
+      </c>
+      <c r="S909" s="10" t="s">
+        <v>3532</v>
+      </c>
+      <c r="T909" s="10" t="s">
+        <v>9948</v>
+      </c>
+      <c r="U909" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A910" s="4" t="s">
+        <v>9949</v>
+      </c>
+      <c r="B910" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C910" s="11">
+        <v>44553.417361111111</v>
+      </c>
+      <c r="D910" s="10" t="s">
+        <v>3851</v>
+      </c>
+      <c r="E910" s="10" t="s">
+        <v>9950</v>
+      </c>
+      <c r="F910" s="12">
+        <v>44946</v>
+      </c>
+      <c r="G910" s="10" t="s">
+        <v>9951</v>
+      </c>
+      <c r="H910" s="10" t="s">
+        <v>9952</v>
+      </c>
+      <c r="I910" s="10" t="s">
+        <v>9953</v>
+      </c>
+      <c r="J910" s="10" t="s">
+        <v>9954</v>
+      </c>
+      <c r="K910" s="10" t="s">
+        <v>9955</v>
+      </c>
+      <c r="L910" s="10" t="s">
+        <v>9956</v>
+      </c>
+      <c r="M910" s="10" t="s">
+        <v>9957</v>
+      </c>
+      <c r="N910" s="10" t="s">
+        <v>9958</v>
+      </c>
+      <c r="O910" s="10" t="s">
+        <v>9959</v>
+      </c>
+      <c r="P910" s="10" t="s">
+        <v>9960</v>
+      </c>
+      <c r="Q910" s="10" t="s">
+        <v>9961</v>
+      </c>
+      <c r="R910" s="10" t="s">
+        <v>9962</v>
+      </c>
+      <c r="S910" s="10" t="s">
+        <v>9963</v>
+      </c>
+      <c r="T910" s="10" t="s">
+        <v>9964</v>
+      </c>
+      <c r="U910" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A911" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B911" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C911" s="11">
+        <v>44553.440972222219</v>
+      </c>
+      <c r="D911" s="10" t="s">
+        <v>3836</v>
+      </c>
+      <c r="E911" s="10" t="s">
+        <v>9087</v>
+      </c>
+      <c r="F911" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G911" s="10" t="s">
+        <v>1843</v>
+      </c>
+      <c r="H911" s="10" t="s">
+        <v>5684</v>
+      </c>
+      <c r="I911" s="10" t="s">
+        <v>9965</v>
+      </c>
+      <c r="J911" s="10" t="s">
+        <v>9966</v>
+      </c>
+      <c r="K911" s="10" t="s">
+        <v>9967</v>
+      </c>
+      <c r="L911" s="10" t="s">
+        <v>9968</v>
+      </c>
+      <c r="M911" s="10" t="s">
+        <v>9969</v>
+      </c>
+      <c r="N911" s="10" t="s">
+        <v>9970</v>
+      </c>
+      <c r="O911" s="10" t="s">
+        <v>9971</v>
+      </c>
+      <c r="P911" s="10" t="s">
+        <v>9972</v>
+      </c>
+      <c r="Q911" s="10" t="s">
+        <v>9973</v>
+      </c>
+      <c r="R911" s="10" t="s">
+        <v>1520</v>
+      </c>
+      <c r="S911" s="10" t="s">
+        <v>9974</v>
+      </c>
+      <c r="T911" s="10" t="s">
+        <v>9975</v>
+      </c>
+      <c r="U911" s="8">
+        <v>0.51559999999999995</v>
+      </c>
+    </row>
+    <row r="912" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A912" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B912" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C912" s="11">
+        <v>44553.466666666667</v>
+      </c>
+      <c r="D912" s="10" t="s">
+        <v>3837</v>
+      </c>
+      <c r="E912" s="10" t="s">
+        <v>9148</v>
+      </c>
+      <c r="F912" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G912" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H912" s="10" t="s">
+        <v>7216</v>
+      </c>
+      <c r="I912" s="10" t="s">
+        <v>9976</v>
+      </c>
+      <c r="J912" s="10" t="s">
+        <v>9977</v>
+      </c>
+      <c r="K912" s="10" t="s">
+        <v>9978</v>
+      </c>
+      <c r="L912" s="10" t="s">
+        <v>9979</v>
+      </c>
+      <c r="M912" s="10" t="s">
+        <v>9980</v>
+      </c>
+      <c r="N912" s="10" t="s">
+        <v>9981</v>
+      </c>
+      <c r="O912" s="10" t="s">
+        <v>9711</v>
+      </c>
+      <c r="P912" s="10" t="s">
+        <v>9982</v>
+      </c>
+      <c r="Q912" s="10" t="s">
+        <v>9983</v>
+      </c>
+      <c r="R912" s="10" t="s">
+        <v>9797</v>
+      </c>
+      <c r="S912" s="10" t="s">
+        <v>9984</v>
+      </c>
+      <c r="T912" s="10" t="s">
+        <v>4762</v>
+      </c>
+      <c r="U912" s="8">
+        <v>0.4219</v>
+      </c>
+    </row>
+    <row r="913" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A913" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B913" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C913" s="11">
+        <v>44553.504166666666</v>
+      </c>
+      <c r="D913" s="10" t="s">
+        <v>3838</v>
+      </c>
+      <c r="E913" s="10" t="s">
+        <v>4189</v>
+      </c>
+      <c r="F913" s="12">
+        <v>44729</v>
+      </c>
+      <c r="G913" s="10" t="s">
+        <v>9985</v>
+      </c>
+      <c r="H913" s="10" t="s">
+        <v>9986</v>
+      </c>
+      <c r="I913" s="10" t="s">
+        <v>9987</v>
+      </c>
+      <c r="J913" s="10" t="s">
+        <v>9988</v>
+      </c>
+      <c r="K913" s="10" t="s">
+        <v>9989</v>
+      </c>
+      <c r="L913" s="10" t="s">
+        <v>9990</v>
+      </c>
+      <c r="M913" s="10" t="s">
+        <v>9991</v>
+      </c>
+      <c r="N913" s="10" t="s">
+        <v>9992</v>
+      </c>
+      <c r="O913" s="10" t="s">
+        <v>9993</v>
+      </c>
+      <c r="P913" s="10" t="s">
+        <v>2264</v>
+      </c>
+      <c r="Q913" s="10" t="s">
+        <v>9994</v>
+      </c>
+      <c r="R913" s="10" t="s">
+        <v>9995</v>
+      </c>
+      <c r="S913" s="10" t="s">
+        <v>9996</v>
+      </c>
+      <c r="T913" s="10" t="s">
+        <v>9997</v>
+      </c>
+      <c r="U913" s="8">
+        <v>0.46879999999999999</v>
+      </c>
+    </row>
+    <row r="914" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A914" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B914" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C914" s="11">
+        <v>44553.504166666666</v>
+      </c>
+      <c r="D914" s="10" t="s">
+        <v>3836</v>
+      </c>
+      <c r="E914" s="10" t="s">
+        <v>9214</v>
+      </c>
+      <c r="F914" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G914" s="10" t="s">
+        <v>1843</v>
+      </c>
+      <c r="H914" s="10" t="s">
+        <v>9998</v>
+      </c>
+      <c r="I914" s="10" t="s">
+        <v>9999</v>
+      </c>
+      <c r="J914" s="10" t="s">
+        <v>10000</v>
+      </c>
+      <c r="K914" s="10" t="s">
+        <v>10001</v>
+      </c>
+      <c r="L914" s="10" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M914" s="10" t="s">
+        <v>10002</v>
+      </c>
+      <c r="N914" s="10" t="s">
+        <v>10003</v>
+      </c>
+      <c r="O914" s="10" t="s">
+        <v>10004</v>
+      </c>
+      <c r="P914" s="10" t="s">
+        <v>1265</v>
+      </c>
+      <c r="Q914" s="10" t="s">
+        <v>10005</v>
+      </c>
+      <c r="R914" s="10" t="s">
+        <v>10006</v>
+      </c>
+      <c r="S914" s="10" t="s">
+        <v>10007</v>
+      </c>
+      <c r="T914" s="10" t="s">
+        <v>10008</v>
+      </c>
+      <c r="U914" s="8">
+        <v>0.54690000000000005</v>
+      </c>
+    </row>
+    <row r="915" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A915" s="4" t="s">
+        <v>10009</v>
+      </c>
+      <c r="B915" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C915" s="11">
+        <v>44553.509027777778</v>
+      </c>
+      <c r="D915" s="10" t="s">
+        <v>3838</v>
+      </c>
+      <c r="E915" s="10" t="s">
+        <v>4204</v>
+      </c>
+      <c r="F915" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G915" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H915" s="10" t="s">
+        <v>4745</v>
+      </c>
+      <c r="I915" s="10" t="s">
+        <v>10010</v>
+      </c>
+      <c r="J915" s="10" t="s">
+        <v>10011</v>
+      </c>
+      <c r="K915" s="10" t="s">
+        <v>10012</v>
+      </c>
+      <c r="L915" s="10" t="s">
+        <v>10013</v>
+      </c>
+      <c r="M915" s="10" t="s">
+        <v>10014</v>
+      </c>
+      <c r="N915" s="10" t="s">
+        <v>10015</v>
+      </c>
+      <c r="O915" s="10" t="s">
+        <v>10016</v>
+      </c>
+      <c r="P915" s="10" t="s">
+        <v>10017</v>
+      </c>
+      <c r="Q915" s="10" t="s">
+        <v>10018</v>
+      </c>
+      <c r="R915" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="S915" s="10" t="s">
+        <v>2003</v>
+      </c>
+      <c r="T915" s="10" t="s">
+        <v>4618</v>
+      </c>
+      <c r="U915" s="8">
+        <v>0.60940000000000005</v>
+      </c>
+    </row>
+    <row r="916" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A916" s="4" t="s">
+        <v>8533</v>
+      </c>
+      <c r="B916" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C916" s="11">
+        <v>44553.511111111111</v>
+      </c>
+      <c r="D916" s="10" t="s">
+        <v>3838</v>
+      </c>
+      <c r="E916" s="10" t="s">
+        <v>10019</v>
+      </c>
+      <c r="F916" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G916" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H916" s="10" t="s">
+        <v>10020</v>
+      </c>
+      <c r="I916" s="10" t="s">
+        <v>10021</v>
+      </c>
+      <c r="J916" s="10" t="s">
+        <v>10022</v>
+      </c>
+      <c r="K916" s="10" t="s">
+        <v>10023</v>
+      </c>
+      <c r="L916" s="10" t="s">
+        <v>10024</v>
+      </c>
+      <c r="M916" s="10" t="s">
+        <v>10025</v>
+      </c>
+      <c r="N916" s="10" t="s">
+        <v>10026</v>
+      </c>
+      <c r="O916" s="10" t="s">
+        <v>10027</v>
+      </c>
+      <c r="P916" s="10" t="s">
+        <v>10028</v>
+      </c>
+      <c r="Q916" s="10" t="s">
+        <v>3817</v>
+      </c>
+      <c r="R916" s="10" t="s">
+        <v>10029</v>
+      </c>
+      <c r="S916" s="10" t="s">
+        <v>8545</v>
+      </c>
+      <c r="T916" s="10" t="s">
+        <v>4704</v>
+      </c>
+      <c r="U916" s="8">
+        <v>0.85940000000000005</v>
+      </c>
+    </row>
+    <row r="917" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A917" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B917" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C917" s="11">
+        <v>44553.51666666667</v>
+      </c>
+      <c r="D917" s="10" t="s">
+        <v>3838</v>
+      </c>
+      <c r="E917" s="10" t="s">
+        <v>10030</v>
+      </c>
+      <c r="F917" s="12">
+        <v>44568</v>
+      </c>
+      <c r="G917" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="H917" s="10" t="s">
+        <v>10031</v>
+      </c>
+      <c r="I917" s="10" t="s">
+        <v>10032</v>
+      </c>
+      <c r="J917" s="10" t="s">
+        <v>10033</v>
+      </c>
+      <c r="K917" s="10" t="s">
+        <v>10034</v>
+      </c>
+      <c r="L917" s="10" t="s">
+        <v>10035</v>
+      </c>
+      <c r="M917" s="10" t="s">
+        <v>10036</v>
+      </c>
+      <c r="N917" s="10" t="s">
+        <v>10037</v>
+      </c>
+      <c r="O917" s="10" t="s">
+        <v>10038</v>
+      </c>
+      <c r="P917" s="10" t="s">
+        <v>10039</v>
+      </c>
+      <c r="Q917" s="10" t="s">
+        <v>2262</v>
+      </c>
+      <c r="R917" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="S917" s="10" t="s">
+        <v>10040</v>
+      </c>
+      <c r="T917" s="10" t="s">
+        <v>5158</v>
+      </c>
+      <c r="U917" s="8">
+        <v>0.59379999999999999</v>
+      </c>
+    </row>
+    <row r="918" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A918" s="4" t="s">
+        <v>10041</v>
+      </c>
+      <c r="B918" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C918" s="11">
+        <v>44553.521527777775</v>
+      </c>
+      <c r="D918" s="10" t="s">
+        <v>3838</v>
+      </c>
+      <c r="E918" s="10" t="s">
+        <v>4115</v>
+      </c>
+      <c r="F918" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G918" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H918" s="10" t="s">
+        <v>4352</v>
+      </c>
+      <c r="I918" s="10" t="s">
+        <v>10042</v>
+      </c>
+      <c r="J918" s="10" t="s">
+        <v>10043</v>
+      </c>
+      <c r="K918" s="10" t="s">
+        <v>10044</v>
+      </c>
+      <c r="L918" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M918" s="10" t="s">
+        <v>10045</v>
+      </c>
+      <c r="N918" s="10" t="s">
+        <v>10046</v>
+      </c>
+      <c r="O918" s="10" t="s">
+        <v>10047</v>
+      </c>
+      <c r="P918" s="10" t="s">
+        <v>2976</v>
+      </c>
+      <c r="Q918" s="10" t="s">
+        <v>2262</v>
+      </c>
+      <c r="R918" s="10" t="s">
+        <v>10048</v>
+      </c>
+      <c r="S918" s="10" t="s">
+        <v>8403</v>
+      </c>
+      <c r="T918" s="10" t="s">
+        <v>4805</v>
+      </c>
+      <c r="U918" s="8">
+        <v>0.34379999999999999</v>
+      </c>
+    </row>
+    <row r="919" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A919" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="B919" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C919" s="11">
+        <v>44553.523611111108</v>
+      </c>
+      <c r="D919" s="10" t="s">
+        <v>3836</v>
+      </c>
+      <c r="E919" s="10" t="s">
+        <v>10049</v>
+      </c>
+      <c r="F919" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G919" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H919" s="10" t="s">
+        <v>10050</v>
+      </c>
+      <c r="I919" s="10" t="s">
+        <v>10051</v>
+      </c>
+      <c r="J919" s="10" t="s">
+        <v>10052</v>
+      </c>
+      <c r="K919" s="10" t="s">
+        <v>10053</v>
+      </c>
+      <c r="L919" s="10" t="s">
+        <v>10054</v>
+      </c>
+      <c r="M919" s="10" t="s">
+        <v>10055</v>
+      </c>
+      <c r="N919" s="10" t="s">
+        <v>10056</v>
+      </c>
+      <c r="O919" s="10" t="s">
+        <v>10057</v>
+      </c>
+      <c r="P919" s="10" t="s">
+        <v>1171</v>
+      </c>
+      <c r="Q919" s="10" t="s">
+        <v>10058</v>
+      </c>
+      <c r="R919" s="10" t="s">
+        <v>10059</v>
+      </c>
+      <c r="S919" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="T919" s="10" t="s">
+        <v>4662</v>
+      </c>
+      <c r="U919" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="920" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A920" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B920" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C920" s="11">
+        <v>44553.52847222222</v>
+      </c>
+      <c r="D920" s="10" t="s">
+        <v>3837</v>
+      </c>
+      <c r="E920" s="10" t="s">
+        <v>10060</v>
+      </c>
+      <c r="F920" s="12">
+        <v>44589</v>
+      </c>
+      <c r="G920" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H920" s="10" t="s">
+        <v>10061</v>
+      </c>
+      <c r="I920" s="10" t="s">
+        <v>10062</v>
+      </c>
+      <c r="J920" s="10" t="s">
+        <v>10063</v>
+      </c>
+      <c r="K920" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="L920" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="M920" s="10" t="s">
+        <v>10064</v>
+      </c>
+      <c r="N920" s="10" t="s">
+        <v>10065</v>
+      </c>
+      <c r="O920" s="10" t="s">
+        <v>10066</v>
+      </c>
+      <c r="P920" s="10" t="s">
+        <v>10067</v>
+      </c>
+      <c r="Q920" s="10" t="s">
+        <v>10068</v>
+      </c>
+      <c r="R920" s="10" t="s">
+        <v>10069</v>
+      </c>
+      <c r="S920" s="10" t="s">
+        <v>10070</v>
+      </c>
+      <c r="T920" s="10" t="s">
+        <v>10071</v>
+      </c>
+      <c r="U920" s="8">
+        <v>0.3906</v>
+      </c>
+    </row>
+    <row r="921" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A921" s="4" t="s">
+        <v>9662</v>
+      </c>
+      <c r="B921" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C921" s="11">
+        <v>44553.53125</v>
+      </c>
+      <c r="D921" s="10" t="s">
+        <v>3838</v>
+      </c>
+      <c r="E921" s="10" t="s">
+        <v>4233</v>
+      </c>
+      <c r="F921" s="12">
+        <v>44610</v>
+      </c>
+      <c r="G921" s="10" t="s">
+        <v>10072</v>
+      </c>
+      <c r="H921" s="10" t="s">
+        <v>4680</v>
+      </c>
+      <c r="I921" s="10" t="s">
+        <v>10073</v>
+      </c>
+      <c r="J921" s="10" t="s">
+        <v>10074</v>
+      </c>
+      <c r="K921" s="10" t="s">
+        <v>10075</v>
+      </c>
+      <c r="L921" s="10" t="s">
+        <v>2578</v>
+      </c>
+      <c r="M921" s="10" t="s">
+        <v>10076</v>
+      </c>
+      <c r="N921" s="10" t="s">
+        <v>10077</v>
+      </c>
+      <c r="O921" s="10" t="s">
+        <v>10078</v>
+      </c>
+      <c r="P921" s="10" t="s">
+        <v>10079</v>
+      </c>
+      <c r="Q921" s="10" t="s">
+        <v>10080</v>
+      </c>
+      <c r="R921" s="10" t="s">
+        <v>8231</v>
+      </c>
+      <c r="S921" s="10" t="s">
+        <v>10081</v>
+      </c>
+      <c r="T921" s="10" t="s">
+        <v>4293</v>
+      </c>
+      <c r="U921" s="8">
+        <v>0.51559999999999995</v>
+      </c>
+    </row>
+    <row r="922" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A922" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="B922" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C922" s="11">
+        <v>44553.535416666666</v>
+      </c>
+      <c r="D922" s="10" t="s">
+        <v>3836</v>
+      </c>
+      <c r="E922" s="10" t="s">
+        <v>10082</v>
+      </c>
+      <c r="F922" s="12">
+        <v>44729</v>
+      </c>
+      <c r="G922" s="10" t="s">
+        <v>10083</v>
+      </c>
+      <c r="H922" s="10" t="s">
+        <v>5314</v>
+      </c>
+      <c r="I922" s="10" t="s">
+        <v>10084</v>
+      </c>
+      <c r="J922" s="10" t="s">
+        <v>10085</v>
+      </c>
+      <c r="K922" s="10" t="s">
+        <v>10086</v>
+      </c>
+      <c r="L922" s="10" t="s">
+        <v>9572</v>
+      </c>
+      <c r="M922" s="10" t="s">
+        <v>10087</v>
+      </c>
+      <c r="N922" s="10" t="s">
+        <v>10088</v>
+      </c>
+      <c r="O922" s="10" t="s">
+        <v>10089</v>
+      </c>
+      <c r="P922" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="Q922" s="10" t="s">
+        <v>10090</v>
+      </c>
+      <c r="R922" s="10" t="s">
+        <v>8877</v>
+      </c>
+      <c r="S922" s="10" t="s">
+        <v>1359</v>
+      </c>
+      <c r="T922" s="10" t="s">
+        <v>10091</v>
+      </c>
+      <c r="U922" s="8">
+        <v>0.40620000000000001</v>
+      </c>
+    </row>
+    <row r="923" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A923" s="4" t="s">
+        <v>8926</v>
+      </c>
+      <c r="B923" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C923" s="11">
+        <v>44553.540972222225</v>
+      </c>
+      <c r="D923" s="10" t="s">
+        <v>3851</v>
+      </c>
+      <c r="E923" s="10" t="s">
+        <v>10092</v>
+      </c>
+      <c r="F923" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G923" s="10" t="s">
+        <v>10093</v>
+      </c>
+      <c r="H923" s="10" t="s">
+        <v>10094</v>
+      </c>
+      <c r="I923" s="10" t="s">
+        <v>10095</v>
+      </c>
+      <c r="J923" s="10" t="s">
+        <v>10096</v>
+      </c>
+      <c r="K923" s="10" t="s">
+        <v>10097</v>
+      </c>
+      <c r="L923" s="10" t="s">
+        <v>10098</v>
+      </c>
+      <c r="M923" s="10" t="s">
+        <v>10099</v>
+      </c>
+      <c r="N923" s="10" t="s">
+        <v>10100</v>
+      </c>
+      <c r="O923" s="10" t="s">
+        <v>10101</v>
+      </c>
+      <c r="P923" s="10" t="s">
+        <v>10102</v>
+      </c>
+      <c r="Q923" s="10" t="s">
+        <v>10103</v>
+      </c>
+      <c r="R923" s="10" t="s">
+        <v>10104</v>
+      </c>
+      <c r="S923" s="10" t="s">
+        <v>10105</v>
+      </c>
+      <c r="T923" s="10" t="s">
+        <v>10106</v>
+      </c>
+      <c r="U923" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A924" s="4" t="s">
+        <v>9067</v>
+      </c>
+      <c r="B924" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C924" s="11">
+        <v>44553.540972222225</v>
+      </c>
+      <c r="D924" s="10" t="s">
+        <v>3835</v>
+      </c>
+      <c r="E924" s="10" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F924" s="12">
+        <v>44610</v>
+      </c>
+      <c r="G924" s="10" t="s">
+        <v>10072</v>
+      </c>
+      <c r="H924" s="10" t="s">
+        <v>5277</v>
+      </c>
+      <c r="I924" s="10" t="s">
+        <v>10107</v>
+      </c>
+      <c r="J924" s="10" t="s">
+        <v>10108</v>
+      </c>
+      <c r="K924" s="10" t="s">
+        <v>10109</v>
+      </c>
+      <c r="L924" s="10" t="s">
+        <v>957</v>
+      </c>
+      <c r="M924" s="10" t="s">
+        <v>10110</v>
+      </c>
+      <c r="N924" s="10" t="s">
+        <v>10111</v>
+      </c>
+      <c r="O924" s="10" t="s">
+        <v>10112</v>
+      </c>
+      <c r="P924" s="10" t="s">
+        <v>10113</v>
+      </c>
+      <c r="Q924" s="10" t="s">
+        <v>10114</v>
+      </c>
+      <c r="R924" s="10" t="s">
+        <v>10115</v>
+      </c>
+      <c r="S924" s="10" t="s">
+        <v>2138</v>
+      </c>
+      <c r="T924" s="10" t="s">
+        <v>8961</v>
+      </c>
+      <c r="U924" s="8">
+        <v>0.57809999999999995</v>
+      </c>
+    </row>
+    <row r="925" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A925" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B925" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C925" s="11">
+        <v>44553.54583333333</v>
+      </c>
+      <c r="D925" s="10" t="s">
+        <v>3836</v>
+      </c>
+      <c r="E925" s="10" t="s">
+        <v>10116</v>
+      </c>
+      <c r="F925" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G925" s="10" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H925" s="10" t="s">
+        <v>4303</v>
+      </c>
+      <c r="I925" s="10" t="s">
+        <v>10117</v>
+      </c>
+      <c r="J925" s="10" t="s">
+        <v>10118</v>
+      </c>
+      <c r="K925" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="L925" s="10" t="s">
+        <v>8943</v>
+      </c>
+      <c r="M925" s="10" t="s">
+        <v>10119</v>
+      </c>
+      <c r="N925" s="10" t="s">
+        <v>10120</v>
+      </c>
+      <c r="O925" s="10" t="s">
+        <v>1866</v>
+      </c>
+      <c r="P925" s="10" t="s">
+        <v>10121</v>
+      </c>
+      <c r="Q925" s="10" t="s">
+        <v>2548</v>
+      </c>
+      <c r="R925" s="10" t="s">
+        <v>10122</v>
+      </c>
+      <c r="S925" s="10" t="s">
+        <v>2437</v>
+      </c>
+      <c r="T925" s="10" t="s">
+        <v>5097</v>
+      </c>
+      <c r="U925" s="8">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="926" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A926" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B926" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C926" s="11">
+        <v>44553.54791666667</v>
+      </c>
+      <c r="D926" s="10" t="s">
+        <v>3838</v>
+      </c>
+      <c r="E926" s="10" t="s">
+        <v>10123</v>
+      </c>
+      <c r="F926" s="12">
+        <v>44610</v>
+      </c>
+      <c r="G926" s="10" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H926" s="10" t="s">
+        <v>5350</v>
+      </c>
+      <c r="I926" s="10" t="s">
+        <v>10124</v>
+      </c>
+      <c r="J926" s="10" t="s">
+        <v>10125</v>
+      </c>
+      <c r="K926" s="10" t="s">
+        <v>10126</v>
+      </c>
+      <c r="L926" s="10" t="s">
+        <v>10127</v>
+      </c>
+      <c r="M926" s="10" t="s">
+        <v>10128</v>
+      </c>
+      <c r="N926" s="10" t="s">
+        <v>10129</v>
+      </c>
+      <c r="O926" s="10" t="s">
+        <v>10130</v>
+      </c>
+      <c r="P926" s="10" t="s">
+        <v>10131</v>
+      </c>
+      <c r="Q926" s="10" t="s">
+        <v>9008</v>
+      </c>
+      <c r="R926" s="10" t="s">
+        <v>10132</v>
+      </c>
+      <c r="S926" s="10" t="s">
+        <v>10133</v>
+      </c>
+      <c r="T926" s="10" t="s">
+        <v>6321</v>
+      </c>
+      <c r="U926" s="8">
+        <v>0.3906</v>
+      </c>
+    </row>
+    <row r="927" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A927" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B927" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C927" s="11">
+        <v>44553.553472222222</v>
+      </c>
+      <c r="D927" s="10" t="s">
+        <v>3836</v>
+      </c>
+      <c r="E927" s="10" t="s">
+        <v>10134</v>
+      </c>
+      <c r="F927" s="12">
+        <v>44610</v>
+      </c>
+      <c r="G927" s="10" t="s">
+        <v>10072</v>
+      </c>
+      <c r="H927" s="10" t="s">
+        <v>4569</v>
+      </c>
+      <c r="I927" s="10" t="s">
+        <v>10135</v>
+      </c>
+      <c r="J927" s="10" t="s">
+        <v>10136</v>
+      </c>
+      <c r="K927" s="10" t="s">
+        <v>10137</v>
+      </c>
+      <c r="L927" s="10" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M927" s="10" t="s">
+        <v>10138</v>
+      </c>
+      <c r="N927" s="10" t="s">
+        <v>10139</v>
+      </c>
+      <c r="O927" s="10" t="s">
+        <v>10140</v>
+      </c>
+      <c r="P927" s="10" t="s">
+        <v>10141</v>
+      </c>
+      <c r="Q927" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="R927" s="10" t="s">
+        <v>10142</v>
+      </c>
+      <c r="S927" s="10" t="s">
+        <v>2327</v>
+      </c>
+      <c r="T927" s="10" t="s">
+        <v>10143</v>
+      </c>
+      <c r="U927" s="8">
+        <v>0.40620000000000001</v>
+      </c>
+    </row>
+    <row r="928" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A928" s="4" t="s">
+        <v>10144</v>
+      </c>
+      <c r="B928" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C928" s="11">
+        <v>44553.555555555555</v>
+      </c>
+      <c r="D928" s="10" t="s">
+        <v>3837</v>
+      </c>
+      <c r="E928" s="10" t="s">
+        <v>10145</v>
+      </c>
+      <c r="F928" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G928" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="H928" s="10" t="s">
+        <v>10146</v>
+      </c>
+      <c r="I928" s="10" t="s">
+        <v>10147</v>
+      </c>
+      <c r="J928" s="10" t="s">
+        <v>10148</v>
+      </c>
+      <c r="K928" s="10" t="s">
+        <v>10149</v>
+      </c>
+      <c r="L928" s="10" t="s">
+        <v>10150</v>
+      </c>
+      <c r="M928" s="10" t="s">
+        <v>10151</v>
+      </c>
+      <c r="N928" s="10" t="s">
+        <v>10152</v>
+      </c>
+      <c r="O928" s="10" t="s">
+        <v>10153</v>
+      </c>
+      <c r="P928" s="10" t="s">
+        <v>10154</v>
+      </c>
+      <c r="Q928" s="10" t="s">
+        <v>10155</v>
+      </c>
+      <c r="R928" s="10" t="s">
+        <v>10156</v>
+      </c>
+      <c r="S928" s="10" t="s">
+        <v>2264</v>
+      </c>
+      <c r="T928" s="10" t="s">
+        <v>4805</v>
+      </c>
+      <c r="U928" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="929" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A929" s="4" t="s">
+        <v>7416</v>
+      </c>
+      <c r="B929" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C929" s="11">
+        <v>44553.565972222219</v>
+      </c>
+      <c r="D929" s="10" t="s">
+        <v>3836</v>
+      </c>
+      <c r="E929" s="10" t="s">
+        <v>3997</v>
+      </c>
+      <c r="F929" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G929" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H929" s="10" t="s">
+        <v>10157</v>
+      </c>
+      <c r="I929" s="10" t="s">
+        <v>10158</v>
+      </c>
+      <c r="J929" s="10" t="s">
+        <v>10159</v>
+      </c>
+      <c r="K929" s="10" t="s">
+        <v>10160</v>
+      </c>
+      <c r="L929" s="10" t="s">
+        <v>10161</v>
+      </c>
+      <c r="M929" s="10" t="s">
+        <v>10162</v>
+      </c>
+      <c r="N929" s="10" t="s">
+        <v>10163</v>
+      </c>
+      <c r="O929" s="10" t="s">
+        <v>7693</v>
+      </c>
+      <c r="P929" s="10" t="s">
+        <v>10164</v>
+      </c>
+      <c r="Q929" s="10" t="s">
+        <v>10165</v>
+      </c>
+      <c r="R929" s="10" t="s">
+        <v>10166</v>
+      </c>
+      <c r="S929" s="10" t="s">
+        <v>10167</v>
+      </c>
+      <c r="T929" s="10" t="s">
+        <v>5508</v>
+      </c>
+      <c r="U929" s="8">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="930" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A930" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B930" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C930" s="11">
+        <v>44553.570833333331</v>
+      </c>
+      <c r="D930" s="10" t="s">
+        <v>3838</v>
+      </c>
+      <c r="E930" s="10" t="s">
+        <v>4059</v>
+      </c>
+      <c r="F930" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G930" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="H930" s="10" t="s">
+        <v>5032</v>
+      </c>
+      <c r="I930" s="10" t="s">
+        <v>10168</v>
+      </c>
+      <c r="J930" s="10" t="s">
+        <v>4862</v>
+      </c>
+      <c r="K930" s="10" t="s">
+        <v>10169</v>
+      </c>
+      <c r="L930" s="10" t="s">
+        <v>10170</v>
+      </c>
+      <c r="M930" s="10" t="s">
+        <v>10171</v>
+      </c>
+      <c r="N930" s="10" t="s">
+        <v>10172</v>
+      </c>
+      <c r="O930" s="10" t="s">
+        <v>10173</v>
+      </c>
+      <c r="P930" s="10" t="s">
+        <v>3225</v>
+      </c>
+      <c r="Q930" s="10" t="s">
+        <v>10174</v>
+      </c>
+      <c r="R930" s="10" t="s">
+        <v>10175</v>
+      </c>
+      <c r="S930" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="T930" s="10" t="s">
+        <v>5642</v>
+      </c>
+      <c r="U930" s="8">
+        <v>0.64059999999999995</v>
+      </c>
+    </row>
+    <row r="931" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A931" s="4" t="s">
+        <v>10041</v>
+      </c>
+      <c r="B931" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C931" s="11">
+        <v>44553.578472222223</v>
+      </c>
+      <c r="D931" s="10" t="s">
+        <v>3838</v>
+      </c>
+      <c r="E931" s="10" t="s">
+        <v>3892</v>
+      </c>
+      <c r="F931" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G931" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H931" s="10" t="s">
+        <v>5684</v>
+      </c>
+      <c r="I931" s="10" t="s">
+        <v>10176</v>
+      </c>
+      <c r="J931" s="10" t="s">
+        <v>10177</v>
+      </c>
+      <c r="K931" s="10" t="s">
+        <v>10178</v>
+      </c>
+      <c r="L931" s="10" t="s">
+        <v>1661</v>
+      </c>
+      <c r="M931" s="10" t="s">
+        <v>10179</v>
+      </c>
+      <c r="N931" s="10" t="s">
+        <v>10180</v>
+      </c>
+      <c r="O931" s="10" t="s">
+        <v>10181</v>
+      </c>
+      <c r="P931" s="10" t="s">
+        <v>10182</v>
+      </c>
+      <c r="Q931" s="10" t="s">
+        <v>3184</v>
+      </c>
+      <c r="R931" s="10" t="s">
+        <v>10183</v>
+      </c>
+      <c r="S931" s="10" t="s">
+        <v>8403</v>
+      </c>
+      <c r="T931" s="10" t="s">
+        <v>5127</v>
+      </c>
+      <c r="U931" s="8">
+        <v>0.3281</v>
+      </c>
+    </row>
+    <row r="932" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A932" s="4" t="s">
+        <v>10009</v>
+      </c>
+      <c r="B932" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C932" s="11">
+        <v>44553.578472222223</v>
+      </c>
+      <c r="D932" s="10" t="s">
+        <v>3838</v>
+      </c>
+      <c r="E932" s="10" t="s">
+        <v>10184</v>
+      </c>
+      <c r="F932" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G932" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H932" s="10" t="s">
+        <v>6226</v>
+      </c>
+      <c r="I932" s="10" t="s">
+        <v>10185</v>
+      </c>
+      <c r="J932" s="10" t="s">
+        <v>10186</v>
+      </c>
+      <c r="K932" s="10" t="s">
+        <v>10187</v>
+      </c>
+      <c r="L932" s="10" t="s">
+        <v>1724</v>
+      </c>
+      <c r="M932" s="10" t="s">
+        <v>10188</v>
+      </c>
+      <c r="N932" s="10" t="s">
+        <v>10189</v>
+      </c>
+      <c r="O932" s="10" t="s">
+        <v>10190</v>
+      </c>
+      <c r="P932" s="10" t="s">
+        <v>10191</v>
+      </c>
+      <c r="Q932" s="10" t="s">
+        <v>9008</v>
+      </c>
+      <c r="R932" s="10" t="s">
+        <v>10192</v>
+      </c>
+      <c r="S932" s="10" t="s">
+        <v>10193</v>
+      </c>
+      <c r="T932" s="10" t="s">
+        <v>4539</v>
+      </c>
+      <c r="U932" s="8">
+        <v>0.64059999999999995</v>
+      </c>
+    </row>
+    <row r="933" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A933" s="4" t="s">
+        <v>9934</v>
+      </c>
+      <c r="B933" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C933" s="11">
+        <v>44553.579861111109</v>
+      </c>
+      <c r="D933" s="10" t="s">
+        <v>3851</v>
+      </c>
+      <c r="E933" s="10" t="s">
+        <v>7275</v>
+      </c>
+      <c r="F933" s="12">
+        <v>44582</v>
+      </c>
+      <c r="G933" s="10" t="s">
+        <v>9936</v>
+      </c>
+      <c r="H933" s="10" t="s">
+        <v>10194</v>
+      </c>
+      <c r="I933" s="10" t="s">
+        <v>10195</v>
+      </c>
+      <c r="J933" s="10" t="s">
+        <v>10196</v>
+      </c>
+      <c r="K933" s="10" t="s">
+        <v>10197</v>
+      </c>
+      <c r="L933" s="10" t="s">
+        <v>10198</v>
+      </c>
+      <c r="M933" s="10" t="s">
+        <v>10199</v>
+      </c>
+      <c r="N933" s="10" t="s">
+        <v>10200</v>
+      </c>
+      <c r="O933" s="10" t="s">
+        <v>10201</v>
+      </c>
+      <c r="P933" s="10" t="s">
+        <v>10202</v>
+      </c>
+      <c r="Q933" s="10" t="s">
+        <v>10203</v>
+      </c>
+      <c r="R933" s="10" t="s">
+        <v>10204</v>
+      </c>
+      <c r="S933" s="10" t="s">
+        <v>3419</v>
+      </c>
+      <c r="T933" s="10" t="s">
+        <v>9952</v>
+      </c>
+      <c r="U933" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="A570:U570"/>
+    <mergeCell ref="A592:U592"/>
+    <mergeCell ref="A614:U614"/>
+    <mergeCell ref="A907:U907"/>
     <mergeCell ref="A854:U854"/>
     <mergeCell ref="A806:U806"/>
     <mergeCell ref="A753:U753"/>
     <mergeCell ref="A636:U636"/>
     <mergeCell ref="A545:U545"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="A570:U570"/>
-    <mergeCell ref="A592:U592"/>
-    <mergeCell ref="A614:U614"/>
   </mergeCells>
-  <conditionalFormatting sqref="D1:T1 D546:T568 D3:T543 D571:T590 D593:T612 D615:T634 D637:T751 D754:T804 D807:T852 D855:T1048576">
-    <cfRule type="expression" dxfId="44" priority="41">
+  <conditionalFormatting sqref="D1:T1 D546:T568 D3:T543 D571:T590 D593:T612 D615:T634 D637:T751 D754:T804 D807:T852 D855:T905 D908:T1048576">
+    <cfRule type="expression" dxfId="49" priority="46">
       <formula>ISNUMBER(SEARCH("NEW", D1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="42">
+    <cfRule type="expression" dxfId="48" priority="47">
       <formula>ISNUMBER(SEARCH("BEST", D1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="43">
+    <cfRule type="expression" dxfId="47" priority="48">
       <formula>ISNUMBER(SEARCH("GOOD", D1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="44">
+    <cfRule type="expression" dxfId="46" priority="49">
       <formula>ISNUMBER(SEARCH("OK", D1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="45">
+    <cfRule type="expression" dxfId="45" priority="50">
       <formula>ISNUMBER(SEARCH("BAD", D1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D544:T544">
-    <cfRule type="expression" dxfId="39" priority="36">
+    <cfRule type="expression" dxfId="44" priority="41">
       <formula>ISNUMBER(SEARCH("NEW", D544))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="37">
+    <cfRule type="expression" dxfId="43" priority="42">
       <formula>ISNUMBER(SEARCH("BEST", D544))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="42" priority="43">
       <formula>ISNUMBER(SEARCH("GOOD", D544))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="39">
+    <cfRule type="expression" dxfId="41" priority="44">
       <formula>ISNUMBER(SEARCH("OK", D544))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="40">
+    <cfRule type="expression" dxfId="40" priority="45">
       <formula>ISNUMBER(SEARCH("BAD", D544))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D569:T569">
-    <cfRule type="expression" dxfId="34" priority="31">
+    <cfRule type="expression" dxfId="39" priority="36">
       <formula>ISNUMBER(SEARCH("NEW", D569))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="32">
+    <cfRule type="expression" dxfId="38" priority="37">
       <formula>ISNUMBER(SEARCH("BEST", D569))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="37" priority="38">
       <formula>ISNUMBER(SEARCH("GOOD", D569))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="34">
+    <cfRule type="expression" dxfId="36" priority="39">
       <formula>ISNUMBER(SEARCH("OK", D569))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="35">
+    <cfRule type="expression" dxfId="35" priority="40">
       <formula>ISNUMBER(SEARCH("BAD", D569))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D591:T591">
-    <cfRule type="expression" dxfId="29" priority="26">
+    <cfRule type="expression" dxfId="34" priority="31">
       <formula>ISNUMBER(SEARCH("NEW", D591))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="27">
+    <cfRule type="expression" dxfId="33" priority="32">
       <formula>ISNUMBER(SEARCH("BEST", D591))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>ISNUMBER(SEARCH("GOOD", D591))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="29">
+    <cfRule type="expression" dxfId="31" priority="34">
       <formula>ISNUMBER(SEARCH("OK", D591))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="30">
+    <cfRule type="expression" dxfId="30" priority="35">
       <formula>ISNUMBER(SEARCH("BAD", D591))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D613:T613">
-    <cfRule type="expression" dxfId="24" priority="21">
+    <cfRule type="expression" dxfId="29" priority="26">
       <formula>ISNUMBER(SEARCH("NEW", D613))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="28" priority="27">
       <formula>ISNUMBER(SEARCH("BEST", D613))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>ISNUMBER(SEARCH("GOOD", D613))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="26" priority="29">
       <formula>ISNUMBER(SEARCH("OK", D613))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="25">
+    <cfRule type="expression" dxfId="25" priority="30">
       <formula>ISNUMBER(SEARCH("BAD", D613))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D635:T635">
-    <cfRule type="expression" dxfId="19" priority="16">
+    <cfRule type="expression" dxfId="24" priority="21">
       <formula>ISNUMBER(SEARCH("NEW", D635))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="17">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>ISNUMBER(SEARCH("BEST", D635))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>ISNUMBER(SEARCH("GOOD", D635))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>ISNUMBER(SEARCH("OK", D635))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="20">
+    <cfRule type="expression" dxfId="20" priority="25">
       <formula>ISNUMBER(SEARCH("BAD", D635))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D752:T752">
-    <cfRule type="expression" dxfId="14" priority="11">
+    <cfRule type="expression" dxfId="19" priority="16">
       <formula>ISNUMBER(SEARCH("NEW", D752))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>ISNUMBER(SEARCH("BEST", D752))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>ISNUMBER(SEARCH("GOOD", D752))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>ISNUMBER(SEARCH("OK", D752))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="15" priority="20">
       <formula>ISNUMBER(SEARCH("BAD", D752))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D805:T805">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>ISNUMBER(SEARCH("NEW", D805))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>ISNUMBER(SEARCH("BEST", D805))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>ISNUMBER(SEARCH("GOOD", D805))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>ISNUMBER(SEARCH("OK", D805))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="10" priority="15">
       <formula>ISNUMBER(SEARCH("BAD", D805))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D853:T853">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>ISNUMBER(SEARCH("NEW", D853))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>ISNUMBER(SEARCH("BEST", D853))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>ISNUMBER(SEARCH("GOOD", D853))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>ISNUMBER(SEARCH("OK", D853))</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="5" priority="10">
+      <formula>ISNUMBER(SEARCH("BAD", D853))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D906:T906">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>ISNUMBER(SEARCH("NEW", D906))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>ISNUMBER(SEARCH("BEST", D906))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISNUMBER(SEARCH("GOOD", D906))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>ISNUMBER(SEARCH("OK", D906))</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>ISNUMBER(SEARCH("BAD", D853))</formula>
+      <formula>ISNUMBER(SEARCH("BAD", D906))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
